--- a/data/Sales_Forecast.xlsx
+++ b/data/Sales_Forecast.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D544EBD-A93B-4E18-BFF3-C16758069178}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$1001</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -708,12 +704,12 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,7 +742,7 @@
         <v>44471</v>
       </c>
       <c r="B3">
-        <v>2745</v>
+        <v>2581</v>
       </c>
       <c r="C3">
         <v>2780</v>
@@ -758,7 +754,7 @@
         <v>44472</v>
       </c>
       <c r="B4">
-        <v>2630</v>
+        <v>2490</v>
       </c>
       <c r="C4">
         <v>2840</v>
@@ -830,7 +826,7 @@
         <v>44478</v>
       </c>
       <c r="B10">
-        <v>2950</v>
+        <v>2753</v>
       </c>
       <c r="C10">
         <v>2845</v>
@@ -842,10 +838,10 @@
         <v>44479</v>
       </c>
       <c r="B11">
-        <v>2725</v>
+        <v>2534</v>
       </c>
       <c r="C11">
-        <v>2895</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -914,7 +910,7 @@
         <v>44485</v>
       </c>
       <c r="B17">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="C17">
         <v>2740</v>
@@ -926,7 +922,7 @@
         <v>44486</v>
       </c>
       <c r="B18">
-        <v>2650</v>
+        <v>2461</v>
       </c>
       <c r="C18">
         <v>3050</v>
@@ -977,7 +973,7 @@
         <v>2745</v>
       </c>
       <c r="C22">
-        <v>2720</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -989,7 +985,7 @@
         <v>2940</v>
       </c>
       <c r="C23">
-        <v>2580</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -998,7 +994,7 @@
         <v>44492</v>
       </c>
       <c r="B24">
-        <v>2905</v>
+        <v>2784</v>
       </c>
       <c r="C24">
         <v>2790</v>
@@ -1010,10 +1006,10 @@
         <v>44493</v>
       </c>
       <c r="B25">
-        <v>2615</v>
+        <v>2472</v>
       </c>
       <c r="C25">
-        <v>2715</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1082,7 +1078,7 @@
         <v>44499</v>
       </c>
       <c r="B31">
-        <v>2665</v>
+        <v>2483</v>
       </c>
       <c r="C31">
         <v>2755</v>
@@ -1094,7 +1090,7 @@
         <v>44500</v>
       </c>
       <c r="B32">
-        <v>2870</v>
+        <v>2671</v>
       </c>
       <c r="C32">
         <v>2815</v>
@@ -1121,7 +1117,7 @@
         <v>2765</v>
       </c>
       <c r="C34">
-        <v>2895</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1166,7 +1162,7 @@
         <v>44506</v>
       </c>
       <c r="B38">
-        <v>2865</v>
+        <v>2687</v>
       </c>
       <c r="C38">
         <v>2620</v>
@@ -1178,7 +1174,7 @@
         <v>44507</v>
       </c>
       <c r="B39">
-        <v>2650</v>
+        <v>2502</v>
       </c>
       <c r="C39">
         <v>3235</v>
@@ -1250,7 +1246,7 @@
         <v>44513</v>
       </c>
       <c r="B45">
-        <v>2655</v>
+        <v>2532</v>
       </c>
       <c r="C45">
         <v>2750</v>
@@ -1262,10 +1258,10 @@
         <v>44514</v>
       </c>
       <c r="B46">
-        <v>3005</v>
+        <v>2814</v>
       </c>
       <c r="C46">
-        <v>2615</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1301,7 +1297,7 @@
         <v>3060</v>
       </c>
       <c r="C49">
-        <v>2770</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1334,7 +1330,7 @@
         <v>44520</v>
       </c>
       <c r="B52">
-        <v>2525</v>
+        <v>2329</v>
       </c>
       <c r="C52">
         <v>3110</v>
@@ -1346,10 +1342,10 @@
         <v>44521</v>
       </c>
       <c r="B53">
-        <v>2815</v>
+        <v>2710</v>
       </c>
       <c r="C53">
-        <v>2750</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1418,7 +1414,7 @@
         <v>44527</v>
       </c>
       <c r="B59">
-        <v>2765</v>
+        <v>2565</v>
       </c>
       <c r="C59">
         <v>2780</v>
@@ -1430,7 +1426,7 @@
         <v>44528</v>
       </c>
       <c r="B60">
-        <v>2775</v>
+        <v>2601</v>
       </c>
       <c r="C60">
         <v>2690</v>
@@ -1457,7 +1453,7 @@
         <v>2905</v>
       </c>
       <c r="C62">
-        <v>2730</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1502,10 +1498,10 @@
         <v>44534</v>
       </c>
       <c r="B66">
-        <v>2600</v>
+        <v>2493</v>
       </c>
       <c r="C66">
-        <v>3125</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1514,10 +1510,10 @@
         <v>44535</v>
       </c>
       <c r="B67">
-        <v>2930</v>
+        <v>2779</v>
       </c>
       <c r="C67">
-        <v>2785</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1541,7 +1537,7 @@
         <v>2660</v>
       </c>
       <c r="C69">
-        <v>2825</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1577,7 +1573,7 @@
         <v>2940</v>
       </c>
       <c r="C72">
-        <v>2825</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1586,7 +1582,7 @@
         <v>44541</v>
       </c>
       <c r="B73">
-        <v>2845</v>
+        <v>2706</v>
       </c>
       <c r="C73">
         <v>2490</v>
@@ -1598,10 +1594,10 @@
         <v>44542</v>
       </c>
       <c r="B74">
-        <v>2865</v>
+        <v>2702</v>
       </c>
       <c r="C74">
-        <v>2570</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1613,7 +1609,7 @@
         <v>2675</v>
       </c>
       <c r="C75">
-        <v>3150</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1637,7 +1633,7 @@
         <v>2695</v>
       </c>
       <c r="C77">
-        <v>2855</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1649,7 +1645,7 @@
         <v>2745</v>
       </c>
       <c r="C78">
-        <v>2805</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1670,7 +1666,7 @@
         <v>44548</v>
       </c>
       <c r="B80">
-        <v>2655</v>
+        <v>2475</v>
       </c>
       <c r="C80">
         <v>2590</v>
@@ -1682,7 +1678,7 @@
         <v>44549</v>
       </c>
       <c r="B81">
-        <v>2820</v>
+        <v>2714</v>
       </c>
       <c r="C81">
         <v>2740</v>
@@ -1709,7 +1705,7 @@
         <v>2850</v>
       </c>
       <c r="C83">
-        <v>2900</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1754,7 +1750,7 @@
         <v>44555</v>
       </c>
       <c r="B87">
-        <v>3035</v>
+        <v>2903</v>
       </c>
       <c r="C87">
         <v>2585</v>
@@ -1766,7 +1762,7 @@
         <v>44556</v>
       </c>
       <c r="B88">
-        <v>2820</v>
+        <v>2669</v>
       </c>
       <c r="C88">
         <v>2755</v>
@@ -1793,7 +1789,7 @@
         <v>2835</v>
       </c>
       <c r="C90">
-        <v>2780</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1838,10 +1834,10 @@
         <v>44562</v>
       </c>
       <c r="B94">
-        <v>2675</v>
+        <v>2535</v>
       </c>
       <c r="C94">
-        <v>2655</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1850,7 +1846,7 @@
         <v>44563</v>
       </c>
       <c r="B95">
-        <v>2820</v>
+        <v>2634</v>
       </c>
       <c r="C95">
         <v>2790</v>
@@ -1889,7 +1885,7 @@
         <v>2745</v>
       </c>
       <c r="C98">
-        <v>2955</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1922,7 +1918,7 @@
         <v>44569</v>
       </c>
       <c r="B101">
-        <v>2520</v>
+        <v>2406</v>
       </c>
       <c r="C101">
         <v>2785</v>
@@ -1934,7 +1930,7 @@
         <v>44570</v>
       </c>
       <c r="B102">
-        <v>2970</v>
+        <v>2782</v>
       </c>
       <c r="C102">
         <v>2795</v>
@@ -1961,7 +1957,7 @@
         <v>2660</v>
       </c>
       <c r="C104">
-        <v>2585</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1973,7 +1969,7 @@
         <v>2885</v>
       </c>
       <c r="C105">
-        <v>3020</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2006,10 +2002,10 @@
         <v>44576</v>
       </c>
       <c r="B108">
-        <v>2580</v>
+        <v>2444</v>
       </c>
       <c r="C108">
-        <v>2280</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2018,7 +2014,7 @@
         <v>44577</v>
       </c>
       <c r="B109">
-        <v>2855</v>
+        <v>2687</v>
       </c>
       <c r="C109">
         <v>2780</v>
@@ -2057,7 +2053,7 @@
         <v>2730</v>
       </c>
       <c r="C112">
-        <v>2920</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2090,7 +2086,7 @@
         <v>44583</v>
       </c>
       <c r="B115">
-        <v>2800</v>
+        <v>2687</v>
       </c>
       <c r="C115">
         <v>2730</v>
@@ -2102,10 +2098,10 @@
         <v>44584</v>
       </c>
       <c r="B116">
-        <v>3100</v>
+        <v>2989</v>
       </c>
       <c r="C116">
-        <v>2750</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2174,7 +2170,7 @@
         <v>44590</v>
       </c>
       <c r="B122">
-        <v>2665</v>
+        <v>2501</v>
       </c>
       <c r="C122">
         <v>2540</v>
@@ -2186,7 +2182,7 @@
         <v>44591</v>
       </c>
       <c r="B123">
-        <v>2850</v>
+        <v>2712</v>
       </c>
       <c r="C123">
         <v>2670</v>
@@ -2237,7 +2233,7 @@
         <v>2800</v>
       </c>
       <c r="C127">
-        <v>2905</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2258,10 +2254,10 @@
         <v>44597</v>
       </c>
       <c r="B129">
-        <v>2955</v>
+        <v>2815</v>
       </c>
       <c r="C129">
-        <v>2770</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2270,7 +2266,7 @@
         <v>44598</v>
       </c>
       <c r="B130">
-        <v>2855</v>
+        <v>2726</v>
       </c>
       <c r="C130">
         <v>2815</v>
@@ -2309,7 +2305,7 @@
         <v>2695</v>
       </c>
       <c r="C133">
-        <v>2925</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2333,7 +2329,7 @@
         <v>2800</v>
       </c>
       <c r="C135">
-        <v>2735</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2342,7 +2338,7 @@
         <v>44604</v>
       </c>
       <c r="B136">
-        <v>2825</v>
+        <v>2718</v>
       </c>
       <c r="C136">
         <v>2895</v>
@@ -2354,7 +2350,7 @@
         <v>44605</v>
       </c>
       <c r="B137">
-        <v>2625</v>
+        <v>2426</v>
       </c>
       <c r="C137">
         <v>2630</v>
@@ -2381,7 +2377,7 @@
         <v>2905</v>
       </c>
       <c r="C139">
-        <v>2985</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2405,7 +2401,7 @@
         <v>2780</v>
       </c>
       <c r="C141">
-        <v>2745</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2417,7 +2413,7 @@
         <v>2870</v>
       </c>
       <c r="C142">
-        <v>2825</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2426,7 +2422,7 @@
         <v>44611</v>
       </c>
       <c r="B143">
-        <v>2935</v>
+        <v>2761</v>
       </c>
       <c r="C143">
         <v>2805</v>
@@ -2438,7 +2434,7 @@
         <v>44612</v>
       </c>
       <c r="B144">
-        <v>2770</v>
+        <v>2574</v>
       </c>
       <c r="C144">
         <v>2620</v>
@@ -2477,7 +2473,7 @@
         <v>2800</v>
       </c>
       <c r="C147">
-        <v>2845</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2510,7 +2506,7 @@
         <v>44618</v>
       </c>
       <c r="B150">
-        <v>2845</v>
+        <v>2645</v>
       </c>
       <c r="C150">
         <v>2690</v>
@@ -2522,7 +2518,7 @@
         <v>44619</v>
       </c>
       <c r="B151">
-        <v>2615</v>
+        <v>2460</v>
       </c>
       <c r="C151">
         <v>2775</v>
@@ -2549,7 +2545,7 @@
         <v>2745</v>
       </c>
       <c r="C153">
-        <v>2720</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2594,7 +2590,7 @@
         <v>44625</v>
       </c>
       <c r="B157">
-        <v>2685</v>
+        <v>2536</v>
       </c>
       <c r="C157">
         <v>2885</v>
@@ -2606,7 +2602,7 @@
         <v>44626</v>
       </c>
       <c r="B158">
-        <v>2975</v>
+        <v>2852</v>
       </c>
       <c r="C158">
         <v>2720</v>
@@ -2633,7 +2629,7 @@
         <v>2800</v>
       </c>
       <c r="C160">
-        <v>2790</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2657,7 +2653,7 @@
         <v>2800</v>
       </c>
       <c r="C162">
-        <v>2590</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2678,7 +2674,7 @@
         <v>44632</v>
       </c>
       <c r="B164">
-        <v>2960</v>
+        <v>2810</v>
       </c>
       <c r="C164">
         <v>2910</v>
@@ -2690,7 +2686,7 @@
         <v>44633</v>
       </c>
       <c r="B165">
-        <v>2630</v>
+        <v>2502</v>
       </c>
       <c r="C165">
         <v>2700</v>
@@ -2705,7 +2701,7 @@
         <v>3025</v>
       </c>
       <c r="C166">
-        <v>2930</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2717,7 +2713,7 @@
         <v>2780</v>
       </c>
       <c r="C167">
-        <v>2780</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2729,7 +2725,7 @@
         <v>2555</v>
       </c>
       <c r="C168">
-        <v>2745</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2762,10 +2758,10 @@
         <v>44639</v>
       </c>
       <c r="B171">
-        <v>2890</v>
+        <v>2723</v>
       </c>
       <c r="C171">
-        <v>3015</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2774,7 +2770,7 @@
         <v>44640</v>
       </c>
       <c r="B172">
-        <v>2740</v>
+        <v>2566</v>
       </c>
       <c r="C172">
         <v>2545</v>
@@ -2813,7 +2809,7 @@
         <v>2780</v>
       </c>
       <c r="C175">
-        <v>2665</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2846,7 +2842,7 @@
         <v>44646</v>
       </c>
       <c r="B178">
-        <v>2705</v>
+        <v>2573</v>
       </c>
       <c r="C178">
         <v>2700</v>
@@ -2858,7 +2854,7 @@
         <v>44647</v>
       </c>
       <c r="B179">
-        <v>2940</v>
+        <v>2762</v>
       </c>
       <c r="C179">
         <v>2680</v>
@@ -2897,7 +2893,7 @@
         <v>2870</v>
       </c>
       <c r="C182">
-        <v>2710</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2909,7 +2905,7 @@
         <v>2730</v>
       </c>
       <c r="C183">
-        <v>2605</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2921,7 +2917,7 @@
         <v>2800</v>
       </c>
       <c r="C184">
-        <v>2585</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2930,7 +2926,7 @@
         <v>44653</v>
       </c>
       <c r="B185">
-        <v>2685</v>
+        <v>2531</v>
       </c>
       <c r="C185">
         <v>2795</v>
@@ -2942,7 +2938,7 @@
         <v>44654</v>
       </c>
       <c r="B186">
-        <v>2850</v>
+        <v>2671</v>
       </c>
       <c r="C186">
         <v>2910</v>
@@ -2957,7 +2953,7 @@
         <v>2870</v>
       </c>
       <c r="C187">
-        <v>2730</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2969,7 +2965,7 @@
         <v>2765</v>
       </c>
       <c r="C188">
-        <v>2640</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2993,7 +2989,7 @@
         <v>2765</v>
       </c>
       <c r="C190">
-        <v>3095</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3014,7 +3010,7 @@
         <v>44660</v>
       </c>
       <c r="B192">
-        <v>2770</v>
+        <v>2581</v>
       </c>
       <c r="C192">
         <v>2990</v>
@@ -3026,7 +3022,7 @@
         <v>44661</v>
       </c>
       <c r="B193">
-        <v>2740</v>
+        <v>2546</v>
       </c>
       <c r="C193">
         <v>2560</v>
@@ -3041,7 +3037,7 @@
         <v>2625</v>
       </c>
       <c r="C194">
-        <v>2695</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3089,7 +3085,7 @@
         <v>2765</v>
       </c>
       <c r="C198">
-        <v>2755</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3098,10 +3094,10 @@
         <v>44667</v>
       </c>
       <c r="B199">
-        <v>2705</v>
+        <v>2569</v>
       </c>
       <c r="C199">
-        <v>2855</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3110,7 +3106,7 @@
         <v>44668</v>
       </c>
       <c r="B200">
-        <v>2920</v>
+        <v>2740</v>
       </c>
       <c r="C200">
         <v>2715</v>
@@ -3125,7 +3121,7 @@
         <v>2745</v>
       </c>
       <c r="C201">
-        <v>2530</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3182,7 +3178,7 @@
         <v>44674</v>
       </c>
       <c r="B206">
-        <v>2750</v>
+        <v>2602</v>
       </c>
       <c r="C206">
         <v>2810</v>
@@ -3194,10 +3190,10 @@
         <v>44675</v>
       </c>
       <c r="B207">
-        <v>2455</v>
+        <v>2325</v>
       </c>
       <c r="C207">
-        <v>3080</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3209,7 +3205,7 @@
         <v>2730</v>
       </c>
       <c r="C208">
-        <v>2770</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3266,7 +3262,7 @@
         <v>44681</v>
       </c>
       <c r="B213">
-        <v>2990</v>
+        <v>2826</v>
       </c>
       <c r="C213">
         <v>2885</v>
@@ -3278,7 +3274,7 @@
         <v>44682</v>
       </c>
       <c r="B214">
-        <v>2935</v>
+        <v>2764</v>
       </c>
       <c r="C214">
         <v>2710</v>
@@ -3350,7 +3346,7 @@
         <v>44688</v>
       </c>
       <c r="B220">
-        <v>2720</v>
+        <v>2523</v>
       </c>
       <c r="C220">
         <v>2970</v>
@@ -3362,7 +3358,7 @@
         <v>44689</v>
       </c>
       <c r="B221">
-        <v>2975</v>
+        <v>2783</v>
       </c>
       <c r="C221">
         <v>2790</v>
@@ -3413,7 +3409,7 @@
         <v>2835</v>
       </c>
       <c r="C225">
-        <v>2825</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3434,10 +3430,10 @@
         <v>44695</v>
       </c>
       <c r="B227">
-        <v>2840</v>
+        <v>2710</v>
       </c>
       <c r="C227">
-        <v>2755</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3446,7 +3442,7 @@
         <v>44696</v>
       </c>
       <c r="B228">
-        <v>2915</v>
+        <v>2749</v>
       </c>
       <c r="C228">
         <v>2640</v>
@@ -3485,7 +3481,7 @@
         <v>2815</v>
       </c>
       <c r="C231">
-        <v>2895</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3497,7 +3493,7 @@
         <v>2640</v>
       </c>
       <c r="C232">
-        <v>2760</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3518,10 +3514,10 @@
         <v>44702</v>
       </c>
       <c r="B234">
-        <v>2910</v>
+        <v>2724</v>
       </c>
       <c r="C234">
-        <v>3030</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3530,10 +3526,10 @@
         <v>44703</v>
       </c>
       <c r="B235">
-        <v>2625</v>
+        <v>2486</v>
       </c>
       <c r="C235">
-        <v>2740</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3602,7 +3598,7 @@
         <v>44709</v>
       </c>
       <c r="B241">
-        <v>2970</v>
+        <v>2853</v>
       </c>
       <c r="C241">
         <v>2550</v>
@@ -3614,10 +3610,10 @@
         <v>44710</v>
       </c>
       <c r="B242">
-        <v>2875</v>
+        <v>2738</v>
       </c>
       <c r="C242">
-        <v>3085</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3677,7 +3673,7 @@
         <v>2885</v>
       </c>
       <c r="C247">
-        <v>2780</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3686,7 +3682,7 @@
         <v>44716</v>
       </c>
       <c r="B248">
-        <v>2765</v>
+        <v>2567</v>
       </c>
       <c r="C248">
         <v>2740</v>
@@ -3698,10 +3694,10 @@
         <v>44717</v>
       </c>
       <c r="B249">
-        <v>2870</v>
+        <v>2702</v>
       </c>
       <c r="C249">
-        <v>2915</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3749,7 +3745,7 @@
         <v>2675</v>
       </c>
       <c r="C253">
-        <v>2895</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3770,10 +3766,10 @@
         <v>44723</v>
       </c>
       <c r="B255">
-        <v>2850</v>
+        <v>2682</v>
       </c>
       <c r="C255">
-        <v>2770</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3782,7 +3778,7 @@
         <v>44724</v>
       </c>
       <c r="B256">
-        <v>2910</v>
+        <v>2810</v>
       </c>
       <c r="C256">
         <v>2635</v>
@@ -3845,7 +3841,7 @@
         <v>3045</v>
       </c>
       <c r="C261">
-        <v>2810</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3854,7 +3850,7 @@
         <v>44730</v>
       </c>
       <c r="B262">
-        <v>2690</v>
+        <v>2495</v>
       </c>
       <c r="C262">
         <v>2785</v>
@@ -3866,10 +3862,10 @@
         <v>44731</v>
       </c>
       <c r="B263">
-        <v>3000</v>
+        <v>2849</v>
       </c>
       <c r="C263">
-        <v>2860</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3881,7 +3877,7 @@
         <v>2800</v>
       </c>
       <c r="C264">
-        <v>2610</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3893,7 +3889,7 @@
         <v>2905</v>
       </c>
       <c r="C265">
-        <v>2605</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3938,7 +3934,7 @@
         <v>44737</v>
       </c>
       <c r="B269">
-        <v>2820</v>
+        <v>2676</v>
       </c>
       <c r="C269">
         <v>2660</v>
@@ -3950,7 +3946,7 @@
         <v>44738</v>
       </c>
       <c r="B270">
-        <v>2650</v>
+        <v>2460</v>
       </c>
       <c r="C270">
         <v>2750</v>
@@ -4001,7 +3997,7 @@
         <v>2800</v>
       </c>
       <c r="C274">
-        <v>2785</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4022,7 +4018,7 @@
         <v>44744</v>
       </c>
       <c r="B276">
-        <v>2945</v>
+        <v>2818</v>
       </c>
       <c r="C276">
         <v>2960</v>
@@ -4034,7 +4030,7 @@
         <v>44745</v>
       </c>
       <c r="B277">
-        <v>2800</v>
+        <v>2684</v>
       </c>
       <c r="C277">
         <v>3000</v>
@@ -4097,7 +4093,7 @@
         <v>2675</v>
       </c>
       <c r="C282">
-        <v>2855</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4106,7 +4102,7 @@
         <v>44751</v>
       </c>
       <c r="B283">
-        <v>2710</v>
+        <v>2594</v>
       </c>
       <c r="C283">
         <v>2775</v>
@@ -4118,7 +4114,7 @@
         <v>44752</v>
       </c>
       <c r="B284">
-        <v>2665</v>
+        <v>2484</v>
       </c>
       <c r="C284">
         <v>2740</v>
@@ -4190,7 +4186,7 @@
         <v>44758</v>
       </c>
       <c r="B290">
-        <v>2905</v>
+        <v>2729</v>
       </c>
       <c r="C290">
         <v>2470</v>
@@ -4202,10 +4198,10 @@
         <v>44759</v>
       </c>
       <c r="B291">
-        <v>2740</v>
+        <v>2605</v>
       </c>
       <c r="C291">
-        <v>2900</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4217,7 +4213,7 @@
         <v>2815</v>
       </c>
       <c r="C292">
-        <v>2705</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4253,7 +4249,7 @@
         <v>2870</v>
       </c>
       <c r="C295">
-        <v>2805</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4274,7 +4270,7 @@
         <v>44765</v>
       </c>
       <c r="B297">
-        <v>2895</v>
+        <v>2749</v>
       </c>
       <c r="C297">
         <v>2440</v>
@@ -4286,7 +4282,7 @@
         <v>44766</v>
       </c>
       <c r="B298">
-        <v>2845</v>
+        <v>2707</v>
       </c>
       <c r="C298">
         <v>2980</v>
@@ -4337,7 +4333,7 @@
         <v>2870</v>
       </c>
       <c r="C302">
-        <v>2770</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4358,7 +4354,7 @@
         <v>44772</v>
       </c>
       <c r="B304">
-        <v>2985</v>
+        <v>2792</v>
       </c>
       <c r="C304">
         <v>2720</v>
@@ -4370,7 +4366,7 @@
         <v>44773</v>
       </c>
       <c r="B305">
-        <v>2810</v>
+        <v>2657</v>
       </c>
       <c r="C305">
         <v>2850</v>
@@ -4442,10 +4438,10 @@
         <v>44779</v>
       </c>
       <c r="B311">
-        <v>2540</v>
+        <v>2409</v>
       </c>
       <c r="C311">
-        <v>2770</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4454,10 +4450,10 @@
         <v>44780</v>
       </c>
       <c r="B312">
-        <v>3005</v>
+        <v>2836</v>
       </c>
       <c r="C312">
-        <v>2840</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4493,7 +4489,7 @@
         <v>2675</v>
       </c>
       <c r="C315">
-        <v>2615</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4526,7 +4522,7 @@
         <v>44786</v>
       </c>
       <c r="B318">
-        <v>2850</v>
+        <v>2679</v>
       </c>
       <c r="C318">
         <v>2465</v>
@@ -4538,7 +4534,7 @@
         <v>44787</v>
       </c>
       <c r="B319">
-        <v>2770</v>
+        <v>2574</v>
       </c>
       <c r="C319">
         <v>2840</v>
@@ -4610,10 +4606,10 @@
         <v>44793</v>
       </c>
       <c r="B325">
-        <v>2785</v>
+        <v>2632</v>
       </c>
       <c r="C325">
-        <v>2995</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4622,10 +4618,10 @@
         <v>44794</v>
       </c>
       <c r="B326">
-        <v>2835</v>
+        <v>2681</v>
       </c>
       <c r="C326">
-        <v>2975</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4649,7 +4645,7 @@
         <v>2990</v>
       </c>
       <c r="C328">
-        <v>2825</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4694,7 +4690,7 @@
         <v>44800</v>
       </c>
       <c r="B332">
-        <v>2595</v>
+        <v>2489</v>
       </c>
       <c r="C332">
         <v>2820</v>
@@ -4706,7 +4702,7 @@
         <v>44801</v>
       </c>
       <c r="B333">
-        <v>2760</v>
+        <v>2574</v>
       </c>
       <c r="C333">
         <v>2920</v>
@@ -4778,7 +4774,7 @@
         <v>44807</v>
       </c>
       <c r="B339">
-        <v>2930</v>
+        <v>2760</v>
       </c>
       <c r="C339">
         <v>2755</v>
@@ -4790,7 +4786,7 @@
         <v>44808</v>
       </c>
       <c r="B340">
-        <v>2775</v>
+        <v>2607</v>
       </c>
       <c r="C340">
         <v>2680</v>
@@ -4829,7 +4825,7 @@
         <v>2660</v>
       </c>
       <c r="C343">
-        <v>2775</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4853,7 +4849,7 @@
         <v>3010</v>
       </c>
       <c r="C345">
-        <v>2795</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4862,7 +4858,7 @@
         <v>44814</v>
       </c>
       <c r="B346">
-        <v>2505</v>
+        <v>2355</v>
       </c>
       <c r="C346">
         <v>3000</v>
@@ -4874,7 +4870,7 @@
         <v>44815</v>
       </c>
       <c r="B347">
-        <v>2810</v>
+        <v>2627</v>
       </c>
       <c r="C347">
         <v>2675</v>
@@ -4946,7 +4942,7 @@
         <v>44821</v>
       </c>
       <c r="B353">
-        <v>2945</v>
+        <v>2784</v>
       </c>
       <c r="C353">
         <v>2535</v>
@@ -4958,7 +4954,7 @@
         <v>44822</v>
       </c>
       <c r="B354">
-        <v>2915</v>
+        <v>2788</v>
       </c>
       <c r="C354">
         <v>2805</v>
@@ -4985,7 +4981,7 @@
         <v>2730</v>
       </c>
       <c r="C356">
-        <v>2795</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5030,7 +5026,7 @@
         <v>44828</v>
       </c>
       <c r="B360">
-        <v>2860</v>
+        <v>2677</v>
       </c>
       <c r="C360">
         <v>2925</v>
@@ -5042,7 +5038,7 @@
         <v>44829</v>
       </c>
       <c r="B361">
-        <v>2550</v>
+        <v>2393</v>
       </c>
       <c r="C361">
         <v>2920</v>
@@ -5069,7 +5065,7 @@
         <v>2660</v>
       </c>
       <c r="C363">
-        <v>2640</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5105,7 +5101,7 @@
         <v>2835</v>
       </c>
       <c r="C366">
-        <v>2730</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5114,10 +5110,10 @@
         <v>44835</v>
       </c>
       <c r="B367">
-        <v>2725</v>
+        <v>2534</v>
       </c>
       <c r="C367">
-        <v>2625</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5126,7 +5122,7 @@
         <v>44836</v>
       </c>
       <c r="B368">
-        <v>2800</v>
+        <v>2617</v>
       </c>
       <c r="C368">
         <v>2815</v>
@@ -5165,7 +5161,7 @@
         <v>2780</v>
       </c>
       <c r="C371">
-        <v>2765</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5177,7 +5173,7 @@
         <v>2870</v>
       </c>
       <c r="C372">
-        <v>3170</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5198,7 +5194,7 @@
         <v>44842</v>
       </c>
       <c r="B374">
-        <v>2720</v>
+        <v>2545</v>
       </c>
       <c r="C374">
         <v>2620</v>
@@ -5210,7 +5206,7 @@
         <v>44843</v>
       </c>
       <c r="B375">
-        <v>2840</v>
+        <v>2690</v>
       </c>
       <c r="C375">
         <v>2585</v>
@@ -5237,7 +5233,7 @@
         <v>2885</v>
       </c>
       <c r="C377">
-        <v>2745</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5249,7 +5245,7 @@
         <v>2605</v>
       </c>
       <c r="C378">
-        <v>2615</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5282,7 +5278,7 @@
         <v>44849</v>
       </c>
       <c r="B381">
-        <v>2835</v>
+        <v>2642</v>
       </c>
       <c r="C381">
         <v>2740</v>
@@ -5294,7 +5290,7 @@
         <v>44850</v>
       </c>
       <c r="B382">
-        <v>2870</v>
+        <v>2721</v>
       </c>
       <c r="C382">
         <v>2920</v>
@@ -5309,7 +5305,7 @@
         <v>2990</v>
       </c>
       <c r="C383">
-        <v>2535</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5345,7 +5341,7 @@
         <v>2885</v>
       </c>
       <c r="C386">
-        <v>2850</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5357,7 +5353,7 @@
         <v>2815</v>
       </c>
       <c r="C387">
-        <v>2745</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5366,10 +5362,10 @@
         <v>44856</v>
       </c>
       <c r="B388">
-        <v>2745</v>
+        <v>2562</v>
       </c>
       <c r="C388">
-        <v>2730</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5378,7 +5374,7 @@
         <v>44857</v>
       </c>
       <c r="B389">
-        <v>2855</v>
+        <v>2713</v>
       </c>
       <c r="C389">
         <v>2880</v>
@@ -5405,7 +5401,7 @@
         <v>2940</v>
       </c>
       <c r="C391">
-        <v>2590</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -5417,7 +5413,7 @@
         <v>2535</v>
       </c>
       <c r="C392">
-        <v>2825</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -5441,7 +5437,7 @@
         <v>2975</v>
       </c>
       <c r="C394">
-        <v>2755</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -5450,10 +5446,10 @@
         <v>44863</v>
       </c>
       <c r="B395">
-        <v>2810</v>
+        <v>2668</v>
       </c>
       <c r="C395">
-        <v>2875</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -5462,7 +5458,7 @@
         <v>44864</v>
       </c>
       <c r="B396">
-        <v>2985</v>
+        <v>2810</v>
       </c>
       <c r="C396">
         <v>2790</v>
@@ -5477,7 +5473,7 @@
         <v>2625</v>
       </c>
       <c r="C397">
-        <v>2750</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -5525,7 +5521,7 @@
         <v>2730</v>
       </c>
       <c r="C401">
-        <v>2860</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5534,10 +5530,10 @@
         <v>44870</v>
       </c>
       <c r="B402">
-        <v>2740</v>
+        <v>2625</v>
       </c>
       <c r="C402">
-        <v>2815</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5546,10 +5542,10 @@
         <v>44871</v>
       </c>
       <c r="B403">
-        <v>3020</v>
+        <v>2835</v>
       </c>
       <c r="C403">
-        <v>2600</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5561,7 +5557,7 @@
         <v>2800</v>
       </c>
       <c r="C404">
-        <v>2805</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5573,7 +5569,7 @@
         <v>2885</v>
       </c>
       <c r="C405">
-        <v>2850</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5597,7 +5593,7 @@
         <v>2815</v>
       </c>
       <c r="C407">
-        <v>2800</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5618,7 +5614,7 @@
         <v>44877</v>
       </c>
       <c r="B409">
-        <v>2735</v>
+        <v>2571</v>
       </c>
       <c r="C409">
         <v>3080</v>
@@ -5630,7 +5626,7 @@
         <v>44878</v>
       </c>
       <c r="B410">
-        <v>2965</v>
+        <v>2851</v>
       </c>
       <c r="C410">
         <v>2445</v>
@@ -5702,10 +5698,10 @@
         <v>44884</v>
       </c>
       <c r="B416">
-        <v>2845</v>
+        <v>2646</v>
       </c>
       <c r="C416">
-        <v>2505</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5714,10 +5710,10 @@
         <v>44885</v>
       </c>
       <c r="B417">
-        <v>2945</v>
+        <v>2786</v>
       </c>
       <c r="C417">
-        <v>3100</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5729,7 +5725,7 @@
         <v>2920</v>
       </c>
       <c r="C418">
-        <v>2895</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5786,7 +5782,7 @@
         <v>44891</v>
       </c>
       <c r="B423">
-        <v>2850</v>
+        <v>2663</v>
       </c>
       <c r="C423">
         <v>2950</v>
@@ -5798,7 +5794,7 @@
         <v>44892</v>
       </c>
       <c r="B424">
-        <v>2975</v>
+        <v>2816</v>
       </c>
       <c r="C424">
         <v>3020</v>
@@ -5813,7 +5809,7 @@
         <v>2870</v>
       </c>
       <c r="C425">
-        <v>2805</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5861,7 +5857,7 @@
         <v>2905</v>
       </c>
       <c r="C429">
-        <v>2745</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5870,10 +5866,10 @@
         <v>44898</v>
       </c>
       <c r="B430">
-        <v>2755</v>
+        <v>2604</v>
       </c>
       <c r="C430">
-        <v>2710</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5882,7 +5878,7 @@
         <v>44899</v>
       </c>
       <c r="B431">
-        <v>2885</v>
+        <v>2718</v>
       </c>
       <c r="C431">
         <v>2920</v>
@@ -5897,7 +5893,7 @@
         <v>2695</v>
       </c>
       <c r="C432">
-        <v>2820</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5921,7 +5917,7 @@
         <v>2640</v>
       </c>
       <c r="C434">
-        <v>2780</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5954,10 +5950,10 @@
         <v>44905</v>
       </c>
       <c r="B437">
-        <v>2680</v>
+        <v>2528</v>
       </c>
       <c r="C437">
-        <v>2915</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5966,10 +5962,10 @@
         <v>44906</v>
       </c>
       <c r="B438">
-        <v>2785</v>
+        <v>2605</v>
       </c>
       <c r="C438">
-        <v>2685</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6038,7 +6034,7 @@
         <v>44912</v>
       </c>
       <c r="B444">
-        <v>2695</v>
+        <v>2538</v>
       </c>
       <c r="C444">
         <v>2850</v>
@@ -6050,10 +6046,10 @@
         <v>44913</v>
       </c>
       <c r="B445">
-        <v>2820</v>
+        <v>2682</v>
       </c>
       <c r="C445">
-        <v>2665</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6089,7 +6085,7 @@
         <v>2780</v>
       </c>
       <c r="C448">
-        <v>2880</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6113,7 +6109,7 @@
         <v>2835</v>
       </c>
       <c r="C450">
-        <v>2965</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6122,10 +6118,10 @@
         <v>44919</v>
       </c>
       <c r="B451">
-        <v>2845</v>
+        <v>2745</v>
       </c>
       <c r="C451">
-        <v>2675</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6134,10 +6130,10 @@
         <v>44920</v>
       </c>
       <c r="B452">
-        <v>2890</v>
+        <v>2738</v>
       </c>
       <c r="C452">
-        <v>2730</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6149,7 +6145,7 @@
         <v>2885</v>
       </c>
       <c r="C453">
-        <v>2845</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6161,7 +6157,7 @@
         <v>2730</v>
       </c>
       <c r="C454">
-        <v>3010</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6173,7 +6169,7 @@
         <v>3130</v>
       </c>
       <c r="C455">
-        <v>2765</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6206,10 +6202,10 @@
         <v>44926</v>
       </c>
       <c r="B458">
-        <v>2820</v>
+        <v>2695</v>
       </c>
       <c r="C458">
-        <v>2795</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6218,7 +6214,7 @@
         <v>44927</v>
       </c>
       <c r="B459">
-        <v>2860</v>
+        <v>2708</v>
       </c>
       <c r="C459">
         <v>3150</v>
@@ -6233,7 +6229,7 @@
         <v>3080</v>
       </c>
       <c r="C460">
-        <v>2905</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6290,10 +6286,10 @@
         <v>44933</v>
       </c>
       <c r="B465">
-        <v>2855</v>
+        <v>2681</v>
       </c>
       <c r="C465">
-        <v>2920</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -6302,10 +6298,10 @@
         <v>44934</v>
       </c>
       <c r="B466">
-        <v>2965</v>
+        <v>2843</v>
       </c>
       <c r="C466">
-        <v>2875</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -6341,7 +6337,7 @@
         <v>2800</v>
       </c>
       <c r="C469">
-        <v>2720</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -6374,7 +6370,7 @@
         <v>44940</v>
       </c>
       <c r="B472">
-        <v>2635</v>
+        <v>2516</v>
       </c>
       <c r="C472">
         <v>2995</v>
@@ -6386,10 +6382,10 @@
         <v>44941</v>
       </c>
       <c r="B473">
-        <v>2855</v>
+        <v>2710</v>
       </c>
       <c r="C473">
-        <v>2970</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -6413,7 +6409,7 @@
         <v>2780</v>
       </c>
       <c r="C475">
-        <v>2800</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -6449,7 +6445,7 @@
         <v>2870</v>
       </c>
       <c r="C478">
-        <v>2860</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -6458,10 +6454,10 @@
         <v>44947</v>
       </c>
       <c r="B479">
-        <v>2620</v>
+        <v>2514</v>
       </c>
       <c r="C479">
-        <v>2700</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -6470,10 +6466,10 @@
         <v>44948</v>
       </c>
       <c r="B480">
-        <v>2680</v>
+        <v>2570</v>
       </c>
       <c r="C480">
-        <v>2750</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -6485,7 +6481,7 @@
         <v>2640</v>
       </c>
       <c r="C481">
-        <v>2835</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -6542,7 +6538,7 @@
         <v>44954</v>
       </c>
       <c r="B486">
-        <v>2940</v>
+        <v>2755</v>
       </c>
       <c r="C486">
         <v>2700</v>
@@ -6554,7 +6550,7 @@
         <v>44955</v>
       </c>
       <c r="B487">
-        <v>2925</v>
+        <v>2790</v>
       </c>
       <c r="C487">
         <v>2930</v>
@@ -6581,7 +6577,7 @@
         <v>2605</v>
       </c>
       <c r="C489">
-        <v>2720</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6626,10 +6622,10 @@
         <v>44961</v>
       </c>
       <c r="B493">
-        <v>2595</v>
+        <v>2415</v>
       </c>
       <c r="C493">
-        <v>2620</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6638,10 +6634,10 @@
         <v>44962</v>
       </c>
       <c r="B494">
-        <v>2825</v>
+        <v>2717</v>
       </c>
       <c r="C494">
-        <v>2535</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6653,7 +6649,7 @@
         <v>2675</v>
       </c>
       <c r="C495">
-        <v>2655</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6710,10 +6706,10 @@
         <v>44968</v>
       </c>
       <c r="B500">
-        <v>2675</v>
+        <v>2514</v>
       </c>
       <c r="C500">
-        <v>2845</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6722,7 +6718,7 @@
         <v>44969</v>
       </c>
       <c r="B501">
-        <v>2885</v>
+        <v>2735</v>
       </c>
       <c r="C501">
         <v>2965</v>
@@ -6737,7 +6733,7 @@
         <v>2695</v>
       </c>
       <c r="C502">
-        <v>2870</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6785,7 +6781,7 @@
         <v>2745</v>
       </c>
       <c r="C506">
-        <v>2770</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6794,7 +6790,7 @@
         <v>44975</v>
       </c>
       <c r="B507">
-        <v>2940</v>
+        <v>2818</v>
       </c>
       <c r="C507">
         <v>3170</v>
@@ -6806,7 +6802,7 @@
         <v>44976</v>
       </c>
       <c r="B508">
-        <v>2775</v>
+        <v>2650</v>
       </c>
       <c r="C508">
         <v>3050</v>
@@ -6833,7 +6829,7 @@
         <v>2815</v>
       </c>
       <c r="C510">
-        <v>2870</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6878,10 +6874,10 @@
         <v>44982</v>
       </c>
       <c r="B514">
-        <v>2990</v>
+        <v>2871</v>
       </c>
       <c r="C514">
-        <v>2690</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6890,7 +6886,7 @@
         <v>44983</v>
       </c>
       <c r="B515">
-        <v>2765</v>
+        <v>2587</v>
       </c>
       <c r="C515">
         <v>2990</v>
@@ -6941,7 +6937,7 @@
         <v>3115</v>
       </c>
       <c r="C519">
-        <v>2700</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6962,7 +6958,7 @@
         <v>44989</v>
       </c>
       <c r="B521">
-        <v>2555</v>
+        <v>2435</v>
       </c>
       <c r="C521">
         <v>2705</v>
@@ -6974,7 +6970,7 @@
         <v>44990</v>
       </c>
       <c r="B522">
-        <v>2605</v>
+        <v>2505</v>
       </c>
       <c r="C522">
         <v>2660</v>
@@ -7025,7 +7021,7 @@
         <v>2695</v>
       </c>
       <c r="C526">
-        <v>2570</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7046,7 +7042,7 @@
         <v>44996</v>
       </c>
       <c r="B528">
-        <v>3090</v>
+        <v>2963</v>
       </c>
       <c r="C528">
         <v>2910</v>
@@ -7058,10 +7054,10 @@
         <v>44997</v>
       </c>
       <c r="B529">
-        <v>2785</v>
+        <v>2605</v>
       </c>
       <c r="C529">
-        <v>2590</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7121,7 +7117,7 @@
         <v>2765</v>
       </c>
       <c r="C534">
-        <v>2790</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -7130,10 +7126,10 @@
         <v>45003</v>
       </c>
       <c r="B535">
-        <v>2715</v>
+        <v>2548</v>
       </c>
       <c r="C535">
-        <v>2790</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -7142,7 +7138,7 @@
         <v>45004</v>
       </c>
       <c r="B536">
-        <v>2760</v>
+        <v>2644</v>
       </c>
       <c r="C536">
         <v>2835</v>
@@ -7193,7 +7189,7 @@
         <v>2765</v>
       </c>
       <c r="C540">
-        <v>2670</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -7214,7 +7210,7 @@
         <v>45010</v>
       </c>
       <c r="B542">
-        <v>2825</v>
+        <v>2700</v>
       </c>
       <c r="C542">
         <v>3000</v>
@@ -7226,7 +7222,7 @@
         <v>45011</v>
       </c>
       <c r="B543">
-        <v>2700</v>
+        <v>2536</v>
       </c>
       <c r="C543">
         <v>2580</v>
@@ -7298,7 +7294,7 @@
         <v>45017</v>
       </c>
       <c r="B549">
-        <v>2900</v>
+        <v>2762</v>
       </c>
       <c r="C549">
         <v>2740</v>
@@ -7310,7 +7306,7 @@
         <v>45018</v>
       </c>
       <c r="B550">
-        <v>2705</v>
+        <v>2525</v>
       </c>
       <c r="C550">
         <v>2800</v>
@@ -7373,7 +7369,7 @@
         <v>2870</v>
       </c>
       <c r="C555">
-        <v>2850</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -7382,7 +7378,7 @@
         <v>45024</v>
       </c>
       <c r="B556">
-        <v>2795</v>
+        <v>2610</v>
       </c>
       <c r="C556">
         <v>2920</v>
@@ -7394,10 +7390,10 @@
         <v>45025</v>
       </c>
       <c r="B557">
-        <v>2655</v>
+        <v>2493</v>
       </c>
       <c r="C557">
-        <v>2715</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -7466,7 +7462,7 @@
         <v>45031</v>
       </c>
       <c r="B563">
-        <v>2625</v>
+        <v>2431</v>
       </c>
       <c r="C563">
         <v>2930</v>
@@ -7478,7 +7474,7 @@
         <v>45032</v>
       </c>
       <c r="B564">
-        <v>3010</v>
+        <v>2866</v>
       </c>
       <c r="C564">
         <v>2620</v>
@@ -7493,7 +7489,7 @@
         <v>2850</v>
       </c>
       <c r="C565">
-        <v>2765</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -7550,7 +7546,7 @@
         <v>45038</v>
       </c>
       <c r="B570">
-        <v>2585</v>
+        <v>2440</v>
       </c>
       <c r="C570">
         <v>2810</v>
@@ -7562,7 +7558,7 @@
         <v>45039</v>
       </c>
       <c r="B571">
-        <v>2660</v>
+        <v>2523</v>
       </c>
       <c r="C571">
         <v>2555</v>
@@ -7625,7 +7621,7 @@
         <v>2815</v>
       </c>
       <c r="C576">
-        <v>3030</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -7634,10 +7630,10 @@
         <v>45045</v>
       </c>
       <c r="B577">
-        <v>2785</v>
+        <v>2619</v>
       </c>
       <c r="C577">
-        <v>2655</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -7646,7 +7642,7 @@
         <v>45046</v>
       </c>
       <c r="B578">
-        <v>2685</v>
+        <v>2532</v>
       </c>
       <c r="C578">
         <v>2850</v>
@@ -7709,7 +7705,7 @@
         <v>2640</v>
       </c>
       <c r="C583">
-        <v>2930</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7718,10 +7714,10 @@
         <v>45052</v>
       </c>
       <c r="B584">
-        <v>2675</v>
+        <v>2507</v>
       </c>
       <c r="C584">
-        <v>2620</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7730,7 +7726,7 @@
         <v>45053</v>
       </c>
       <c r="B585">
-        <v>2790</v>
+        <v>2658</v>
       </c>
       <c r="C585">
         <v>2905</v>
@@ -7781,7 +7777,7 @@
         <v>2675</v>
       </c>
       <c r="C589">
-        <v>2780</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7793,7 +7789,7 @@
         <v>2885</v>
       </c>
       <c r="C590">
-        <v>2915</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7802,7 +7798,7 @@
         <v>45059</v>
       </c>
       <c r="B591">
-        <v>2780</v>
+        <v>2651</v>
       </c>
       <c r="C591">
         <v>3065</v>
@@ -7814,7 +7810,7 @@
         <v>45060</v>
       </c>
       <c r="B592">
-        <v>2805</v>
+        <v>2613</v>
       </c>
       <c r="C592">
         <v>2625</v>
@@ -7865,7 +7861,7 @@
         <v>2730</v>
       </c>
       <c r="C596">
-        <v>2960</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7886,7 +7882,7 @@
         <v>45066</v>
       </c>
       <c r="B598">
-        <v>2960</v>
+        <v>2798</v>
       </c>
       <c r="C598">
         <v>2620</v>
@@ -7898,7 +7894,7 @@
         <v>45067</v>
       </c>
       <c r="B599">
-        <v>2865</v>
+        <v>2679</v>
       </c>
       <c r="C599">
         <v>2815</v>
@@ -7949,7 +7945,7 @@
         <v>2745</v>
       </c>
       <c r="C603">
-        <v>2695</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7970,7 +7966,7 @@
         <v>45073</v>
       </c>
       <c r="B605">
-        <v>2790</v>
+        <v>2680</v>
       </c>
       <c r="C605">
         <v>2830</v>
@@ -7982,7 +7978,7 @@
         <v>45074</v>
       </c>
       <c r="B606">
-        <v>2475</v>
+        <v>2348</v>
       </c>
       <c r="C606">
         <v>2610</v>
@@ -7997,7 +7993,7 @@
         <v>2835</v>
       </c>
       <c r="C607">
-        <v>2885</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -8009,7 +8005,7 @@
         <v>2940</v>
       </c>
       <c r="C608">
-        <v>2960</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -8033,7 +8029,7 @@
         <v>2710</v>
       </c>
       <c r="C610">
-        <v>2895</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -8054,7 +8050,7 @@
         <v>45080</v>
       </c>
       <c r="B612">
-        <v>2880</v>
+        <v>2767</v>
       </c>
       <c r="C612">
         <v>3045</v>
@@ -8066,10 +8062,10 @@
         <v>45081</v>
       </c>
       <c r="B613">
-        <v>2820</v>
+        <v>2675</v>
       </c>
       <c r="C613">
-        <v>2745</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -8081,7 +8077,7 @@
         <v>2905</v>
       </c>
       <c r="C614">
-        <v>2780</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -8138,7 +8134,7 @@
         <v>45087</v>
       </c>
       <c r="B619">
-        <v>2750</v>
+        <v>2629</v>
       </c>
       <c r="C619">
         <v>2645</v>
@@ -8150,10 +8146,10 @@
         <v>45088</v>
       </c>
       <c r="B620">
-        <v>2895</v>
+        <v>2703</v>
       </c>
       <c r="C620">
-        <v>2975</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -8177,7 +8173,7 @@
         <v>2870</v>
       </c>
       <c r="C622">
-        <v>2790</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -8213,7 +8209,7 @@
         <v>2885</v>
       </c>
       <c r="C625">
-        <v>3070</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -8222,10 +8218,10 @@
         <v>45094</v>
       </c>
       <c r="B626">
-        <v>2810</v>
+        <v>2689</v>
       </c>
       <c r="C626">
-        <v>3045</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -8234,7 +8230,7 @@
         <v>45095</v>
       </c>
       <c r="B627">
-        <v>2735</v>
+        <v>2550</v>
       </c>
       <c r="C627">
         <v>2760</v>
@@ -8261,7 +8257,7 @@
         <v>2765</v>
       </c>
       <c r="C629">
-        <v>3160</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -8285,7 +8281,7 @@
         <v>2955</v>
       </c>
       <c r="C631">
-        <v>2910</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -8297,7 +8293,7 @@
         <v>2625</v>
       </c>
       <c r="C632">
-        <v>2645</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -8306,7 +8302,7 @@
         <v>45101</v>
       </c>
       <c r="B633">
-        <v>2715</v>
+        <v>2532</v>
       </c>
       <c r="C633">
         <v>2665</v>
@@ -8318,10 +8314,10 @@
         <v>45102</v>
       </c>
       <c r="B634">
-        <v>2905</v>
+        <v>2786</v>
       </c>
       <c r="C634">
-        <v>2675</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -8345,7 +8341,7 @@
         <v>3025</v>
       </c>
       <c r="C636">
-        <v>3065</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -8369,7 +8365,7 @@
         <v>2885</v>
       </c>
       <c r="C638">
-        <v>2740</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -8390,10 +8386,10 @@
         <v>45108</v>
       </c>
       <c r="B640">
-        <v>2930</v>
+        <v>2772</v>
       </c>
       <c r="C640">
-        <v>2830</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -8402,7 +8398,7 @@
         <v>45109</v>
       </c>
       <c r="B641">
-        <v>2600</v>
+        <v>2411</v>
       </c>
       <c r="C641">
         <v>2980</v>
@@ -8429,7 +8425,7 @@
         <v>2590</v>
       </c>
       <c r="C643">
-        <v>2815</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -8453,7 +8449,7 @@
         <v>2640</v>
       </c>
       <c r="C645">
-        <v>2790</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -8474,7 +8470,7 @@
         <v>45115</v>
       </c>
       <c r="B647">
-        <v>3110</v>
+        <v>2995</v>
       </c>
       <c r="C647">
         <v>2925</v>
@@ -8486,10 +8482,10 @@
         <v>45116</v>
       </c>
       <c r="B648">
-        <v>2760</v>
+        <v>2577</v>
       </c>
       <c r="C648">
-        <v>2610</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -8513,7 +8509,7 @@
         <v>2640</v>
       </c>
       <c r="C650">
-        <v>2830</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -8558,7 +8554,7 @@
         <v>45122</v>
       </c>
       <c r="B654">
-        <v>2780</v>
+        <v>2649</v>
       </c>
       <c r="C654">
         <v>2955</v>
@@ -8570,10 +8566,10 @@
         <v>45123</v>
       </c>
       <c r="B655">
-        <v>2755</v>
+        <v>2563</v>
       </c>
       <c r="C655">
-        <v>2340</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -8597,7 +8593,7 @@
         <v>2800</v>
       </c>
       <c r="C657">
-        <v>2705</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -8633,7 +8629,7 @@
         <v>2745</v>
       </c>
       <c r="C660">
-        <v>2680</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -8642,7 +8638,7 @@
         <v>45129</v>
       </c>
       <c r="B661">
-        <v>2855</v>
+        <v>2656</v>
       </c>
       <c r="C661">
         <v>2900</v>
@@ -8654,7 +8650,7 @@
         <v>45130</v>
       </c>
       <c r="B662">
-        <v>2645</v>
+        <v>2497</v>
       </c>
       <c r="C662">
         <v>2815</v>
@@ -8717,7 +8713,7 @@
         <v>2800</v>
       </c>
       <c r="C667">
-        <v>3015</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -8726,7 +8722,7 @@
         <v>45136</v>
       </c>
       <c r="B668">
-        <v>2845</v>
+        <v>2671</v>
       </c>
       <c r="C668">
         <v>2620</v>
@@ -8738,7 +8734,7 @@
         <v>45137</v>
       </c>
       <c r="B669">
-        <v>2955</v>
+        <v>2855</v>
       </c>
       <c r="C669">
         <v>2755</v>
@@ -8753,7 +8749,7 @@
         <v>2800</v>
       </c>
       <c r="C670">
-        <v>2745</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -8810,7 +8806,7 @@
         <v>45143</v>
       </c>
       <c r="B675">
-        <v>2715</v>
+        <v>2558</v>
       </c>
       <c r="C675">
         <v>2535</v>
@@ -8822,10 +8818,10 @@
         <v>45144</v>
       </c>
       <c r="B676">
-        <v>2575</v>
+        <v>2408</v>
       </c>
       <c r="C676">
-        <v>2790</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8861,7 +8857,7 @@
         <v>2745</v>
       </c>
       <c r="C679">
-        <v>2960</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8885,7 +8881,7 @@
         <v>2570</v>
       </c>
       <c r="C681">
-        <v>2755</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8894,7 +8890,7 @@
         <v>45150</v>
       </c>
       <c r="B682">
-        <v>2805</v>
+        <v>2686</v>
       </c>
       <c r="C682">
         <v>2805</v>
@@ -8906,10 +8902,10 @@
         <v>45151</v>
       </c>
       <c r="B683">
-        <v>2875</v>
+        <v>2681</v>
       </c>
       <c r="C683">
-        <v>2880</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8957,7 +8953,7 @@
         <v>2800</v>
       </c>
       <c r="C687">
-        <v>2895</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8978,10 +8974,10 @@
         <v>45157</v>
       </c>
       <c r="B689">
-        <v>2995</v>
+        <v>2843</v>
       </c>
       <c r="C689">
-        <v>2750</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8990,7 +8986,7 @@
         <v>45158</v>
       </c>
       <c r="B690">
-        <v>2950</v>
+        <v>2796</v>
       </c>
       <c r="C690">
         <v>2785</v>
@@ -9041,7 +9037,7 @@
         <v>2940</v>
       </c>
       <c r="C694">
-        <v>2860</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -9053,7 +9049,7 @@
         <v>2835</v>
       </c>
       <c r="C695">
-        <v>2840</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -9062,7 +9058,7 @@
         <v>45164</v>
       </c>
       <c r="B696">
-        <v>2735</v>
+        <v>2573</v>
       </c>
       <c r="C696">
         <v>3010</v>
@@ -9074,10 +9070,10 @@
         <v>45165</v>
       </c>
       <c r="B697">
-        <v>2825</v>
+        <v>2632</v>
       </c>
       <c r="C697">
-        <v>2600</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -9113,7 +9109,7 @@
         <v>2625</v>
       </c>
       <c r="C700">
-        <v>2690</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -9146,10 +9142,10 @@
         <v>45171</v>
       </c>
       <c r="B703">
-        <v>2650</v>
+        <v>2464</v>
       </c>
       <c r="C703">
-        <v>2925</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -9158,10 +9154,10 @@
         <v>45172</v>
       </c>
       <c r="B704">
-        <v>2720</v>
+        <v>2541</v>
       </c>
       <c r="C704">
-        <v>2655</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -9173,7 +9169,7 @@
         <v>2850</v>
       </c>
       <c r="C705">
-        <v>2785</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -9197,7 +9193,7 @@
         <v>2905</v>
       </c>
       <c r="C707">
-        <v>2830</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -9221,7 +9217,7 @@
         <v>2535</v>
       </c>
       <c r="C709">
-        <v>2900</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -9230,10 +9226,10 @@
         <v>45178</v>
       </c>
       <c r="B710">
-        <v>2560</v>
+        <v>2409</v>
       </c>
       <c r="C710">
-        <v>2770</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -9242,7 +9238,7 @@
         <v>45179</v>
       </c>
       <c r="B711">
-        <v>2970</v>
+        <v>2846</v>
       </c>
       <c r="C711">
         <v>2770</v>
@@ -9314,7 +9310,7 @@
         <v>45185</v>
       </c>
       <c r="B717">
-        <v>2870</v>
+        <v>2728</v>
       </c>
       <c r="C717">
         <v>2975</v>
@@ -9326,7 +9322,7 @@
         <v>45186</v>
       </c>
       <c r="B718">
-        <v>2825</v>
+        <v>2663</v>
       </c>
       <c r="C718">
         <v>2915</v>
@@ -9353,7 +9349,7 @@
         <v>2675</v>
       </c>
       <c r="C720">
-        <v>2805</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -9389,7 +9385,7 @@
         <v>2780</v>
       </c>
       <c r="C723">
-        <v>2755</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -9398,7 +9394,7 @@
         <v>45192</v>
       </c>
       <c r="B724">
-        <v>2910</v>
+        <v>2804</v>
       </c>
       <c r="C724">
         <v>2860</v>
@@ -9410,7 +9406,7 @@
         <v>45193</v>
       </c>
       <c r="B725">
-        <v>2975</v>
+        <v>2839</v>
       </c>
       <c r="C725">
         <v>2910</v>
@@ -9461,7 +9457,7 @@
         <v>3150</v>
       </c>
       <c r="C729">
-        <v>2815</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -9482,7 +9478,7 @@
         <v>45199</v>
       </c>
       <c r="B731">
-        <v>2675</v>
+        <v>2489</v>
       </c>
       <c r="C731">
         <v>2720</v>
@@ -9494,7 +9490,7 @@
         <v>45200</v>
       </c>
       <c r="B732">
-        <v>2830</v>
+        <v>2725</v>
       </c>
       <c r="C732">
         <v>2710</v>
@@ -9557,7 +9553,7 @@
         <v>2835</v>
       </c>
       <c r="C737">
-        <v>2550</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -9566,7 +9562,7 @@
         <v>45206</v>
       </c>
       <c r="B738">
-        <v>2775</v>
+        <v>2655</v>
       </c>
       <c r="C738">
         <v>2775</v>
@@ -9578,7 +9574,7 @@
         <v>45207</v>
       </c>
       <c r="B739">
-        <v>2950</v>
+        <v>2838</v>
       </c>
       <c r="C739">
         <v>2685</v>
@@ -9605,7 +9601,7 @@
         <v>2905</v>
       </c>
       <c r="C741">
-        <v>3060</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -9650,7 +9646,7 @@
         <v>45213</v>
       </c>
       <c r="B745">
-        <v>2820</v>
+        <v>2680</v>
       </c>
       <c r="C745">
         <v>2725</v>
@@ -9662,7 +9658,7 @@
         <v>45214</v>
       </c>
       <c r="B746">
-        <v>2495</v>
+        <v>2323</v>
       </c>
       <c r="C746">
         <v>2605</v>
@@ -9701,7 +9697,7 @@
         <v>2765</v>
       </c>
       <c r="C749">
-        <v>2715</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -9725,7 +9721,7 @@
         <v>2885</v>
       </c>
       <c r="C751">
-        <v>2845</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -9734,7 +9730,7 @@
         <v>45220</v>
       </c>
       <c r="B752">
-        <v>2780</v>
+        <v>2595</v>
       </c>
       <c r="C752">
         <v>2690</v>
@@ -9746,7 +9742,7 @@
         <v>45221</v>
       </c>
       <c r="B753">
-        <v>2835</v>
+        <v>2638</v>
       </c>
       <c r="C753">
         <v>2665</v>
@@ -9785,7 +9781,7 @@
         <v>2730</v>
       </c>
       <c r="C756">
-        <v>2845</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -9809,7 +9805,7 @@
         <v>2800</v>
       </c>
       <c r="C758">
-        <v>2815</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -9818,7 +9814,7 @@
         <v>45227</v>
       </c>
       <c r="B759">
-        <v>2870</v>
+        <v>2768</v>
       </c>
       <c r="C759">
         <v>2625</v>
@@ -9830,7 +9826,7 @@
         <v>45228</v>
       </c>
       <c r="B760">
-        <v>2760</v>
+        <v>2610</v>
       </c>
       <c r="C760">
         <v>2805</v>
@@ -9857,7 +9853,7 @@
         <v>2815</v>
       </c>
       <c r="C762">
-        <v>2635</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -9869,7 +9865,7 @@
         <v>2800</v>
       </c>
       <c r="C763">
-        <v>2730</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9902,7 +9898,7 @@
         <v>45234</v>
       </c>
       <c r="B766">
-        <v>2835</v>
+        <v>2732</v>
       </c>
       <c r="C766">
         <v>2895</v>
@@ -9914,10 +9910,10 @@
         <v>45235</v>
       </c>
       <c r="B767">
-        <v>2855</v>
+        <v>2716</v>
       </c>
       <c r="C767">
-        <v>2475</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9986,7 +9982,7 @@
         <v>45241</v>
       </c>
       <c r="B773">
-        <v>3040</v>
+        <v>2874</v>
       </c>
       <c r="C773">
         <v>2600</v>
@@ -9998,7 +9994,7 @@
         <v>45242</v>
       </c>
       <c r="B774">
-        <v>2835</v>
+        <v>2692</v>
       </c>
       <c r="C774">
         <v>2680</v>
@@ -10025,7 +10021,7 @@
         <v>2415</v>
       </c>
       <c r="C776">
-        <v>2735</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -10037,7 +10033,7 @@
         <v>2765</v>
       </c>
       <c r="C777">
-        <v>2795</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -10070,7 +10066,7 @@
         <v>45248</v>
       </c>
       <c r="B780">
-        <v>2635</v>
+        <v>2462</v>
       </c>
       <c r="C780">
         <v>2805</v>
@@ -10082,7 +10078,7 @@
         <v>45249</v>
       </c>
       <c r="B781">
-        <v>2815</v>
+        <v>2644</v>
       </c>
       <c r="C781">
         <v>2730</v>
@@ -10097,7 +10093,7 @@
         <v>2675</v>
       </c>
       <c r="C782">
-        <v>2815</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -10133,7 +10129,7 @@
         <v>2730</v>
       </c>
       <c r="C785">
-        <v>2795</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -10154,7 +10150,7 @@
         <v>45255</v>
       </c>
       <c r="B787">
-        <v>2850</v>
+        <v>2658</v>
       </c>
       <c r="C787">
         <v>2825</v>
@@ -10166,7 +10162,7 @@
         <v>45256</v>
       </c>
       <c r="B788">
-        <v>2915</v>
+        <v>2811</v>
       </c>
       <c r="C788">
         <v>3005</v>
@@ -10238,7 +10234,7 @@
         <v>45262</v>
       </c>
       <c r="B794">
-        <v>2815</v>
+        <v>2623</v>
       </c>
       <c r="C794">
         <v>2495</v>
@@ -10250,7 +10246,7 @@
         <v>45263</v>
       </c>
       <c r="B795">
-        <v>2680</v>
+        <v>2537</v>
       </c>
       <c r="C795">
         <v>2615</v>
@@ -10313,7 +10309,7 @@
         <v>2710</v>
       </c>
       <c r="C800">
-        <v>2670</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -10322,10 +10318,10 @@
         <v>45269</v>
       </c>
       <c r="B801">
-        <v>2995</v>
+        <v>2864</v>
       </c>
       <c r="C801">
-        <v>2935</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -10334,7 +10330,7 @@
         <v>45270</v>
       </c>
       <c r="B802">
-        <v>2760</v>
+        <v>2617</v>
       </c>
       <c r="C802">
         <v>2860</v>
@@ -10361,7 +10357,7 @@
         <v>2800</v>
       </c>
       <c r="C804">
-        <v>2815</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -10406,7 +10402,7 @@
         <v>45276</v>
       </c>
       <c r="B808">
-        <v>2855</v>
+        <v>2736</v>
       </c>
       <c r="C808">
         <v>2675</v>
@@ -10418,10 +10414,10 @@
         <v>45277</v>
       </c>
       <c r="B809">
-        <v>2620</v>
+        <v>2506</v>
       </c>
       <c r="C809">
-        <v>2705</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -10481,7 +10477,7 @@
         <v>2765</v>
       </c>
       <c r="C814">
-        <v>2520</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -10490,7 +10486,7 @@
         <v>45283</v>
       </c>
       <c r="B815">
-        <v>2810</v>
+        <v>2680</v>
       </c>
       <c r="C815">
         <v>2820</v>
@@ -10502,10 +10498,10 @@
         <v>45284</v>
       </c>
       <c r="B816">
-        <v>2905</v>
+        <v>2766</v>
       </c>
       <c r="C816">
-        <v>2565</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -10517,7 +10513,7 @@
         <v>2800</v>
       </c>
       <c r="C817">
-        <v>2925</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -10529,7 +10525,7 @@
         <v>2815</v>
       </c>
       <c r="C818">
-        <v>2995</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -10541,7 +10537,7 @@
         <v>2885</v>
       </c>
       <c r="C819">
-        <v>2480</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -10553,7 +10549,7 @@
         <v>2660</v>
       </c>
       <c r="C820">
-        <v>2885</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -10565,7 +10561,7 @@
         <v>2640</v>
       </c>
       <c r="C821">
-        <v>2530</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -10574,7 +10570,7 @@
         <v>45290</v>
       </c>
       <c r="B822">
-        <v>2805</v>
+        <v>2638</v>
       </c>
       <c r="C822">
         <v>2925</v>
@@ -10586,10 +10582,10 @@
         <v>45291</v>
       </c>
       <c r="B823">
-        <v>2735</v>
+        <v>2612</v>
       </c>
       <c r="C823">
-        <v>2985</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -10658,7 +10654,7 @@
         <v>45297</v>
       </c>
       <c r="B829">
-        <v>2705</v>
+        <v>2543</v>
       </c>
       <c r="C829">
         <v>2590</v>
@@ -10670,10 +10666,10 @@
         <v>45298</v>
       </c>
       <c r="B830">
-        <v>2685</v>
+        <v>2486</v>
       </c>
       <c r="C830">
-        <v>2560</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -10697,7 +10693,7 @@
         <v>2990</v>
       </c>
       <c r="C832">
-        <v>3065</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -10742,7 +10738,7 @@
         <v>45304</v>
       </c>
       <c r="B836">
-        <v>2735</v>
+        <v>2635</v>
       </c>
       <c r="C836">
         <v>2825</v>
@@ -10754,7 +10750,7 @@
         <v>45305</v>
       </c>
       <c r="B837">
-        <v>2660</v>
+        <v>2540</v>
       </c>
       <c r="C837">
         <v>2665</v>
@@ -10769,7 +10765,7 @@
         <v>2835</v>
       </c>
       <c r="C838">
-        <v>2920</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -10781,7 +10777,7 @@
         <v>2695</v>
       </c>
       <c r="C839">
-        <v>2970</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -10805,7 +10801,7 @@
         <v>2730</v>
       </c>
       <c r="C841">
-        <v>3065</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -10826,7 +10822,7 @@
         <v>45311</v>
       </c>
       <c r="B843">
-        <v>2680</v>
+        <v>2566</v>
       </c>
       <c r="C843">
         <v>2940</v>
@@ -10838,7 +10834,7 @@
         <v>45312</v>
       </c>
       <c r="B844">
-        <v>2875</v>
+        <v>2691</v>
       </c>
       <c r="C844">
         <v>2795</v>
@@ -10877,7 +10873,7 @@
         <v>2730</v>
       </c>
       <c r="C847">
-        <v>2665</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -10910,10 +10906,10 @@
         <v>45318</v>
       </c>
       <c r="B850">
-        <v>2740</v>
+        <v>2556</v>
       </c>
       <c r="C850">
-        <v>2865</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -10922,7 +10918,7 @@
         <v>45319</v>
       </c>
       <c r="B851">
-        <v>2740</v>
+        <v>2599</v>
       </c>
       <c r="C851">
         <v>2720</v>
@@ -10949,7 +10945,7 @@
         <v>2815</v>
       </c>
       <c r="C853">
-        <v>2700</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -10961,7 +10957,7 @@
         <v>2745</v>
       </c>
       <c r="C854">
-        <v>2870</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -10985,7 +10981,7 @@
         <v>2885</v>
       </c>
       <c r="C856">
-        <v>2855</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -10994,10 +10990,10 @@
         <v>45325</v>
       </c>
       <c r="B857">
-        <v>2720</v>
+        <v>2528</v>
       </c>
       <c r="C857">
-        <v>2745</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -11006,10 +11002,10 @@
         <v>45326</v>
       </c>
       <c r="B858">
-        <v>2760</v>
+        <v>2654</v>
       </c>
       <c r="C858">
-        <v>2765</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -11078,7 +11074,7 @@
         <v>45332</v>
       </c>
       <c r="B864">
-        <v>2595</v>
+        <v>2461</v>
       </c>
       <c r="C864">
         <v>2830</v>
@@ -11090,7 +11086,7 @@
         <v>45333</v>
       </c>
       <c r="B865">
-        <v>2830</v>
+        <v>2679</v>
       </c>
       <c r="C865">
         <v>2785</v>
@@ -11162,7 +11158,7 @@
         <v>45339</v>
       </c>
       <c r="B871">
-        <v>2675</v>
+        <v>2511</v>
       </c>
       <c r="C871">
         <v>2780</v>
@@ -11174,7 +11170,7 @@
         <v>45340</v>
       </c>
       <c r="B872">
-        <v>2605</v>
+        <v>2460</v>
       </c>
       <c r="C872">
         <v>2905</v>
@@ -11201,7 +11197,7 @@
         <v>2800</v>
       </c>
       <c r="C874">
-        <v>2690</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -11225,7 +11221,7 @@
         <v>2800</v>
       </c>
       <c r="C876">
-        <v>2895</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -11246,7 +11242,7 @@
         <v>45346</v>
       </c>
       <c r="B878">
-        <v>2795</v>
+        <v>2621</v>
       </c>
       <c r="C878">
         <v>2710</v>
@@ -11258,10 +11254,10 @@
         <v>45347</v>
       </c>
       <c r="B879">
-        <v>2940</v>
+        <v>2752</v>
       </c>
       <c r="C879">
-        <v>2725</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -11285,7 +11281,7 @@
         <v>2905</v>
       </c>
       <c r="C881">
-        <v>2630</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -11309,7 +11305,7 @@
         <v>2870</v>
       </c>
       <c r="C883">
-        <v>2765</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -11330,7 +11326,7 @@
         <v>45353</v>
       </c>
       <c r="B885">
-        <v>2700</v>
+        <v>2518</v>
       </c>
       <c r="C885">
         <v>2750</v>
@@ -11342,7 +11338,7 @@
         <v>45354</v>
       </c>
       <c r="B886">
-        <v>2770</v>
+        <v>2638</v>
       </c>
       <c r="C886">
         <v>2900</v>
@@ -11414,10 +11410,10 @@
         <v>45360</v>
       </c>
       <c r="B892">
-        <v>2950</v>
+        <v>2842</v>
       </c>
       <c r="C892">
-        <v>2610</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -11426,10 +11422,10 @@
         <v>45361</v>
       </c>
       <c r="B893">
-        <v>2905</v>
+        <v>2787</v>
       </c>
       <c r="C893">
-        <v>2760</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -11453,7 +11449,7 @@
         <v>2815</v>
       </c>
       <c r="C895">
-        <v>2955</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -11465,7 +11461,7 @@
         <v>2920</v>
       </c>
       <c r="C896">
-        <v>2730</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -11498,7 +11494,7 @@
         <v>45367</v>
       </c>
       <c r="B899">
-        <v>2820</v>
+        <v>2670</v>
       </c>
       <c r="C899">
         <v>2875</v>
@@ -11510,7 +11506,7 @@
         <v>45368</v>
       </c>
       <c r="B900">
-        <v>2975</v>
+        <v>2838</v>
       </c>
       <c r="C900">
         <v>3045</v>
@@ -11582,7 +11578,7 @@
         <v>45374</v>
       </c>
       <c r="B906">
-        <v>3030</v>
+        <v>2839</v>
       </c>
       <c r="C906">
         <v>2505</v>
@@ -11594,10 +11590,10 @@
         <v>45375</v>
       </c>
       <c r="B907">
-        <v>2640</v>
+        <v>2479</v>
       </c>
       <c r="C907">
-        <v>2655</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -11609,7 +11605,7 @@
         <v>2780</v>
       </c>
       <c r="C908">
-        <v>3155</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -11633,7 +11629,7 @@
         <v>2835</v>
       </c>
       <c r="C910">
-        <v>2595</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -11645,7 +11641,7 @@
         <v>2815</v>
       </c>
       <c r="C911">
-        <v>2865</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -11666,7 +11662,7 @@
         <v>45381</v>
       </c>
       <c r="B913">
-        <v>2825</v>
+        <v>2638</v>
       </c>
       <c r="C913">
         <v>2310</v>
@@ -11678,7 +11674,7 @@
         <v>45382</v>
       </c>
       <c r="B914">
-        <v>2890</v>
+        <v>2771</v>
       </c>
       <c r="C914">
         <v>2770</v>
@@ -11750,7 +11746,7 @@
         <v>45388</v>
       </c>
       <c r="B920">
-        <v>2585</v>
+        <v>2406</v>
       </c>
       <c r="C920">
         <v>2860</v>
@@ -11762,7 +11758,7 @@
         <v>45389</v>
       </c>
       <c r="B921">
-        <v>2660</v>
+        <v>2482</v>
       </c>
       <c r="C921">
         <v>2740</v>
@@ -11813,7 +11809,7 @@
         <v>2835</v>
       </c>
       <c r="C925">
-        <v>2550</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -11825,7 +11821,7 @@
         <v>2780</v>
       </c>
       <c r="C926">
-        <v>2935</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -11834,7 +11830,7 @@
         <v>45395</v>
       </c>
       <c r="B927">
-        <v>2740</v>
+        <v>2636</v>
       </c>
       <c r="C927">
         <v>2660</v>
@@ -11846,7 +11842,7 @@
         <v>45396</v>
       </c>
       <c r="B928">
-        <v>2730</v>
+        <v>2553</v>
       </c>
       <c r="C928">
         <v>3115</v>
@@ -11885,7 +11881,7 @@
         <v>3025</v>
       </c>
       <c r="C931">
-        <v>2915</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -11918,7 +11914,7 @@
         <v>45402</v>
       </c>
       <c r="B934">
-        <v>2715</v>
+        <v>2526</v>
       </c>
       <c r="C934">
         <v>2650</v>
@@ -11930,10 +11926,10 @@
         <v>45403</v>
       </c>
       <c r="B935">
-        <v>2605</v>
+        <v>2436</v>
       </c>
       <c r="C935">
-        <v>2840</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -11945,7 +11941,7 @@
         <v>2745</v>
       </c>
       <c r="C936">
-        <v>2560</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -11969,7 +11965,7 @@
         <v>2465</v>
       </c>
       <c r="C938">
-        <v>2880</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -11993,7 +11989,7 @@
         <v>2955</v>
       </c>
       <c r="C940">
-        <v>3000</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -12002,7 +11998,7 @@
         <v>45409</v>
       </c>
       <c r="B941">
-        <v>2750</v>
+        <v>2635</v>
       </c>
       <c r="C941">
         <v>2575</v>
@@ -12014,7 +12010,7 @@
         <v>45410</v>
       </c>
       <c r="B942">
-        <v>2855</v>
+        <v>2729</v>
       </c>
       <c r="C942">
         <v>2810</v>
@@ -12086,7 +12082,7 @@
         <v>45416</v>
       </c>
       <c r="B948">
-        <v>2655</v>
+        <v>2469</v>
       </c>
       <c r="C948">
         <v>2770</v>
@@ -12098,10 +12094,10 @@
         <v>45417</v>
       </c>
       <c r="B949">
-        <v>2690</v>
+        <v>2542</v>
       </c>
       <c r="C949">
-        <v>2560</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -12125,7 +12121,7 @@
         <v>2870</v>
       </c>
       <c r="C951">
-        <v>2465</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -12149,7 +12145,7 @@
         <v>2815</v>
       </c>
       <c r="C953">
-        <v>2620</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -12170,7 +12166,7 @@
         <v>45423</v>
       </c>
       <c r="B955">
-        <v>2670</v>
+        <v>2539</v>
       </c>
       <c r="C955">
         <v>2670</v>
@@ -12182,7 +12178,7 @@
         <v>45424</v>
       </c>
       <c r="B956">
-        <v>2680</v>
+        <v>2557</v>
       </c>
       <c r="C956">
         <v>2820</v>
@@ -12221,7 +12217,7 @@
         <v>2850</v>
       </c>
       <c r="C959">
-        <v>2905</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -12254,7 +12250,7 @@
         <v>45430</v>
       </c>
       <c r="B962">
-        <v>2670</v>
+        <v>2529</v>
       </c>
       <c r="C962">
         <v>2690</v>
@@ -12266,7 +12262,7 @@
         <v>45431</v>
       </c>
       <c r="B963">
-        <v>2965</v>
+        <v>2816</v>
       </c>
       <c r="C963">
         <v>2885</v>
@@ -12317,7 +12313,7 @@
         <v>2835</v>
       </c>
       <c r="C967">
-        <v>2930</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -12338,10 +12334,10 @@
         <v>45437</v>
       </c>
       <c r="B969">
-        <v>2855</v>
+        <v>2674</v>
       </c>
       <c r="C969">
-        <v>2585</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -12350,10 +12346,10 @@
         <v>45438</v>
       </c>
       <c r="B970">
-        <v>2795</v>
+        <v>2611</v>
       </c>
       <c r="C970">
-        <v>2845</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -12422,7 +12418,7 @@
         <v>45444</v>
       </c>
       <c r="B976">
-        <v>2625</v>
+        <v>2498</v>
       </c>
       <c r="C976">
         <v>3085</v>
@@ -12434,10 +12430,10 @@
         <v>45445</v>
       </c>
       <c r="B977">
-        <v>2750</v>
+        <v>2591</v>
       </c>
       <c r="C977">
-        <v>2940</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -12449,7 +12445,7 @@
         <v>2955</v>
       </c>
       <c r="C978">
-        <v>2920</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -12461,7 +12457,7 @@
         <v>2835</v>
       </c>
       <c r="C979">
-        <v>2860</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -12473,7 +12469,7 @@
         <v>2745</v>
       </c>
       <c r="C980">
-        <v>2745</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -12485,7 +12481,7 @@
         <v>2940</v>
       </c>
       <c r="C981">
-        <v>2705</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -12506,7 +12502,7 @@
         <v>45451</v>
       </c>
       <c r="B983">
-        <v>2740</v>
+        <v>2622</v>
       </c>
       <c r="C983">
         <v>2745</v>
@@ -12518,10 +12514,10 @@
         <v>45452</v>
       </c>
       <c r="B984">
-        <v>2690</v>
+        <v>2569</v>
       </c>
       <c r="C984">
-        <v>2595</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -12581,7 +12577,7 @@
         <v>2955</v>
       </c>
       <c r="C989">
-        <v>3080</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -12590,7 +12586,7 @@
         <v>45458</v>
       </c>
       <c r="B990">
-        <v>2910</v>
+        <v>2777</v>
       </c>
       <c r="C990">
         <v>2855</v>
@@ -12602,7 +12598,7 @@
         <v>45459</v>
       </c>
       <c r="B991">
-        <v>2730</v>
+        <v>2571</v>
       </c>
       <c r="C991">
         <v>2885</v>
@@ -12641,7 +12637,7 @@
         <v>2765</v>
       </c>
       <c r="C994">
-        <v>2540</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -12653,7 +12649,7 @@
         <v>2905</v>
       </c>
       <c r="C995">
-        <v>2925</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -12674,7 +12670,7 @@
         <v>45465</v>
       </c>
       <c r="B997">
-        <v>2795</v>
+        <v>2669</v>
       </c>
       <c r="C997">
         <v>2730</v>
@@ -12686,7 +12682,7 @@
         <v>45466</v>
       </c>
       <c r="B998">
-        <v>2670</v>
+        <v>2505</v>
       </c>
       <c r="C998">
         <v>2655</v>
@@ -12701,7 +12697,7 @@
         <v>2835</v>
       </c>
       <c r="C999">
-        <v>2905</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1000" spans="1:3">

--- a/data/Sales_Forecast.xlsx
+++ b/data/Sales_Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D544EBD-A93B-4E18-BFF3-C16758069178}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA55A9E-D113-4CF0-B1AD-74541A54B5D7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -790,7 +790,7 @@
         <v>44475</v>
       </c>
       <c r="B7">
-        <v>2915</v>
+        <v>2368</v>
       </c>
       <c r="C7">
         <v>2790</v>
@@ -874,7 +874,7 @@
         <v>44482</v>
       </c>
       <c r="B14">
-        <v>2880</v>
+        <v>2579</v>
       </c>
       <c r="C14">
         <v>2955</v>
@@ -925,7 +925,7 @@
         <v>2461</v>
       </c>
       <c r="C18">
-        <v>3050</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -958,7 +958,7 @@
         <v>44489</v>
       </c>
       <c r="B21">
-        <v>3005</v>
+        <v>2584</v>
       </c>
       <c r="C21">
         <v>2820</v>
@@ -1042,7 +1042,7 @@
         <v>44496</v>
       </c>
       <c r="B28">
-        <v>2715</v>
+        <v>2192</v>
       </c>
       <c r="C28">
         <v>3055</v>
@@ -1057,7 +1057,7 @@
         <v>2685</v>
       </c>
       <c r="C29">
-        <v>2640</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>2671</v>
       </c>
       <c r="C32">
-        <v>2815</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>44503</v>
       </c>
       <c r="B35">
-        <v>2805</v>
+        <v>2376</v>
       </c>
       <c r="C35">
         <v>2820</v>
@@ -1141,7 +1141,7 @@
         <v>2650</v>
       </c>
       <c r="C36">
-        <v>2740</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1210,7 +1210,7 @@
         <v>44510</v>
       </c>
       <c r="B42">
-        <v>2890</v>
+        <v>2327</v>
       </c>
       <c r="C42">
         <v>2515</v>
@@ -1294,7 +1294,7 @@
         <v>44517</v>
       </c>
       <c r="B49">
-        <v>3060</v>
+        <v>2647</v>
       </c>
       <c r="C49">
         <v>2660</v>
@@ -1309,7 +1309,7 @@
         <v>2790</v>
       </c>
       <c r="C50">
-        <v>2830</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>44524</v>
       </c>
       <c r="B56">
-        <v>2770</v>
+        <v>2312</v>
       </c>
       <c r="C56">
         <v>2515</v>
@@ -1429,7 +1429,7 @@
         <v>2601</v>
       </c>
       <c r="C60">
-        <v>2690</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1462,7 +1462,7 @@
         <v>44531</v>
       </c>
       <c r="B63">
-        <v>2735</v>
+        <v>2157</v>
       </c>
       <c r="C63">
         <v>3150</v>
@@ -1546,7 +1546,7 @@
         <v>44538</v>
       </c>
       <c r="B70">
-        <v>2910</v>
+        <v>2311</v>
       </c>
       <c r="C70">
         <v>3060</v>
@@ -1585,7 +1585,7 @@
         <v>2706</v>
       </c>
       <c r="C73">
-        <v>2490</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>44545</v>
       </c>
       <c r="B77">
-        <v>2695</v>
+        <v>2369</v>
       </c>
       <c r="C77">
         <v>2790</v>
@@ -1657,7 +1657,7 @@
         <v>2790</v>
       </c>
       <c r="C79">
-        <v>2800</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>2475</v>
       </c>
       <c r="C80">
-        <v>2590</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>44552</v>
       </c>
       <c r="B84">
-        <v>2715</v>
+        <v>2124</v>
       </c>
       <c r="C84">
         <v>2865</v>
@@ -1798,10 +1798,10 @@
         <v>44559</v>
       </c>
       <c r="B91">
-        <v>2965</v>
+        <v>2503</v>
       </c>
       <c r="C91">
-        <v>2735</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1825,7 +1825,7 @@
         <v>2755</v>
       </c>
       <c r="C93">
-        <v>2730</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>2860</v>
       </c>
       <c r="C96">
-        <v>2775</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>44566</v>
       </c>
       <c r="B98">
-        <v>2745</v>
+        <v>2438</v>
       </c>
       <c r="C98">
         <v>2844</v>
@@ -1966,7 +1966,7 @@
         <v>44573</v>
       </c>
       <c r="B105">
-        <v>2885</v>
+        <v>2387</v>
       </c>
       <c r="C105">
         <v>2900</v>
@@ -1993,7 +1993,7 @@
         <v>2895</v>
       </c>
       <c r="C107">
-        <v>2800</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>44580</v>
       </c>
       <c r="B112">
-        <v>2730</v>
+        <v>2181</v>
       </c>
       <c r="C112">
         <v>2837</v>
@@ -2134,7 +2134,7 @@
         <v>44587</v>
       </c>
       <c r="B119">
-        <v>2795</v>
+        <v>2428</v>
       </c>
       <c r="C119">
         <v>2915</v>
@@ -2149,7 +2149,7 @@
         <v>2825</v>
       </c>
       <c r="C120">
-        <v>2820</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>44594</v>
       </c>
       <c r="B126">
-        <v>2635</v>
+        <v>2244</v>
       </c>
       <c r="C126">
         <v>2790</v>
@@ -2281,7 +2281,7 @@
         <v>2790</v>
       </c>
       <c r="C131">
-        <v>2505</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>44601</v>
       </c>
       <c r="B133">
-        <v>2695</v>
+        <v>2226</v>
       </c>
       <c r="C133">
         <v>2810</v>
@@ -2353,7 +2353,7 @@
         <v>2426</v>
       </c>
       <c r="C137">
-        <v>2630</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2386,7 +2386,7 @@
         <v>44608</v>
       </c>
       <c r="B140">
-        <v>2690</v>
+        <v>2231</v>
       </c>
       <c r="C140">
         <v>2935</v>
@@ -2470,7 +2470,7 @@
         <v>44615</v>
       </c>
       <c r="B147">
-        <v>2800</v>
+        <v>2441</v>
       </c>
       <c r="C147">
         <v>2620</v>
@@ -2497,7 +2497,7 @@
         <v>2825</v>
       </c>
       <c r="C149">
-        <v>2755</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2554,10 +2554,10 @@
         <v>44622</v>
       </c>
       <c r="B154">
-        <v>2825</v>
+        <v>2399</v>
       </c>
       <c r="C154">
-        <v>2900</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>2790</v>
       </c>
       <c r="C159">
-        <v>2985</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2638,7 +2638,7 @@
         <v>44629</v>
       </c>
       <c r="B161">
-        <v>2845</v>
+        <v>2434</v>
       </c>
       <c r="C161">
         <v>3080</v>
@@ -2722,7 +2722,7 @@
         <v>44636</v>
       </c>
       <c r="B168">
-        <v>2555</v>
+        <v>1977</v>
       </c>
       <c r="C168">
         <v>2482</v>
@@ -2737,7 +2737,7 @@
         <v>2825</v>
       </c>
       <c r="C169">
-        <v>2770</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>2566</v>
       </c>
       <c r="C172">
-        <v>2545</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>2755</v>
       </c>
       <c r="C174">
-        <v>2745</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>44643</v>
       </c>
       <c r="B175">
-        <v>2780</v>
+        <v>2331</v>
       </c>
       <c r="C175">
         <v>2398</v>
@@ -2845,7 +2845,7 @@
         <v>2573</v>
       </c>
       <c r="C178">
-        <v>2700</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>2762</v>
       </c>
       <c r="C179">
-        <v>2680</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2890,7 +2890,7 @@
         <v>44650</v>
       </c>
       <c r="B182">
-        <v>2870</v>
+        <v>2437</v>
       </c>
       <c r="C182">
         <v>2487</v>
@@ -2929,7 +2929,7 @@
         <v>2531</v>
       </c>
       <c r="C185">
-        <v>2795</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>2671</v>
       </c>
       <c r="C186">
-        <v>2910</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>44657</v>
       </c>
       <c r="B189">
-        <v>2540</v>
+        <v>1985</v>
       </c>
       <c r="C189">
         <v>2890</v>
@@ -3001,7 +3001,7 @@
         <v>2825</v>
       </c>
       <c r="C191">
-        <v>2610</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>44664</v>
       </c>
       <c r="B196">
-        <v>2840</v>
+        <v>2397</v>
       </c>
       <c r="C196">
         <v>2930</v>
@@ -3142,7 +3142,7 @@
         <v>44671</v>
       </c>
       <c r="B203">
-        <v>2795</v>
+        <v>2341</v>
       </c>
       <c r="C203">
         <v>2550</v>
@@ -3226,7 +3226,7 @@
         <v>44678</v>
       </c>
       <c r="B210">
-        <v>2845</v>
+        <v>2341</v>
       </c>
       <c r="C210">
         <v>3110</v>
@@ -3289,7 +3289,7 @@
         <v>2790</v>
       </c>
       <c r="C215">
-        <v>3105</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3310,7 +3310,7 @@
         <v>44685</v>
       </c>
       <c r="B217">
-        <v>2890</v>
+        <v>2512</v>
       </c>
       <c r="C217">
         <v>2750</v>
@@ -3361,7 +3361,7 @@
         <v>2783</v>
       </c>
       <c r="C221">
-        <v>2790</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>44692</v>
       </c>
       <c r="B224">
-        <v>2785</v>
+        <v>2281</v>
       </c>
       <c r="C224">
         <v>2690</v>
@@ -3478,7 +3478,7 @@
         <v>44699</v>
       </c>
       <c r="B231">
-        <v>2815</v>
+        <v>2470</v>
       </c>
       <c r="C231">
         <v>2656</v>
@@ -3562,7 +3562,7 @@
         <v>44706</v>
       </c>
       <c r="B238">
-        <v>2805</v>
+        <v>2437</v>
       </c>
       <c r="C238">
         <v>2745</v>
@@ -3601,7 +3601,7 @@
         <v>2853</v>
       </c>
       <c r="C241">
-        <v>2550</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3646,7 +3646,7 @@
         <v>44713</v>
       </c>
       <c r="B245">
-        <v>2840</v>
+        <v>2352</v>
       </c>
       <c r="C245">
         <v>2645</v>
@@ -3730,7 +3730,7 @@
         <v>44720</v>
       </c>
       <c r="B252">
-        <v>2785</v>
+        <v>2201</v>
       </c>
       <c r="C252">
         <v>2775</v>
@@ -3814,7 +3814,7 @@
         <v>44727</v>
       </c>
       <c r="B259">
-        <v>2610</v>
+        <v>2016</v>
       </c>
       <c r="C259">
         <v>2810</v>
@@ -3898,7 +3898,7 @@
         <v>44734</v>
       </c>
       <c r="B266">
-        <v>2865</v>
+        <v>2390</v>
       </c>
       <c r="C266">
         <v>2795</v>
@@ -3913,7 +3913,7 @@
         <v>2965</v>
       </c>
       <c r="C267">
-        <v>2830</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>44741</v>
       </c>
       <c r="B273">
-        <v>2685</v>
+        <v>2234</v>
       </c>
       <c r="C273">
-        <v>2895</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4009,7 +4009,7 @@
         <v>2580</v>
       </c>
       <c r="C275">
-        <v>2705</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>2818</v>
       </c>
       <c r="C276">
-        <v>2960</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4066,7 +4066,7 @@
         <v>44748</v>
       </c>
       <c r="B280">
-        <v>2820</v>
+        <v>2267</v>
       </c>
       <c r="C280">
         <v>2775</v>
@@ -4105,7 +4105,7 @@
         <v>2594</v>
       </c>
       <c r="C283">
-        <v>2775</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>2790</v>
       </c>
       <c r="C285">
-        <v>2680</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4150,10 +4150,10 @@
         <v>44755</v>
       </c>
       <c r="B287">
-        <v>2895</v>
+        <v>2435</v>
       </c>
       <c r="C287">
-        <v>2900</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4177,7 +4177,7 @@
         <v>3210</v>
       </c>
       <c r="C289">
-        <v>2800</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>44762</v>
       </c>
       <c r="B294">
-        <v>2790</v>
+        <v>2365</v>
       </c>
       <c r="C294">
-        <v>2785</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4297,7 +4297,7 @@
         <v>2860</v>
       </c>
       <c r="C299">
-        <v>2635</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4309,7 +4309,7 @@
         <v>2755</v>
       </c>
       <c r="C300">
-        <v>2785</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4318,7 +4318,7 @@
         <v>44769</v>
       </c>
       <c r="B301">
-        <v>2830</v>
+        <v>2396</v>
       </c>
       <c r="C301">
         <v>2830</v>
@@ -4369,7 +4369,7 @@
         <v>2657</v>
       </c>
       <c r="C305">
-        <v>2850</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>44776</v>
       </c>
       <c r="B308">
-        <v>3015</v>
+        <v>2563</v>
       </c>
       <c r="C308">
         <v>2765</v>
@@ -4417,7 +4417,7 @@
         <v>2755</v>
       </c>
       <c r="C309">
-        <v>2690</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4486,7 +4486,7 @@
         <v>44783</v>
       </c>
       <c r="B315">
-        <v>2675</v>
+        <v>2276</v>
       </c>
       <c r="C315">
         <v>2510</v>
@@ -4570,7 +4570,7 @@
         <v>44790</v>
       </c>
       <c r="B322">
-        <v>2775</v>
+        <v>2359</v>
       </c>
       <c r="C322">
         <v>2630</v>
@@ -4654,10 +4654,10 @@
         <v>44797</v>
       </c>
       <c r="B329">
-        <v>2790</v>
+        <v>2341</v>
       </c>
       <c r="C329">
-        <v>2650</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4681,7 +4681,7 @@
         <v>2755</v>
       </c>
       <c r="C331">
-        <v>2595</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>2489</v>
       </c>
       <c r="C332">
-        <v>2820</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4738,10 +4738,10 @@
         <v>44804</v>
       </c>
       <c r="B336">
-        <v>3035</v>
+        <v>2692</v>
       </c>
       <c r="C336">
-        <v>2650</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4765,7 +4765,7 @@
         <v>2930</v>
       </c>
       <c r="C338">
-        <v>2930</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4822,7 +4822,7 @@
         <v>44811</v>
       </c>
       <c r="B343">
-        <v>2660</v>
+        <v>2121</v>
       </c>
       <c r="C343">
         <v>2549</v>
@@ -4906,7 +4906,7 @@
         <v>44818</v>
       </c>
       <c r="B350">
-        <v>3135</v>
+        <v>2571</v>
       </c>
       <c r="C350">
         <v>3135</v>
@@ -4933,7 +4933,7 @@
         <v>2790</v>
       </c>
       <c r="C352">
-        <v>2870</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4990,7 +4990,7 @@
         <v>44825</v>
       </c>
       <c r="B357">
-        <v>2925</v>
+        <v>2520</v>
       </c>
       <c r="C357">
         <v>2895</v>
@@ -5074,7 +5074,7 @@
         <v>44832</v>
       </c>
       <c r="B364">
-        <v>2855</v>
+        <v>2407</v>
       </c>
       <c r="C364">
         <v>2660</v>
@@ -5158,7 +5158,7 @@
         <v>44839</v>
       </c>
       <c r="B371">
-        <v>2780</v>
+        <v>2385</v>
       </c>
       <c r="C371">
         <v>2603</v>
@@ -5185,7 +5185,7 @@
         <v>2930</v>
       </c>
       <c r="C373">
-        <v>2595</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5197,7 +5197,7 @@
         <v>2545</v>
       </c>
       <c r="C374">
-        <v>2620</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5221,7 +5221,7 @@
         <v>2790</v>
       </c>
       <c r="C376">
-        <v>2855</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5242,7 +5242,7 @@
         <v>44846</v>
       </c>
       <c r="B378">
-        <v>2605</v>
+        <v>2287</v>
       </c>
       <c r="C378">
         <v>2491</v>
@@ -5326,10 +5326,10 @@
         <v>44853</v>
       </c>
       <c r="B385">
-        <v>2860</v>
+        <v>2400</v>
       </c>
       <c r="C385">
-        <v>2740</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>2713</v>
       </c>
       <c r="C389">
-        <v>2880</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -5389,7 +5389,7 @@
         <v>2895</v>
       </c>
       <c r="C390">
-        <v>2560</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -5410,7 +5410,7 @@
         <v>44860</v>
       </c>
       <c r="B392">
-        <v>2535</v>
+        <v>1941</v>
       </c>
       <c r="C392">
         <v>2718</v>
@@ -5425,7 +5425,7 @@
         <v>2860</v>
       </c>
       <c r="C393">
-        <v>2820</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -5485,7 +5485,7 @@
         <v>2685</v>
       </c>
       <c r="C398">
-        <v>2685</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5494,7 +5494,7 @@
         <v>44867</v>
       </c>
       <c r="B399">
-        <v>2460</v>
+        <v>1997</v>
       </c>
       <c r="C399">
         <v>2860</v>
@@ -5578,7 +5578,7 @@
         <v>44874</v>
       </c>
       <c r="B406">
-        <v>2960</v>
+        <v>2439</v>
       </c>
       <c r="C406">
         <v>2975</v>
@@ -5662,7 +5662,7 @@
         <v>44881</v>
       </c>
       <c r="B413">
-        <v>2840</v>
+        <v>2412</v>
       </c>
       <c r="C413">
         <v>2855</v>
@@ -5737,7 +5737,7 @@
         <v>2510</v>
       </c>
       <c r="C419">
-        <v>2860</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>44888</v>
       </c>
       <c r="B420">
-        <v>2865</v>
+        <v>2290</v>
       </c>
       <c r="C420">
         <v>2865</v>
@@ -5761,7 +5761,7 @@
         <v>2825</v>
       </c>
       <c r="C421">
-        <v>2890</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>3000</v>
       </c>
       <c r="C422">
-        <v>2815</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>44895</v>
       </c>
       <c r="B427">
-        <v>2755</v>
+        <v>2355</v>
       </c>
       <c r="C427">
-        <v>2895</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5914,7 +5914,7 @@
         <v>44902</v>
       </c>
       <c r="B434">
-        <v>2640</v>
+        <v>2189</v>
       </c>
       <c r="C434">
         <v>2636</v>
@@ -5998,7 +5998,7 @@
         <v>44909</v>
       </c>
       <c r="B441">
-        <v>2750</v>
+        <v>2191</v>
       </c>
       <c r="C441">
         <v>2835</v>
@@ -6037,7 +6037,7 @@
         <v>2538</v>
       </c>
       <c r="C444">
-        <v>2850</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6061,7 +6061,7 @@
         <v>2965</v>
       </c>
       <c r="C446">
-        <v>2755</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6082,7 +6082,7 @@
         <v>44916</v>
       </c>
       <c r="B448">
-        <v>2780</v>
+        <v>2225</v>
       </c>
       <c r="C448">
         <v>2814</v>
@@ -6166,7 +6166,7 @@
         <v>44923</v>
       </c>
       <c r="B455">
-        <v>3130</v>
+        <v>2613</v>
       </c>
       <c r="C455">
         <v>2662</v>
@@ -6250,7 +6250,7 @@
         <v>44930</v>
       </c>
       <c r="B462">
-        <v>2900</v>
+        <v>2409</v>
       </c>
       <c r="C462">
         <v>2880</v>
@@ -6265,7 +6265,7 @@
         <v>2895</v>
       </c>
       <c r="C463">
-        <v>2565</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -6325,7 +6325,7 @@
         <v>2860</v>
       </c>
       <c r="C468">
-        <v>3115</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -6334,7 +6334,7 @@
         <v>44937</v>
       </c>
       <c r="B469">
-        <v>2800</v>
+        <v>2341</v>
       </c>
       <c r="C469">
         <v>2447</v>
@@ -6349,7 +6349,7 @@
         <v>2895</v>
       </c>
       <c r="C470">
-        <v>2595</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -6418,7 +6418,7 @@
         <v>44944</v>
       </c>
       <c r="B476">
-        <v>2910</v>
+        <v>2318</v>
       </c>
       <c r="C476">
         <v>2745</v>
@@ -6502,7 +6502,7 @@
         <v>44951</v>
       </c>
       <c r="B483">
-        <v>2760</v>
+        <v>2235</v>
       </c>
       <c r="C483">
         <v>2925</v>
@@ -6517,7 +6517,7 @@
         <v>2580</v>
       </c>
       <c r="C484">
-        <v>2640</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>2755</v>
       </c>
       <c r="C486">
-        <v>2700</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -6553,7 +6553,7 @@
         <v>2790</v>
       </c>
       <c r="C487">
-        <v>2930</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -6565,7 +6565,7 @@
         <v>2895</v>
       </c>
       <c r="C488">
-        <v>2745</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -6586,10 +6586,10 @@
         <v>44958</v>
       </c>
       <c r="B490">
-        <v>2825</v>
+        <v>2450</v>
       </c>
       <c r="C490">
-        <v>2860</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6670,7 +6670,7 @@
         <v>44965</v>
       </c>
       <c r="B497">
-        <v>2770</v>
+        <v>2189</v>
       </c>
       <c r="C497">
         <v>2680</v>
@@ -6754,7 +6754,7 @@
         <v>44972</v>
       </c>
       <c r="B504">
-        <v>2875</v>
+        <v>2535</v>
       </c>
       <c r="C504">
         <v>2820</v>
@@ -6793,7 +6793,7 @@
         <v>2818</v>
       </c>
       <c r="C507">
-        <v>3170</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6805,7 +6805,7 @@
         <v>2650</v>
       </c>
       <c r="C508">
-        <v>3050</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6838,10 +6838,10 @@
         <v>44979</v>
       </c>
       <c r="B511">
-        <v>2825</v>
+        <v>2403</v>
       </c>
       <c r="C511">
-        <v>2900</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6853,7 +6853,7 @@
         <v>2720</v>
       </c>
       <c r="C512">
-        <v>3010</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6889,7 +6889,7 @@
         <v>2587</v>
       </c>
       <c r="C515">
-        <v>2990</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6913,7 +6913,7 @@
         <v>2755</v>
       </c>
       <c r="C517">
-        <v>2955</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6922,7 +6922,7 @@
         <v>44986</v>
       </c>
       <c r="B518">
-        <v>2705</v>
+        <v>2154</v>
       </c>
       <c r="C518">
         <v>3000</v>
@@ -7006,7 +7006,7 @@
         <v>44993</v>
       </c>
       <c r="B525">
-        <v>2805</v>
+        <v>2346</v>
       </c>
       <c r="C525">
         <v>3035</v>
@@ -7090,7 +7090,7 @@
         <v>45000</v>
       </c>
       <c r="B532">
-        <v>2645</v>
+        <v>2213</v>
       </c>
       <c r="C532">
         <v>2745</v>
@@ -7105,7 +7105,7 @@
         <v>2790</v>
       </c>
       <c r="C533">
-        <v>2580</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -7174,10 +7174,10 @@
         <v>45007</v>
       </c>
       <c r="B539">
-        <v>2720</v>
+        <v>2415</v>
       </c>
       <c r="C539">
-        <v>2470</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -7201,7 +7201,7 @@
         <v>2720</v>
       </c>
       <c r="C541">
-        <v>2515</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -7258,7 +7258,7 @@
         <v>45014</v>
       </c>
       <c r="B546">
-        <v>2645</v>
+        <v>2191</v>
       </c>
       <c r="C546">
         <v>2780</v>
@@ -7273,7 +7273,7 @@
         <v>2685</v>
       </c>
       <c r="C547">
-        <v>2845</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -7297,7 +7297,7 @@
         <v>2762</v>
       </c>
       <c r="C549">
-        <v>2740</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -7342,10 +7342,10 @@
         <v>45021</v>
       </c>
       <c r="B553">
-        <v>2860</v>
+        <v>2334</v>
       </c>
       <c r="C553">
-        <v>2890</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -7426,7 +7426,7 @@
         <v>45028</v>
       </c>
       <c r="B560">
-        <v>2680</v>
+        <v>2309</v>
       </c>
       <c r="C560">
         <v>2680</v>
@@ -7510,7 +7510,7 @@
         <v>45035</v>
       </c>
       <c r="B567">
-        <v>3055</v>
+        <v>2658</v>
       </c>
       <c r="C567">
         <v>2810</v>
@@ -7525,7 +7525,7 @@
         <v>2790</v>
       </c>
       <c r="C568">
-        <v>2780</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -7537,7 +7537,7 @@
         <v>2580</v>
       </c>
       <c r="C569">
-        <v>2810</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>2440</v>
       </c>
       <c r="C570">
-        <v>2810</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -7594,7 +7594,7 @@
         <v>45042</v>
       </c>
       <c r="B574">
-        <v>2775</v>
+        <v>2452</v>
       </c>
       <c r="C574">
         <v>2555</v>
@@ -7657,7 +7657,7 @@
         <v>2790</v>
       </c>
       <c r="C579">
-        <v>2900</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -7669,7 +7669,7 @@
         <v>2790</v>
       </c>
       <c r="C580">
-        <v>2780</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>45049</v>
       </c>
       <c r="B581">
-        <v>2825</v>
+        <v>2372</v>
       </c>
       <c r="C581">
-        <v>2575</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -7693,7 +7693,7 @@
         <v>2685</v>
       </c>
       <c r="C582">
-        <v>3045</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7753,7 +7753,7 @@
         <v>2790</v>
       </c>
       <c r="C587">
-        <v>2860</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7762,7 +7762,7 @@
         <v>45056</v>
       </c>
       <c r="B588">
-        <v>2680</v>
+        <v>2157</v>
       </c>
       <c r="C588">
         <v>2840</v>
@@ -7846,7 +7846,7 @@
         <v>45063</v>
       </c>
       <c r="B595">
-        <v>2810</v>
+        <v>2276</v>
       </c>
       <c r="C595">
         <v>2810</v>
@@ -7909,7 +7909,7 @@
         <v>2650</v>
       </c>
       <c r="C600">
-        <v>2635</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7921,7 +7921,7 @@
         <v>2720</v>
       </c>
       <c r="C601">
-        <v>2725</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7930,7 +7930,7 @@
         <v>45070</v>
       </c>
       <c r="B602">
-        <v>2705</v>
+        <v>2286</v>
       </c>
       <c r="C602">
         <v>2875</v>
@@ -8014,10 +8014,10 @@
         <v>45077</v>
       </c>
       <c r="B609">
-        <v>2615</v>
+        <v>2295</v>
       </c>
       <c r="C609">
-        <v>2805</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -8089,7 +8089,7 @@
         <v>2790</v>
       </c>
       <c r="C615">
-        <v>2615</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -8098,7 +8098,7 @@
         <v>45084</v>
       </c>
       <c r="B616">
-        <v>2735</v>
+        <v>2145</v>
       </c>
       <c r="C616">
         <v>2645</v>
@@ -8113,7 +8113,7 @@
         <v>2895</v>
       </c>
       <c r="C617">
-        <v>2980</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -8137,7 +8137,7 @@
         <v>2629</v>
       </c>
       <c r="C619">
-        <v>2645</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -8182,10 +8182,10 @@
         <v>45091</v>
       </c>
       <c r="B623">
-        <v>2720</v>
+        <v>2370</v>
       </c>
       <c r="C623">
-        <v>2845</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -8197,7 +8197,7 @@
         <v>2895</v>
       </c>
       <c r="C624">
-        <v>2900</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -8245,7 +8245,7 @@
         <v>2895</v>
       </c>
       <c r="C628">
-        <v>2820</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -8266,10 +8266,10 @@
         <v>45098</v>
       </c>
       <c r="B630">
-        <v>2860</v>
+        <v>2516</v>
       </c>
       <c r="C630">
-        <v>2735</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -8350,7 +8350,7 @@
         <v>45105</v>
       </c>
       <c r="B637">
-        <v>2890</v>
+        <v>2504</v>
       </c>
       <c r="C637">
         <v>3000</v>
@@ -8434,7 +8434,7 @@
         <v>45112</v>
       </c>
       <c r="B644">
-        <v>2655</v>
+        <v>2251</v>
       </c>
       <c r="C644">
         <v>2710</v>
@@ -8518,7 +8518,7 @@
         <v>45119</v>
       </c>
       <c r="B651">
-        <v>2630</v>
+        <v>2131</v>
       </c>
       <c r="C651">
         <v>2895</v>
@@ -8581,7 +8581,7 @@
         <v>2755</v>
       </c>
       <c r="C656">
-        <v>2985</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -8602,7 +8602,7 @@
         <v>45126</v>
       </c>
       <c r="B658">
-        <v>2890</v>
+        <v>2451</v>
       </c>
       <c r="C658">
         <v>2745</v>
@@ -8665,7 +8665,7 @@
         <v>2930</v>
       </c>
       <c r="C663">
-        <v>2840</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -8686,10 +8686,10 @@
         <v>45133</v>
       </c>
       <c r="B665">
-        <v>2545</v>
+        <v>2026</v>
       </c>
       <c r="C665">
-        <v>2710</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -8725,7 +8725,7 @@
         <v>2671</v>
       </c>
       <c r="C668">
-        <v>2620</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -8770,7 +8770,7 @@
         <v>45140</v>
       </c>
       <c r="B672">
-        <v>2700</v>
+        <v>2305</v>
       </c>
       <c r="C672">
         <v>2860</v>
@@ -8797,7 +8797,7 @@
         <v>2650</v>
       </c>
       <c r="C674">
-        <v>2740</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8845,7 +8845,7 @@
         <v>3280</v>
       </c>
       <c r="C678">
-        <v>2920</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8854,7 +8854,7 @@
         <v>45147</v>
       </c>
       <c r="B679">
-        <v>2745</v>
+        <v>2358</v>
       </c>
       <c r="C679">
         <v>2739</v>
@@ -8917,7 +8917,7 @@
         <v>2930</v>
       </c>
       <c r="C684">
-        <v>2745</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8938,7 +8938,7 @@
         <v>45154</v>
       </c>
       <c r="B686">
-        <v>2775</v>
+        <v>2439</v>
       </c>
       <c r="C686">
         <v>2625</v>
@@ -9001,7 +9001,7 @@
         <v>2930</v>
       </c>
       <c r="C691">
-        <v>3025</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -9022,7 +9022,7 @@
         <v>45161</v>
       </c>
       <c r="B693">
-        <v>2995</v>
+        <v>2589</v>
       </c>
       <c r="C693">
         <v>2865</v>
@@ -9061,7 +9061,7 @@
         <v>2573</v>
       </c>
       <c r="C696">
-        <v>3010</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -9106,7 +9106,7 @@
         <v>45168</v>
       </c>
       <c r="B700">
-        <v>2625</v>
+        <v>2227</v>
       </c>
       <c r="C700">
         <v>2405</v>
@@ -9190,7 +9190,7 @@
         <v>45175</v>
       </c>
       <c r="B707">
-        <v>2905</v>
+        <v>2536</v>
       </c>
       <c r="C707">
         <v>2726</v>
@@ -9241,7 +9241,7 @@
         <v>2846</v>
       </c>
       <c r="C711">
-        <v>2770</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -9274,7 +9274,7 @@
         <v>45182</v>
       </c>
       <c r="B714">
-        <v>2845</v>
+        <v>2450</v>
       </c>
       <c r="C714">
         <v>2890</v>
@@ -9301,7 +9301,7 @@
         <v>2860</v>
       </c>
       <c r="C716">
-        <v>2765</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -9358,10 +9358,10 @@
         <v>45189</v>
       </c>
       <c r="B721">
-        <v>2720</v>
+        <v>2397</v>
       </c>
       <c r="C721">
-        <v>3105</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -9397,7 +9397,7 @@
         <v>2804</v>
       </c>
       <c r="C724">
-        <v>2860</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -9409,7 +9409,7 @@
         <v>2839</v>
       </c>
       <c r="C725">
-        <v>2910</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -9421,7 +9421,7 @@
         <v>2685</v>
       </c>
       <c r="C726">
-        <v>2940</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -9442,7 +9442,7 @@
         <v>45196</v>
       </c>
       <c r="B728">
-        <v>2760</v>
+        <v>2241</v>
       </c>
       <c r="C728">
         <v>2745</v>
@@ -9481,7 +9481,7 @@
         <v>2489</v>
       </c>
       <c r="C731">
-        <v>2720</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -9505,7 +9505,7 @@
         <v>2930</v>
       </c>
       <c r="C733">
-        <v>2820</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -9517,7 +9517,7 @@
         <v>2650</v>
       </c>
       <c r="C734">
-        <v>2715</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -9526,7 +9526,7 @@
         <v>45203</v>
       </c>
       <c r="B735">
-        <v>2760</v>
+        <v>2397</v>
       </c>
       <c r="C735">
         <v>2810</v>
@@ -9610,7 +9610,7 @@
         <v>45210</v>
       </c>
       <c r="B742">
-        <v>2845</v>
+        <v>2275</v>
       </c>
       <c r="C742">
         <v>2875</v>
@@ -9625,7 +9625,7 @@
         <v>2475</v>
       </c>
       <c r="C743">
-        <v>2915</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -9694,7 +9694,7 @@
         <v>45217</v>
       </c>
       <c r="B749">
-        <v>2765</v>
+        <v>2251</v>
       </c>
       <c r="C749">
         <v>2429</v>
@@ -9709,7 +9709,7 @@
         <v>2720</v>
       </c>
       <c r="C750">
-        <v>2825</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -9778,7 +9778,7 @@
         <v>45224</v>
       </c>
       <c r="B756">
-        <v>2730</v>
+        <v>2270</v>
       </c>
       <c r="C756">
         <v>2765</v>
@@ -9862,7 +9862,7 @@
         <v>45231</v>
       </c>
       <c r="B763">
-        <v>2800</v>
+        <v>2408</v>
       </c>
       <c r="C763">
         <v>2621</v>
@@ -9946,7 +9946,7 @@
         <v>45238</v>
       </c>
       <c r="B770">
-        <v>2690</v>
+        <v>2093</v>
       </c>
       <c r="C770">
         <v>2825</v>
@@ -9985,7 +9985,7 @@
         <v>2874</v>
       </c>
       <c r="C773">
-        <v>2600</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>2692</v>
       </c>
       <c r="C774">
-        <v>2680</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -10009,7 +10009,7 @@
         <v>2825</v>
       </c>
       <c r="C775">
-        <v>2750</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -10030,7 +10030,7 @@
         <v>45245</v>
       </c>
       <c r="B777">
-        <v>2765</v>
+        <v>2207</v>
       </c>
       <c r="C777">
         <v>2518</v>
@@ -10105,7 +10105,7 @@
         <v>2720</v>
       </c>
       <c r="C783">
-        <v>2955</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -10114,7 +10114,7 @@
         <v>45252</v>
       </c>
       <c r="B784">
-        <v>2645</v>
+        <v>2272</v>
       </c>
       <c r="C784">
         <v>3020</v>
@@ -10165,7 +10165,7 @@
         <v>2811</v>
       </c>
       <c r="C788">
-        <v>3005</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -10177,7 +10177,7 @@
         <v>2790</v>
       </c>
       <c r="C789">
-        <v>2655</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -10198,7 +10198,7 @@
         <v>45259</v>
       </c>
       <c r="B791">
-        <v>2635</v>
+        <v>2052</v>
       </c>
       <c r="C791">
         <v>2810</v>
@@ -10282,10 +10282,10 @@
         <v>45266</v>
       </c>
       <c r="B798">
-        <v>2755</v>
+        <v>2180</v>
       </c>
       <c r="C798">
-        <v>2390</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -10345,7 +10345,7 @@
         <v>2860</v>
       </c>
       <c r="C803">
-        <v>2720</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -10366,7 +10366,7 @@
         <v>45273</v>
       </c>
       <c r="B805">
-        <v>2820</v>
+        <v>2236</v>
       </c>
       <c r="C805">
         <v>3025</v>
@@ -10441,7 +10441,7 @@
         <v>2755</v>
       </c>
       <c r="C811">
-        <v>2945</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -10450,7 +10450,7 @@
         <v>45280</v>
       </c>
       <c r="B812">
-        <v>2995</v>
+        <v>2455</v>
       </c>
       <c r="C812">
         <v>2845</v>
@@ -10534,7 +10534,7 @@
         <v>45287</v>
       </c>
       <c r="B819">
-        <v>2885</v>
+        <v>2292</v>
       </c>
       <c r="C819">
         <v>2371</v>
@@ -10618,10 +10618,10 @@
         <v>45294</v>
       </c>
       <c r="B826">
-        <v>2720</v>
+        <v>2363</v>
       </c>
       <c r="C826">
-        <v>2825</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -10702,7 +10702,7 @@
         <v>45301</v>
       </c>
       <c r="B833">
-        <v>2915</v>
+        <v>2474</v>
       </c>
       <c r="C833">
         <v>2940</v>
@@ -10786,7 +10786,7 @@
         <v>45308</v>
       </c>
       <c r="B840">
-        <v>2840</v>
+        <v>2419</v>
       </c>
       <c r="C840">
         <v>2955</v>
@@ -10813,7 +10813,7 @@
         <v>2825</v>
       </c>
       <c r="C842">
-        <v>2895</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -10825,7 +10825,7 @@
         <v>2566</v>
       </c>
       <c r="C843">
-        <v>2940</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -10870,7 +10870,7 @@
         <v>45315</v>
       </c>
       <c r="B847">
-        <v>2730</v>
+        <v>2238</v>
       </c>
       <c r="C847">
         <v>2376</v>
@@ -10933,7 +10933,7 @@
         <v>3000</v>
       </c>
       <c r="C852">
-        <v>2680</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -10954,7 +10954,7 @@
         <v>45322</v>
       </c>
       <c r="B854">
-        <v>2745</v>
+        <v>2212</v>
       </c>
       <c r="C854">
         <v>2638</v>
@@ -11038,7 +11038,7 @@
         <v>45329</v>
       </c>
       <c r="B861">
-        <v>2670</v>
+        <v>2227</v>
       </c>
       <c r="C861">
         <v>2415</v>
@@ -11077,7 +11077,7 @@
         <v>2461</v>
       </c>
       <c r="C864">
-        <v>2830</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -11113,7 +11113,7 @@
         <v>2825</v>
       </c>
       <c r="C867">
-        <v>2925</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -11122,10 +11122,10 @@
         <v>45336</v>
       </c>
       <c r="B868">
-        <v>2825</v>
+        <v>2259</v>
       </c>
       <c r="C868">
-        <v>2720</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -11149,7 +11149,7 @@
         <v>2685</v>
       </c>
       <c r="C870">
-        <v>2780</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -11206,10 +11206,10 @@
         <v>45343</v>
       </c>
       <c r="B875">
-        <v>2615</v>
+        <v>2228</v>
       </c>
       <c r="C875">
-        <v>2855</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -11290,7 +11290,7 @@
         <v>45350</v>
       </c>
       <c r="B882">
-        <v>3075</v>
+        <v>2522</v>
       </c>
       <c r="C882">
         <v>2980</v>
@@ -11374,10 +11374,10 @@
         <v>45357</v>
       </c>
       <c r="B889">
-        <v>2895</v>
+        <v>2549</v>
       </c>
       <c r="C889">
-        <v>2430</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -11437,7 +11437,7 @@
         <v>2755</v>
       </c>
       <c r="C894">
-        <v>2920</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -11458,7 +11458,7 @@
         <v>45364</v>
       </c>
       <c r="B896">
-        <v>2920</v>
+        <v>2429</v>
       </c>
       <c r="C896">
         <v>2679</v>
@@ -11485,7 +11485,7 @@
         <v>2720</v>
       </c>
       <c r="C898">
-        <v>2880</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -11542,10 +11542,10 @@
         <v>45371</v>
       </c>
       <c r="B903">
-        <v>2790</v>
+        <v>2222</v>
       </c>
       <c r="C903">
-        <v>2845</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -11557,7 +11557,7 @@
         <v>2895</v>
       </c>
       <c r="C904">
-        <v>3090</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -11581,7 +11581,7 @@
         <v>2839</v>
       </c>
       <c r="C906">
-        <v>2505</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -11626,7 +11626,7 @@
         <v>45378</v>
       </c>
       <c r="B910">
-        <v>2835</v>
+        <v>2321</v>
       </c>
       <c r="C910">
         <v>2334</v>
@@ -11689,7 +11689,7 @@
         <v>2860</v>
       </c>
       <c r="C915">
-        <v>2495</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -11701,7 +11701,7 @@
         <v>2720</v>
       </c>
       <c r="C916">
-        <v>2715</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -11710,7 +11710,7 @@
         <v>45385</v>
       </c>
       <c r="B917">
-        <v>2980</v>
+        <v>2407</v>
       </c>
       <c r="C917">
         <v>2955</v>
@@ -11725,7 +11725,7 @@
         <v>2755</v>
       </c>
       <c r="C918">
-        <v>2965</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -11761,7 +11761,7 @@
         <v>2482</v>
       </c>
       <c r="C921">
-        <v>2740</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -11794,7 +11794,7 @@
         <v>45392</v>
       </c>
       <c r="B924">
-        <v>2630</v>
+        <v>2079</v>
       </c>
       <c r="C924">
         <v>2830</v>
@@ -11833,7 +11833,7 @@
         <v>2636</v>
       </c>
       <c r="C927">
-        <v>2660</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -11878,7 +11878,7 @@
         <v>45399</v>
       </c>
       <c r="B931">
-        <v>3025</v>
+        <v>2603</v>
       </c>
       <c r="C931">
         <v>2816</v>
@@ -11893,7 +11893,7 @@
         <v>2545</v>
       </c>
       <c r="C932">
-        <v>2940</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -11962,7 +11962,7 @@
         <v>45406</v>
       </c>
       <c r="B938">
-        <v>2465</v>
+        <v>1877</v>
       </c>
       <c r="C938">
         <v>2643</v>
@@ -12037,7 +12037,7 @@
         <v>2720</v>
       </c>
       <c r="C944">
-        <v>2765</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -12046,7 +12046,7 @@
         <v>45413</v>
       </c>
       <c r="B945">
-        <v>2735</v>
+        <v>2293</v>
       </c>
       <c r="C945">
         <v>2835</v>
@@ -12130,10 +12130,10 @@
         <v>45420</v>
       </c>
       <c r="B952">
-        <v>2825</v>
+        <v>2503</v>
       </c>
       <c r="C952">
-        <v>2735</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -12214,7 +12214,7 @@
         <v>45427</v>
       </c>
       <c r="B959">
-        <v>2850</v>
+        <v>2545</v>
       </c>
       <c r="C959">
         <v>2832</v>
@@ -12298,7 +12298,7 @@
         <v>45434</v>
       </c>
       <c r="B966">
-        <v>2865</v>
+        <v>2319</v>
       </c>
       <c r="C966">
         <v>2800</v>
@@ -12382,7 +12382,7 @@
         <v>45441</v>
       </c>
       <c r="B973">
-        <v>2655</v>
+        <v>2296</v>
       </c>
       <c r="C973">
         <v>2550</v>
@@ -12466,7 +12466,7 @@
         <v>45448</v>
       </c>
       <c r="B980">
-        <v>2745</v>
+        <v>2407</v>
       </c>
       <c r="C980">
         <v>2647</v>
@@ -12505,7 +12505,7 @@
         <v>2622</v>
       </c>
       <c r="C983">
-        <v>2745</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -12529,7 +12529,7 @@
         <v>2755</v>
       </c>
       <c r="C985">
-        <v>2800</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -12550,10 +12550,10 @@
         <v>45455</v>
       </c>
       <c r="B987">
-        <v>2790</v>
+        <v>2270</v>
       </c>
       <c r="C987">
-        <v>3055</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -12613,7 +12613,7 @@
         <v>2720</v>
       </c>
       <c r="C992">
-        <v>3075</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -12634,7 +12634,7 @@
         <v>45462</v>
       </c>
       <c r="B994">
-        <v>2765</v>
+        <v>2450</v>
       </c>
       <c r="C994">
         <v>2359</v>
@@ -12661,7 +12661,7 @@
         <v>3210</v>
       </c>
       <c r="C996">
-        <v>2795</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -12718,7 +12718,7 @@
         <v>45469</v>
       </c>
       <c r="B1001">
-        <v>2810</v>
+        <v>2454</v>
       </c>
       <c r="C1001">
         <v>2895</v>

--- a/data/Sales_Forecast.xlsx
+++ b/data/Sales_Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA55A9E-D113-4CF0-B1AD-74541A54B5D7}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C16E4EB-C394-4486-BBC0-8D6EAD581A6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -733,7 +733,7 @@
         <v>2880</v>
       </c>
       <c r="C2">
-        <v>2860</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -778,7 +778,7 @@
         <v>44474</v>
       </c>
       <c r="B6">
-        <v>2760</v>
+        <v>2260</v>
       </c>
       <c r="C6">
         <v>2705</v>
@@ -817,7 +817,7 @@
         <v>2670</v>
       </c>
       <c r="C9">
-        <v>2970</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -862,10 +862,10 @@
         <v>44481</v>
       </c>
       <c r="B13">
-        <v>2635</v>
+        <v>2135</v>
       </c>
       <c r="C13">
-        <v>2990</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -877,7 +877,7 @@
         <v>2579</v>
       </c>
       <c r="C14">
-        <v>2955</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -937,7 +937,7 @@
         <v>2950</v>
       </c>
       <c r="C19">
-        <v>2910</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -946,7 +946,7 @@
         <v>44488</v>
       </c>
       <c r="B20">
-        <v>2630</v>
+        <v>2130</v>
       </c>
       <c r="C20">
         <v>2930</v>
@@ -1030,7 +1030,7 @@
         <v>44495</v>
       </c>
       <c r="B27">
-        <v>2785</v>
+        <v>2285</v>
       </c>
       <c r="C27">
         <v>2695</v>
@@ -1114,7 +1114,7 @@
         <v>44502</v>
       </c>
       <c r="B34">
-        <v>2765</v>
+        <v>2265</v>
       </c>
       <c r="C34">
         <v>2698</v>
@@ -1129,7 +1129,7 @@
         <v>2376</v>
       </c>
       <c r="C35">
-        <v>2820</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>2845</v>
       </c>
       <c r="C37">
-        <v>2750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>2502</v>
       </c>
       <c r="C39">
-        <v>3235</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>44509</v>
       </c>
       <c r="B41">
-        <v>2880</v>
+        <v>2380</v>
       </c>
       <c r="C41">
-        <v>3300</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>2327</v>
       </c>
       <c r="C42">
-        <v>2515</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1237,7 +1237,7 @@
         <v>2775</v>
       </c>
       <c r="C44">
-        <v>2465</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>44516</v>
       </c>
       <c r="B48">
-        <v>2435</v>
+        <v>1935</v>
       </c>
       <c r="C48">
         <v>2875</v>
@@ -1321,7 +1321,7 @@
         <v>2565</v>
       </c>
       <c r="C51">
-        <v>3110</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44523</v>
       </c>
       <c r="B55">
-        <v>2890</v>
+        <v>2390</v>
       </c>
       <c r="C55">
         <v>2770</v>
@@ -1393,7 +1393,7 @@
         <v>2600</v>
       </c>
       <c r="C57">
-        <v>2920</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>2565</v>
       </c>
       <c r="C59">
-        <v>2780</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>44530</v>
       </c>
       <c r="B62">
-        <v>2905</v>
+        <v>2405</v>
       </c>
       <c r="C62">
         <v>2664</v>
@@ -1525,7 +1525,7 @@
         <v>2950</v>
       </c>
       <c r="C68">
-        <v>2905</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44537</v>
       </c>
       <c r="B69">
-        <v>2660</v>
+        <v>2160</v>
       </c>
       <c r="C69">
         <v>2682</v>
@@ -1618,7 +1618,7 @@
         <v>44544</v>
       </c>
       <c r="B76">
-        <v>2725</v>
+        <v>2225</v>
       </c>
       <c r="C76">
         <v>2875</v>
@@ -1633,7 +1633,7 @@
         <v>2369</v>
       </c>
       <c r="C77">
-        <v>2790</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44551</v>
       </c>
       <c r="B83">
-        <v>2850</v>
+        <v>2350</v>
       </c>
       <c r="C83">
         <v>2729</v>
@@ -1717,7 +1717,7 @@
         <v>2124</v>
       </c>
       <c r="C84">
-        <v>2865</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>2810</v>
       </c>
       <c r="C86">
-        <v>2835</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>44558</v>
       </c>
       <c r="B90">
-        <v>2835</v>
+        <v>2335</v>
       </c>
       <c r="C90">
         <v>2527</v>
@@ -1870,7 +1870,7 @@
         <v>44565</v>
       </c>
       <c r="B97">
-        <v>2785</v>
+        <v>2285</v>
       </c>
       <c r="C97">
         <v>3010</v>
@@ -1933,7 +1933,7 @@
         <v>2782</v>
       </c>
       <c r="C102">
-        <v>2795</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>44572</v>
       </c>
       <c r="B104">
-        <v>2660</v>
+        <v>2160</v>
       </c>
       <c r="C104">
         <v>2532</v>
@@ -2029,7 +2029,7 @@
         <v>2600</v>
       </c>
       <c r="C110">
-        <v>2665</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44579</v>
       </c>
       <c r="B111">
-        <v>2735</v>
+        <v>2235</v>
       </c>
       <c r="C111">
         <v>2865</v>
@@ -2113,7 +2113,7 @@
         <v>3055</v>
       </c>
       <c r="C117">
-        <v>2815</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2122,7 +2122,7 @@
         <v>44586</v>
       </c>
       <c r="B118">
-        <v>3110</v>
+        <v>2610</v>
       </c>
       <c r="C118">
         <v>2790</v>
@@ -2185,7 +2185,7 @@
         <v>2712</v>
       </c>
       <c r="C123">
-        <v>2670</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>2880</v>
       </c>
       <c r="C124">
-        <v>2700</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44593</v>
       </c>
       <c r="B125">
-        <v>2855</v>
+        <v>2355</v>
       </c>
       <c r="C125">
         <v>2825</v>
@@ -2245,7 +2245,7 @@
         <v>2705</v>
       </c>
       <c r="C128">
-        <v>2955</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>2726</v>
       </c>
       <c r="C130">
-        <v>2815</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2290,10 +2290,10 @@
         <v>44600</v>
       </c>
       <c r="B132">
-        <v>2775</v>
+        <v>2275</v>
       </c>
       <c r="C132">
-        <v>2785</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44607</v>
       </c>
       <c r="B139">
-        <v>2905</v>
+        <v>2405</v>
       </c>
       <c r="C139">
         <v>2749</v>
@@ -2425,7 +2425,7 @@
         <v>2761</v>
       </c>
       <c r="C143">
-        <v>2805</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2458,7 +2458,7 @@
         <v>44614</v>
       </c>
       <c r="B146">
-        <v>2725</v>
+        <v>2225</v>
       </c>
       <c r="C146">
         <v>2735</v>
@@ -2521,7 +2521,7 @@
         <v>2460</v>
       </c>
       <c r="C151">
-        <v>2775</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44621</v>
       </c>
       <c r="B153">
-        <v>2745</v>
+        <v>2245</v>
       </c>
       <c r="C153">
         <v>2599</v>
@@ -2569,7 +2569,7 @@
         <v>2810</v>
       </c>
       <c r="C155">
-        <v>3135</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>2915</v>
       </c>
       <c r="C156">
-        <v>2905</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>2852</v>
       </c>
       <c r="C158">
-        <v>2720</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>44628</v>
       </c>
       <c r="B160">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="C160">
         <v>2493</v>
@@ -2677,7 +2677,7 @@
         <v>2810</v>
       </c>
       <c r="C164">
-        <v>2910</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>2502</v>
       </c>
       <c r="C165">
-        <v>2700</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44635</v>
       </c>
       <c r="B167">
-        <v>2780</v>
+        <v>2280</v>
       </c>
       <c r="C167">
         <v>2709</v>
@@ -2725,7 +2725,7 @@
         <v>1977</v>
       </c>
       <c r="C168">
-        <v>2482</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>2845</v>
       </c>
       <c r="C170">
-        <v>2750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2794,7 +2794,7 @@
         <v>44642</v>
       </c>
       <c r="B174">
-        <v>2755</v>
+        <v>2255</v>
       </c>
       <c r="C174">
         <v>2304</v>
@@ -2878,7 +2878,7 @@
         <v>44649</v>
       </c>
       <c r="B181">
-        <v>2690</v>
+        <v>2190</v>
       </c>
       <c r="C181">
         <v>2710</v>
@@ -2962,7 +2962,7 @@
         <v>44656</v>
       </c>
       <c r="B188">
-        <v>2765</v>
+        <v>2265</v>
       </c>
       <c r="C188">
         <v>2487</v>
@@ -3046,7 +3046,7 @@
         <v>44663</v>
       </c>
       <c r="B195">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="C195">
         <v>2780</v>
@@ -3061,7 +3061,7 @@
         <v>2397</v>
       </c>
       <c r="C196">
-        <v>2930</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>2740</v>
       </c>
       <c r="C200">
-        <v>2715</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>44670</v>
       </c>
       <c r="B202">
-        <v>2655</v>
+        <v>2155</v>
       </c>
       <c r="C202">
         <v>2715</v>
@@ -3145,7 +3145,7 @@
         <v>2341</v>
       </c>
       <c r="C203">
-        <v>2550</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>44677</v>
       </c>
       <c r="B209">
-        <v>2515</v>
+        <v>2015</v>
       </c>
       <c r="C209">
         <v>2635</v>
@@ -3229,7 +3229,7 @@
         <v>2341</v>
       </c>
       <c r="C210">
-        <v>3110</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3298,10 +3298,10 @@
         <v>44684</v>
       </c>
       <c r="B216">
-        <v>2705</v>
+        <v>2205</v>
       </c>
       <c r="C216">
-        <v>2615</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>3020</v>
       </c>
       <c r="C218">
-        <v>2620</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3349,7 +3349,7 @@
         <v>2523</v>
       </c>
       <c r="C220">
-        <v>2970</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3382,10 +3382,10 @@
         <v>44691</v>
       </c>
       <c r="B223">
-        <v>2880</v>
+        <v>2380</v>
       </c>
       <c r="C223">
-        <v>2910</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>44698</v>
       </c>
       <c r="B230">
-        <v>2865</v>
+        <v>2365</v>
       </c>
       <c r="C230">
         <v>2690</v>
@@ -3550,10 +3550,10 @@
         <v>44705</v>
       </c>
       <c r="B237">
-        <v>2705</v>
+        <v>2205</v>
       </c>
       <c r="C237">
-        <v>2815</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>44712</v>
       </c>
       <c r="B244">
-        <v>2945</v>
+        <v>2445</v>
       </c>
       <c r="C244">
         <v>2955</v>
@@ -3718,7 +3718,7 @@
         <v>44719</v>
       </c>
       <c r="B251">
-        <v>2690</v>
+        <v>2190</v>
       </c>
       <c r="C251">
         <v>2715</v>
@@ -3733,7 +3733,7 @@
         <v>2201</v>
       </c>
       <c r="C252">
-        <v>2775</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3781,7 +3781,7 @@
         <v>2810</v>
       </c>
       <c r="C256">
-        <v>2635</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3802,7 +3802,7 @@
         <v>44726</v>
       </c>
       <c r="B258">
-        <v>2690</v>
+        <v>2190</v>
       </c>
       <c r="C258">
         <v>2790</v>
@@ -3853,7 +3853,7 @@
         <v>2495</v>
       </c>
       <c r="C262">
-        <v>2785</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>44733</v>
       </c>
       <c r="B265">
-        <v>2905</v>
+        <v>2405</v>
       </c>
       <c r="C265">
         <v>2317</v>
@@ -3901,7 +3901,7 @@
         <v>2390</v>
       </c>
       <c r="C266">
-        <v>2795</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>2600</v>
       </c>
       <c r="C268">
-        <v>2940</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>2460</v>
       </c>
       <c r="C270">
-        <v>2750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>2670</v>
       </c>
       <c r="C271">
-        <v>2980</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3970,7 +3970,7 @@
         <v>44740</v>
       </c>
       <c r="B272">
-        <v>2960</v>
+        <v>2460</v>
       </c>
       <c r="C272">
         <v>3055</v>
@@ -4033,7 +4033,7 @@
         <v>2684</v>
       </c>
       <c r="C277">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4054,10 +4054,10 @@
         <v>44747</v>
       </c>
       <c r="B279">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="C279">
-        <v>2525</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>44754</v>
       </c>
       <c r="B286">
-        <v>2820</v>
+        <v>2320</v>
       </c>
       <c r="C286">
         <v>2945</v>
@@ -4222,7 +4222,7 @@
         <v>44761</v>
       </c>
       <c r="B293">
-        <v>2760</v>
+        <v>2260</v>
       </c>
       <c r="C293">
         <v>2675</v>
@@ -4306,7 +4306,7 @@
         <v>44768</v>
       </c>
       <c r="B300">
-        <v>2755</v>
+        <v>2255</v>
       </c>
       <c r="C300">
         <v>2328</v>
@@ -4345,7 +4345,7 @@
         <v>2845</v>
       </c>
       <c r="C303">
-        <v>2760</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>44775</v>
       </c>
       <c r="B307">
-        <v>2585</v>
+        <v>2085</v>
       </c>
       <c r="C307">
         <v>2945</v>
@@ -4429,7 +4429,7 @@
         <v>2670</v>
       </c>
       <c r="C310">
-        <v>2540</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4474,10 +4474,10 @@
         <v>44782</v>
       </c>
       <c r="B314">
-        <v>2880</v>
+        <v>2380</v>
       </c>
       <c r="C314">
-        <v>2885</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4558,7 +4558,7 @@
         <v>44789</v>
       </c>
       <c r="B321">
-        <v>2830</v>
+        <v>2330</v>
       </c>
       <c r="C321">
         <v>2890</v>
@@ -4633,7 +4633,7 @@
         <v>2985</v>
       </c>
       <c r="C327">
-        <v>2825</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4642,7 +4642,7 @@
         <v>44796</v>
       </c>
       <c r="B328">
-        <v>2990</v>
+        <v>2490</v>
       </c>
       <c r="C328">
         <v>2735</v>
@@ -4657,7 +4657,7 @@
         <v>2341</v>
       </c>
       <c r="C329">
-        <v>2209</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>2775</v>
       </c>
       <c r="C334">
-        <v>2840</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>44803</v>
       </c>
       <c r="B335">
-        <v>2595</v>
+        <v>2095</v>
       </c>
       <c r="C335">
         <v>2915</v>
@@ -4789,7 +4789,7 @@
         <v>2607</v>
       </c>
       <c r="C340">
-        <v>2680</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4810,10 +4810,10 @@
         <v>44810</v>
       </c>
       <c r="B342">
-        <v>2565</v>
+        <v>2065</v>
       </c>
       <c r="C342">
-        <v>2720</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4837,7 +4837,7 @@
         <v>2775</v>
       </c>
       <c r="C344">
-        <v>2835</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4861,7 +4861,7 @@
         <v>2355</v>
       </c>
       <c r="C346">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>44817</v>
       </c>
       <c r="B349">
-        <v>2635</v>
+        <v>2135</v>
       </c>
       <c r="C349">
-        <v>2570</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4978,7 +4978,7 @@
         <v>44824</v>
       </c>
       <c r="B356">
-        <v>2730</v>
+        <v>2230</v>
       </c>
       <c r="C356">
         <v>2539</v>
@@ -5029,7 +5029,7 @@
         <v>2677</v>
       </c>
       <c r="C360">
-        <v>2925</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5062,7 +5062,7 @@
         <v>44831</v>
       </c>
       <c r="B363">
-        <v>2660</v>
+        <v>2160</v>
       </c>
       <c r="C363">
         <v>2566</v>
@@ -5146,7 +5146,7 @@
         <v>44838</v>
       </c>
       <c r="B370">
-        <v>2645</v>
+        <v>2145</v>
       </c>
       <c r="C370">
         <v>2545</v>
@@ -5230,7 +5230,7 @@
         <v>44845</v>
       </c>
       <c r="B377">
-        <v>2885</v>
+        <v>2385</v>
       </c>
       <c r="C377">
         <v>2668</v>
@@ -5281,7 +5281,7 @@
         <v>2642</v>
       </c>
       <c r="C381">
-        <v>2740</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>44852</v>
       </c>
       <c r="B384">
-        <v>2575</v>
+        <v>2075</v>
       </c>
       <c r="C384">
         <v>3070</v>
@@ -5398,7 +5398,7 @@
         <v>44859</v>
       </c>
       <c r="B391">
-        <v>2940</v>
+        <v>2440</v>
       </c>
       <c r="C391">
         <v>2299</v>
@@ -5461,7 +5461,7 @@
         <v>2810</v>
       </c>
       <c r="C396">
-        <v>2790</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -5482,7 +5482,7 @@
         <v>44866</v>
       </c>
       <c r="B398">
-        <v>2685</v>
+        <v>2185</v>
       </c>
       <c r="C398">
         <v>2266</v>
@@ -5509,7 +5509,7 @@
         <v>2845</v>
       </c>
       <c r="C400">
-        <v>3110</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5566,7 +5566,7 @@
         <v>44873</v>
       </c>
       <c r="B405">
-        <v>2885</v>
+        <v>2385</v>
       </c>
       <c r="C405">
         <v>2625</v>
@@ -5581,7 +5581,7 @@
         <v>2439</v>
       </c>
       <c r="C406">
-        <v>2975</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5650,7 +5650,7 @@
         <v>44880</v>
       </c>
       <c r="B412">
-        <v>2725</v>
+        <v>2225</v>
       </c>
       <c r="C412">
         <v>2550</v>
@@ -5734,7 +5734,7 @@
         <v>44887</v>
       </c>
       <c r="B419">
-        <v>2510</v>
+        <v>2010</v>
       </c>
       <c r="C419">
         <v>2392</v>
@@ -5785,7 +5785,7 @@
         <v>2663</v>
       </c>
       <c r="C423">
-        <v>2950</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5818,7 +5818,7 @@
         <v>44894</v>
       </c>
       <c r="B426">
-        <v>2890</v>
+        <v>2390</v>
       </c>
       <c r="C426">
         <v>2710</v>
@@ -5833,7 +5833,7 @@
         <v>2355</v>
       </c>
       <c r="C427">
-        <v>2432</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5902,7 +5902,7 @@
         <v>44901</v>
       </c>
       <c r="B433">
-        <v>2735</v>
+        <v>2235</v>
       </c>
       <c r="C433">
         <v>2820</v>
@@ -5986,10 +5986,10 @@
         <v>44908</v>
       </c>
       <c r="B440">
-        <v>2845</v>
+        <v>2345</v>
       </c>
       <c r="C440">
-        <v>2885</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6013,7 +6013,7 @@
         <v>2810</v>
       </c>
       <c r="C442">
-        <v>2575</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6070,7 +6070,7 @@
         <v>44915</v>
       </c>
       <c r="B447">
-        <v>3005</v>
+        <v>2505</v>
       </c>
       <c r="C447">
         <v>2845</v>
@@ -6154,7 +6154,7 @@
         <v>44922</v>
       </c>
       <c r="B454">
-        <v>2730</v>
+        <v>2230</v>
       </c>
       <c r="C454">
         <v>2827</v>
@@ -6181,7 +6181,7 @@
         <v>2635</v>
       </c>
       <c r="C456">
-        <v>2795</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6238,10 +6238,10 @@
         <v>44929</v>
       </c>
       <c r="B461">
-        <v>2950</v>
+        <v>2450</v>
       </c>
       <c r="C461">
-        <v>2770</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6322,7 +6322,7 @@
         <v>44936</v>
       </c>
       <c r="B468">
-        <v>2860</v>
+        <v>2360</v>
       </c>
       <c r="C468">
         <v>2687</v>
@@ -6337,7 +6337,7 @@
         <v>2341</v>
       </c>
       <c r="C469">
-        <v>2447</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>2516</v>
       </c>
       <c r="C472">
-        <v>2995</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -6397,7 +6397,7 @@
         <v>2880</v>
       </c>
       <c r="C474">
-        <v>2810</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>44943</v>
       </c>
       <c r="B475">
-        <v>2780</v>
+        <v>2280</v>
       </c>
       <c r="C475">
         <v>2618</v>
@@ -6490,10 +6490,10 @@
         <v>44950</v>
       </c>
       <c r="B482">
-        <v>2810</v>
+        <v>2310</v>
       </c>
       <c r="C482">
-        <v>2940</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -6574,7 +6574,7 @@
         <v>44957</v>
       </c>
       <c r="B489">
-        <v>2605</v>
+        <v>2105</v>
       </c>
       <c r="C489">
         <v>2624</v>
@@ -6601,7 +6601,7 @@
         <v>2950</v>
       </c>
       <c r="C491">
-        <v>2915</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6658,10 +6658,10 @@
         <v>44964</v>
       </c>
       <c r="B496">
-        <v>2985</v>
+        <v>2485</v>
       </c>
       <c r="C496">
-        <v>2550</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6697,7 +6697,7 @@
         <v>2845</v>
       </c>
       <c r="C499">
-        <v>2790</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6742,7 +6742,7 @@
         <v>44971</v>
       </c>
       <c r="B503">
-        <v>2890</v>
+        <v>2390</v>
       </c>
       <c r="C503">
         <v>2720</v>
@@ -6826,7 +6826,7 @@
         <v>44978</v>
       </c>
       <c r="B510">
-        <v>2815</v>
+        <v>2315</v>
       </c>
       <c r="C510">
         <v>2718</v>
@@ -6910,7 +6910,7 @@
         <v>44985</v>
       </c>
       <c r="B517">
-        <v>2755</v>
+        <v>2255</v>
       </c>
       <c r="C517">
         <v>2543</v>
@@ -6994,7 +6994,7 @@
         <v>44992</v>
       </c>
       <c r="B524">
-        <v>3040</v>
+        <v>2540</v>
       </c>
       <c r="C524">
         <v>2595</v>
@@ -7078,10 +7078,10 @@
         <v>44999</v>
       </c>
       <c r="B531">
-        <v>2880</v>
+        <v>2380</v>
       </c>
       <c r="C531">
-        <v>2795</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -7153,7 +7153,7 @@
         <v>2845</v>
       </c>
       <c r="C537">
-        <v>2650</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -7162,10 +7162,10 @@
         <v>45006</v>
       </c>
       <c r="B538">
-        <v>2950</v>
+        <v>2450</v>
       </c>
       <c r="C538">
-        <v>2825</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>45013</v>
       </c>
       <c r="B545">
-        <v>2655</v>
+        <v>2155</v>
       </c>
       <c r="C545">
         <v>2870</v>
@@ -7321,7 +7321,7 @@
         <v>3020</v>
       </c>
       <c r="C551">
-        <v>2590</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -7330,7 +7330,7 @@
         <v>45020</v>
       </c>
       <c r="B552">
-        <v>2760</v>
+        <v>2260</v>
       </c>
       <c r="C552">
         <v>2685</v>
@@ -7345,7 +7345,7 @@
         <v>2334</v>
       </c>
       <c r="C553">
-        <v>2412</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -7414,7 +7414,7 @@
         <v>45027</v>
       </c>
       <c r="B559">
-        <v>3030</v>
+        <v>2530</v>
       </c>
       <c r="C559">
         <v>2810</v>
@@ -7477,7 +7477,7 @@
         <v>2866</v>
       </c>
       <c r="C564">
-        <v>2620</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -7498,7 +7498,7 @@
         <v>45034</v>
       </c>
       <c r="B566">
-        <v>2785</v>
+        <v>2285</v>
       </c>
       <c r="C566">
         <v>2710</v>
@@ -7561,7 +7561,7 @@
         <v>2523</v>
       </c>
       <c r="C571">
-        <v>2555</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -7582,10 +7582,10 @@
         <v>45041</v>
       </c>
       <c r="B573">
-        <v>2915</v>
+        <v>2415</v>
       </c>
       <c r="C573">
-        <v>2950</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -7666,7 +7666,7 @@
         <v>45048</v>
       </c>
       <c r="B580">
-        <v>2790</v>
+        <v>2290</v>
       </c>
       <c r="C580">
         <v>2320</v>
@@ -7741,7 +7741,7 @@
         <v>2845</v>
       </c>
       <c r="C586">
-        <v>2975</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7750,7 +7750,7 @@
         <v>45055</v>
       </c>
       <c r="B587">
-        <v>2790</v>
+        <v>2290</v>
       </c>
       <c r="C587">
         <v>2391</v>
@@ -7834,7 +7834,7 @@
         <v>45062</v>
       </c>
       <c r="B594">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="C594">
         <v>2940</v>
@@ -7918,7 +7918,7 @@
         <v>45069</v>
       </c>
       <c r="B601">
-        <v>2720</v>
+        <v>2220</v>
       </c>
       <c r="C601">
         <v>2233</v>
@@ -7981,7 +7981,7 @@
         <v>2348</v>
       </c>
       <c r="C606">
-        <v>2610</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -8002,7 +8002,7 @@
         <v>45076</v>
       </c>
       <c r="B608">
-        <v>2940</v>
+        <v>2440</v>
       </c>
       <c r="C608">
         <v>2847</v>
@@ -8041,7 +8041,7 @@
         <v>2740</v>
       </c>
       <c r="C611">
-        <v>2875</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -8086,7 +8086,7 @@
         <v>45083</v>
       </c>
       <c r="B615">
-        <v>2790</v>
+        <v>2290</v>
       </c>
       <c r="C615">
         <v>2126</v>
@@ -8101,7 +8101,7 @@
         <v>2145</v>
       </c>
       <c r="C616">
-        <v>2645</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -8170,7 +8170,7 @@
         <v>45090</v>
       </c>
       <c r="B622">
-        <v>2870</v>
+        <v>2370</v>
       </c>
       <c r="C622">
         <v>2705</v>
@@ -8254,7 +8254,7 @@
         <v>45097</v>
       </c>
       <c r="B629">
-        <v>2765</v>
+        <v>2265</v>
       </c>
       <c r="C629">
         <v>2932</v>
@@ -8269,7 +8269,7 @@
         <v>2516</v>
       </c>
       <c r="C630">
-        <v>2269</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -8338,7 +8338,7 @@
         <v>45104</v>
       </c>
       <c r="B636">
-        <v>3025</v>
+        <v>2525</v>
       </c>
       <c r="C636">
         <v>2911</v>
@@ -8377,7 +8377,7 @@
         <v>2880</v>
       </c>
       <c r="C639">
-        <v>2875</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -8401,7 +8401,7 @@
         <v>2411</v>
       </c>
       <c r="C641">
-        <v>2980</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -8422,7 +8422,7 @@
         <v>45111</v>
       </c>
       <c r="B643">
-        <v>2590</v>
+        <v>2090</v>
       </c>
       <c r="C643">
         <v>2586</v>
@@ -8497,7 +8497,7 @@
         <v>2670</v>
       </c>
       <c r="C649">
-        <v>3130</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>45118</v>
       </c>
       <c r="B650">
-        <v>2640</v>
+        <v>2140</v>
       </c>
       <c r="C650">
         <v>2727</v>
@@ -8521,7 +8521,7 @@
         <v>2131</v>
       </c>
       <c r="C651">
-        <v>2895</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -8533,7 +8533,7 @@
         <v>2740</v>
       </c>
       <c r="C652">
-        <v>3150</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -8557,7 +8557,7 @@
         <v>2649</v>
       </c>
       <c r="C654">
-        <v>2955</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -8590,7 +8590,7 @@
         <v>45125</v>
       </c>
       <c r="B657">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="C657">
         <v>2459</v>
@@ -8641,7 +8641,7 @@
         <v>2656</v>
       </c>
       <c r="C661">
-        <v>2900</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -8674,7 +8674,7 @@
         <v>45132</v>
       </c>
       <c r="B664">
-        <v>2890</v>
+        <v>2390</v>
       </c>
       <c r="C664">
         <v>2820</v>
@@ -8689,7 +8689,7 @@
         <v>2026</v>
       </c>
       <c r="C665">
-        <v>2273</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -8758,7 +8758,7 @@
         <v>45139</v>
       </c>
       <c r="B671">
-        <v>2865</v>
+        <v>2365</v>
       </c>
       <c r="C671">
         <v>2935</v>
@@ -8785,7 +8785,7 @@
         <v>2810</v>
       </c>
       <c r="C673">
-        <v>2970</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8809,7 +8809,7 @@
         <v>2558</v>
       </c>
       <c r="C675">
-        <v>2535</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8842,7 +8842,7 @@
         <v>45146</v>
       </c>
       <c r="B678">
-        <v>3280</v>
+        <v>2780</v>
       </c>
       <c r="C678">
         <v>2472</v>
@@ -8869,7 +8869,7 @@
         <v>2845</v>
       </c>
       <c r="C680">
-        <v>2715</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8926,10 +8926,10 @@
         <v>45153</v>
       </c>
       <c r="B685">
-        <v>2635</v>
+        <v>2135</v>
       </c>
       <c r="C685">
-        <v>2750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8941,7 +8941,7 @@
         <v>2439</v>
       </c>
       <c r="C686">
-        <v>2625</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8989,7 +8989,7 @@
         <v>2796</v>
       </c>
       <c r="C690">
-        <v>2785</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -9010,7 +9010,7 @@
         <v>45160</v>
       </c>
       <c r="B692">
-        <v>2995</v>
+        <v>2495</v>
       </c>
       <c r="C692">
         <v>2980</v>
@@ -9094,7 +9094,7 @@
         <v>45167</v>
       </c>
       <c r="B699">
-        <v>2820</v>
+        <v>2320</v>
       </c>
       <c r="C699">
         <v>3100</v>
@@ -9178,7 +9178,7 @@
         <v>45174</v>
       </c>
       <c r="B706">
-        <v>2830</v>
+        <v>2330</v>
       </c>
       <c r="C706">
         <v>2855</v>
@@ -9205,7 +9205,7 @@
         <v>2635</v>
       </c>
       <c r="C708">
-        <v>2835</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -9262,7 +9262,7 @@
         <v>45181</v>
       </c>
       <c r="B713">
-        <v>3040</v>
+        <v>2540</v>
       </c>
       <c r="C713">
         <v>2915</v>
@@ -9289,7 +9289,7 @@
         <v>2845</v>
       </c>
       <c r="C715">
-        <v>3080</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -9325,7 +9325,7 @@
         <v>2663</v>
       </c>
       <c r="C718">
-        <v>2915</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -9346,7 +9346,7 @@
         <v>45188</v>
       </c>
       <c r="B720">
-        <v>2675</v>
+        <v>2175</v>
       </c>
       <c r="C720">
         <v>2612</v>
@@ -9361,7 +9361,7 @@
         <v>2397</v>
       </c>
       <c r="C721">
-        <v>2605</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -9430,7 +9430,7 @@
         <v>45195</v>
       </c>
       <c r="B727">
-        <v>2585</v>
+        <v>2085</v>
       </c>
       <c r="C727">
         <v>2795</v>
@@ -9469,7 +9469,7 @@
         <v>2775</v>
       </c>
       <c r="C730">
-        <v>2590</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -9514,7 +9514,7 @@
         <v>45202</v>
       </c>
       <c r="B734">
-        <v>2650</v>
+        <v>2150</v>
       </c>
       <c r="C734">
         <v>2226</v>
@@ -9529,7 +9529,7 @@
         <v>2397</v>
       </c>
       <c r="C735">
-        <v>2810</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -9541,7 +9541,7 @@
         <v>2600</v>
       </c>
       <c r="C736">
-        <v>2895</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -9577,7 +9577,7 @@
         <v>2838</v>
       </c>
       <c r="C739">
-        <v>2685</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -9598,7 +9598,7 @@
         <v>45209</v>
       </c>
       <c r="B741">
-        <v>2905</v>
+        <v>2405</v>
       </c>
       <c r="C741">
         <v>2855</v>
@@ -9673,7 +9673,7 @@
         <v>2775</v>
       </c>
       <c r="C747">
-        <v>2640</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -9682,7 +9682,7 @@
         <v>45216</v>
       </c>
       <c r="B748">
-        <v>2715</v>
+        <v>2215</v>
       </c>
       <c r="C748">
         <v>2850</v>
@@ -9766,10 +9766,10 @@
         <v>45223</v>
       </c>
       <c r="B755">
-        <v>2915</v>
+        <v>2415</v>
       </c>
       <c r="C755">
-        <v>2830</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -9817,7 +9817,7 @@
         <v>2768</v>
       </c>
       <c r="C759">
-        <v>2625</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -9850,7 +9850,7 @@
         <v>45230</v>
       </c>
       <c r="B762">
-        <v>2815</v>
+        <v>2315</v>
       </c>
       <c r="C762">
         <v>2433</v>
@@ -9877,7 +9877,7 @@
         <v>2880</v>
       </c>
       <c r="C764">
-        <v>2690</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9889,7 +9889,7 @@
         <v>2845</v>
       </c>
       <c r="C765">
-        <v>2995</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9934,7 +9934,7 @@
         <v>45237</v>
       </c>
       <c r="B769">
-        <v>2840</v>
+        <v>2340</v>
       </c>
       <c r="C769">
         <v>2775</v>
@@ -10018,7 +10018,7 @@
         <v>45244</v>
       </c>
       <c r="B776">
-        <v>2415</v>
+        <v>1915</v>
       </c>
       <c r="C776">
         <v>2685</v>
@@ -10102,7 +10102,7 @@
         <v>45251</v>
       </c>
       <c r="B783">
-        <v>2720</v>
+        <v>2220</v>
       </c>
       <c r="C783">
         <v>2456</v>
@@ -10186,10 +10186,10 @@
         <v>45258</v>
       </c>
       <c r="B790">
-        <v>2915</v>
+        <v>2415</v>
       </c>
       <c r="C790">
-        <v>2810</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -10249,7 +10249,7 @@
         <v>2537</v>
       </c>
       <c r="C795">
-        <v>2615</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -10270,7 +10270,7 @@
         <v>45265</v>
       </c>
       <c r="B797">
-        <v>2680</v>
+        <v>2180</v>
       </c>
       <c r="C797">
         <v>2885</v>
@@ -10285,7 +10285,7 @@
         <v>2180</v>
       </c>
       <c r="C798">
-        <v>1892</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -10354,7 +10354,7 @@
         <v>45272</v>
       </c>
       <c r="B804">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="C804">
         <v>2757</v>
@@ -10369,7 +10369,7 @@
         <v>2236</v>
       </c>
       <c r="C805">
-        <v>3025</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -10381,7 +10381,7 @@
         <v>2635</v>
       </c>
       <c r="C806">
-        <v>2960</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -10438,7 +10438,7 @@
         <v>45279</v>
       </c>
       <c r="B811">
-        <v>2755</v>
+        <v>2255</v>
       </c>
       <c r="C811">
         <v>2449</v>
@@ -10465,7 +10465,7 @@
         <v>2740</v>
       </c>
       <c r="C813">
-        <v>2845</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -10522,7 +10522,7 @@
         <v>45286</v>
       </c>
       <c r="B818">
-        <v>2815</v>
+        <v>2315</v>
       </c>
       <c r="C818">
         <v>2767</v>
@@ -10537,7 +10537,7 @@
         <v>2292</v>
       </c>
       <c r="C819">
-        <v>2371</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -10606,10 +10606,10 @@
         <v>45293</v>
       </c>
       <c r="B825">
-        <v>2740</v>
+        <v>2240</v>
       </c>
       <c r="C825">
-        <v>2515</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -10645,7 +10645,7 @@
         <v>2845</v>
       </c>
       <c r="C828">
-        <v>2465</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -10690,7 +10690,7 @@
         <v>45300</v>
       </c>
       <c r="B832">
-        <v>2990</v>
+        <v>2490</v>
       </c>
       <c r="C832">
         <v>2870</v>
@@ -10705,7 +10705,7 @@
         <v>2474</v>
       </c>
       <c r="C833">
-        <v>2940</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -10717,7 +10717,7 @@
         <v>2775</v>
       </c>
       <c r="C834">
-        <v>2620</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -10729,7 +10729,7 @@
         <v>2670</v>
       </c>
       <c r="C835">
-        <v>2615</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -10741,7 +10741,7 @@
         <v>2635</v>
       </c>
       <c r="C836">
-        <v>2825</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -10774,7 +10774,7 @@
         <v>45307</v>
       </c>
       <c r="B839">
-        <v>2695</v>
+        <v>2195</v>
       </c>
       <c r="C839">
         <v>2850</v>
@@ -10837,7 +10837,7 @@
         <v>2691</v>
       </c>
       <c r="C844">
-        <v>2795</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -10858,7 +10858,7 @@
         <v>45314</v>
       </c>
       <c r="B846">
-        <v>2805</v>
+        <v>2305</v>
       </c>
       <c r="C846">
         <v>2855</v>
@@ -10942,7 +10942,7 @@
         <v>45321</v>
       </c>
       <c r="B853">
-        <v>2815</v>
+        <v>2315</v>
       </c>
       <c r="C853">
         <v>2512</v>
@@ -11026,7 +11026,7 @@
         <v>45328</v>
       </c>
       <c r="B860">
-        <v>2690</v>
+        <v>2190</v>
       </c>
       <c r="C860">
         <v>3075</v>
@@ -11110,7 +11110,7 @@
         <v>45335</v>
       </c>
       <c r="B867">
-        <v>2825</v>
+        <v>2325</v>
       </c>
       <c r="C867">
         <v>2461</v>
@@ -11137,7 +11137,7 @@
         <v>2880</v>
       </c>
       <c r="C869">
-        <v>2780</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -11173,7 +11173,7 @@
         <v>2460</v>
       </c>
       <c r="C872">
-        <v>2905</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -11194,7 +11194,7 @@
         <v>45342</v>
       </c>
       <c r="B874">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="C874">
         <v>2525</v>
@@ -11233,7 +11233,7 @@
         <v>2740</v>
       </c>
       <c r="C877">
-        <v>2635</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -11245,7 +11245,7 @@
         <v>2621</v>
       </c>
       <c r="C878">
-        <v>2710</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -11278,7 +11278,7 @@
         <v>45349</v>
       </c>
       <c r="B881">
-        <v>2905</v>
+        <v>2405</v>
       </c>
       <c r="C881">
         <v>2390</v>
@@ -11353,7 +11353,7 @@
         <v>2985</v>
       </c>
       <c r="C887">
-        <v>3165</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -11362,10 +11362,10 @@
         <v>45356</v>
       </c>
       <c r="B888">
-        <v>2810</v>
+        <v>2310</v>
       </c>
       <c r="C888">
-        <v>2880</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -11389,7 +11389,7 @@
         <v>2810</v>
       </c>
       <c r="C890">
-        <v>3030</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -11401,7 +11401,7 @@
         <v>2775</v>
       </c>
       <c r="C891">
-        <v>2875</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -11446,7 +11446,7 @@
         <v>45363</v>
       </c>
       <c r="B895">
-        <v>2815</v>
+        <v>2315</v>
       </c>
       <c r="C895">
         <v>2764</v>
@@ -11497,7 +11497,7 @@
         <v>2670</v>
       </c>
       <c r="C899">
-        <v>2875</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -11509,7 +11509,7 @@
         <v>2838</v>
       </c>
       <c r="C900">
-        <v>3045</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -11521,7 +11521,7 @@
         <v>2635</v>
       </c>
       <c r="C901">
-        <v>2685</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -11530,7 +11530,7 @@
         <v>45370</v>
       </c>
       <c r="B902">
-        <v>2655</v>
+        <v>2155</v>
       </c>
       <c r="C902">
         <v>2825</v>
@@ -11545,7 +11545,7 @@
         <v>2222</v>
       </c>
       <c r="C903">
-        <v>2426</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -11614,10 +11614,10 @@
         <v>45377</v>
       </c>
       <c r="B909">
-        <v>2740</v>
+        <v>2240</v>
       </c>
       <c r="C909">
-        <v>2645</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -11698,7 +11698,7 @@
         <v>45384</v>
       </c>
       <c r="B916">
-        <v>2720</v>
+        <v>2220</v>
       </c>
       <c r="C916">
         <v>2272</v>
@@ -11782,7 +11782,7 @@
         <v>45391</v>
       </c>
       <c r="B923">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="C923">
         <v>2780</v>
@@ -11866,10 +11866,10 @@
         <v>45398</v>
       </c>
       <c r="B930">
-        <v>2775</v>
+        <v>2275</v>
       </c>
       <c r="C930">
-        <v>2820</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -11950,7 +11950,7 @@
         <v>45405</v>
       </c>
       <c r="B937">
-        <v>2665</v>
+        <v>2165</v>
       </c>
       <c r="C937">
         <v>2635</v>
@@ -11977,7 +11977,7 @@
         <v>2810</v>
       </c>
       <c r="C939">
-        <v>3020</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -12001,7 +12001,7 @@
         <v>2635</v>
       </c>
       <c r="C941">
-        <v>2575</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -12034,7 +12034,7 @@
         <v>45412</v>
       </c>
       <c r="B944">
-        <v>2720</v>
+        <v>2220</v>
       </c>
       <c r="C944">
         <v>2358</v>
@@ -12061,7 +12061,7 @@
         <v>2880</v>
       </c>
       <c r="C946">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -12118,7 +12118,7 @@
         <v>45419</v>
       </c>
       <c r="B951">
-        <v>2870</v>
+        <v>2370</v>
       </c>
       <c r="C951">
         <v>2375</v>
@@ -12202,10 +12202,10 @@
         <v>45426</v>
       </c>
       <c r="B958">
-        <v>3020</v>
+        <v>2520</v>
       </c>
       <c r="C958">
-        <v>2725</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -12286,7 +12286,7 @@
         <v>45433</v>
       </c>
       <c r="B965">
-        <v>3085</v>
+        <v>2585</v>
       </c>
       <c r="C965">
         <v>2980</v>
@@ -12370,10 +12370,10 @@
         <v>45440</v>
       </c>
       <c r="B972">
-        <v>2775</v>
+        <v>2275</v>
       </c>
       <c r="C972">
-        <v>2665</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -12397,7 +12397,7 @@
         <v>2915</v>
       </c>
       <c r="C974">
-        <v>2740</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -12454,7 +12454,7 @@
         <v>45447</v>
       </c>
       <c r="B979">
-        <v>2835</v>
+        <v>2335</v>
       </c>
       <c r="C979">
         <v>2724</v>
@@ -12493,7 +12493,7 @@
         <v>2670</v>
       </c>
       <c r="C982">
-        <v>2630</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -12538,7 +12538,7 @@
         <v>45454</v>
       </c>
       <c r="B986">
-        <v>2645</v>
+        <v>2145</v>
       </c>
       <c r="C986">
         <v>2755</v>
@@ -12622,10 +12622,10 @@
         <v>45461</v>
       </c>
       <c r="B993">
-        <v>2915</v>
+        <v>2415</v>
       </c>
       <c r="C993">
-        <v>2535</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -12706,7 +12706,7 @@
         <v>45468</v>
       </c>
       <c r="B1000">
-        <v>2645</v>
+        <v>2145</v>
       </c>
       <c r="C1000">
         <v>2890</v>

--- a/data/Sales_Forecast.xlsx
+++ b/data/Sales_Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C16E4EB-C394-4486-BBC0-8D6EAD581A6C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{940E4FFE-B39B-444C-92DF-D650C4A66137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8FA338-4A55-49FA-BCD9-4ECA73B47AD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -742,7 +742,7 @@
         <v>44471</v>
       </c>
       <c r="B3">
-        <v>2581</v>
+        <v>1881</v>
       </c>
       <c r="C3">
         <v>2780</v>
@@ -826,7 +826,7 @@
         <v>44478</v>
       </c>
       <c r="B10">
-        <v>2753</v>
+        <v>2053</v>
       </c>
       <c r="C10">
         <v>2845</v>
@@ -841,7 +841,7 @@
         <v>2534</v>
       </c>
       <c r="C11">
-        <v>2829</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -865,7 +865,7 @@
         <v>2135</v>
       </c>
       <c r="C13">
-        <v>2490</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -910,7 +910,7 @@
         <v>44485</v>
       </c>
       <c r="B17">
-        <v>2739</v>
+        <v>2039</v>
       </c>
       <c r="C17">
         <v>2740</v>
@@ -985,7 +985,7 @@
         <v>2940</v>
       </c>
       <c r="C23">
-        <v>2301</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -994,7 +994,7 @@
         <v>44492</v>
       </c>
       <c r="B24">
-        <v>2784</v>
+        <v>2084</v>
       </c>
       <c r="C24">
         <v>2790</v>
@@ -1078,7 +1078,7 @@
         <v>44499</v>
       </c>
       <c r="B31">
-        <v>2483</v>
+        <v>1783</v>
       </c>
       <c r="C31">
         <v>2755</v>
@@ -1162,7 +1162,7 @@
         <v>44506</v>
       </c>
       <c r="B38">
-        <v>2687</v>
+        <v>1987</v>
       </c>
       <c r="C38">
         <v>2620</v>
@@ -1201,7 +1201,7 @@
         <v>2380</v>
       </c>
       <c r="C41">
-        <v>2800</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>44513</v>
       </c>
       <c r="B45">
-        <v>2532</v>
+        <v>1832</v>
       </c>
       <c r="C45">
         <v>2750</v>
@@ -1261,7 +1261,7 @@
         <v>2814</v>
       </c>
       <c r="C46">
-        <v>2423</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>44520</v>
       </c>
       <c r="B52">
-        <v>2329</v>
+        <v>1629</v>
       </c>
       <c r="C52">
         <v>3110</v>
@@ -1414,7 +1414,7 @@
         <v>44527</v>
       </c>
       <c r="B59">
-        <v>2565</v>
+        <v>1865</v>
       </c>
       <c r="C59">
         <v>2280</v>
@@ -1498,7 +1498,7 @@
         <v>44534</v>
       </c>
       <c r="B66">
-        <v>2493</v>
+        <v>1793</v>
       </c>
       <c r="C66">
         <v>2864</v>
@@ -1513,7 +1513,7 @@
         <v>2779</v>
       </c>
       <c r="C67">
-        <v>2600</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1573,7 +1573,7 @@
         <v>2940</v>
       </c>
       <c r="C72">
-        <v>2621</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>44541</v>
       </c>
       <c r="B73">
-        <v>2706</v>
+        <v>2006</v>
       </c>
       <c r="C73">
         <v>2030</v>
@@ -1597,7 +1597,7 @@
         <v>2702</v>
       </c>
       <c r="C74">
-        <v>2282</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>44548</v>
       </c>
       <c r="B80">
-        <v>2475</v>
+        <v>1775</v>
       </c>
       <c r="C80">
         <v>2190</v>
@@ -1750,7 +1750,7 @@
         <v>44555</v>
       </c>
       <c r="B87">
-        <v>2903</v>
+        <v>2203</v>
       </c>
       <c r="C87">
         <v>2585</v>
@@ -1834,7 +1834,7 @@
         <v>44562</v>
       </c>
       <c r="B94">
-        <v>2535</v>
+        <v>1835</v>
       </c>
       <c r="C94">
         <v>2397</v>
@@ -1918,7 +1918,7 @@
         <v>44569</v>
       </c>
       <c r="B101">
-        <v>2406</v>
+        <v>1706</v>
       </c>
       <c r="C101">
         <v>2785</v>
@@ -1969,7 +1969,7 @@
         <v>2387</v>
       </c>
       <c r="C105">
-        <v>2900</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>44576</v>
       </c>
       <c r="B108">
-        <v>2444</v>
+        <v>1744</v>
       </c>
       <c r="C108">
         <v>2227</v>
@@ -2086,7 +2086,7 @@
         <v>44583</v>
       </c>
       <c r="B115">
-        <v>2687</v>
+        <v>1987</v>
       </c>
       <c r="C115">
         <v>2730</v>
@@ -2101,7 +2101,7 @@
         <v>2989</v>
       </c>
       <c r="C116">
-        <v>2604</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>44590</v>
       </c>
       <c r="B122">
-        <v>2501</v>
+        <v>1801</v>
       </c>
       <c r="C122">
         <v>2540</v>
@@ -2233,7 +2233,7 @@
         <v>2800</v>
       </c>
       <c r="C127">
-        <v>2670</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>44597</v>
       </c>
       <c r="B129">
-        <v>2815</v>
+        <v>2115</v>
       </c>
       <c r="C129">
         <v>2572</v>
@@ -2293,7 +2293,7 @@
         <v>2275</v>
       </c>
       <c r="C132">
-        <v>2285</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2305,7 +2305,7 @@
         <v>2226</v>
       </c>
       <c r="C133">
-        <v>2810</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>2800</v>
       </c>
       <c r="C135">
-        <v>2604</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>44604</v>
       </c>
       <c r="B136">
-        <v>2718</v>
+        <v>2018</v>
       </c>
       <c r="C136">
         <v>2895</v>
@@ -2413,7 +2413,7 @@
         <v>2870</v>
       </c>
       <c r="C142">
-        <v>2700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>44611</v>
       </c>
       <c r="B143">
-        <v>2761</v>
+        <v>2061</v>
       </c>
       <c r="C143">
         <v>2305</v>
@@ -2506,7 +2506,7 @@
         <v>44618</v>
       </c>
       <c r="B150">
-        <v>2645</v>
+        <v>1945</v>
       </c>
       <c r="C150">
         <v>2690</v>
@@ -2590,7 +2590,7 @@
         <v>44625</v>
       </c>
       <c r="B157">
-        <v>2536</v>
+        <v>1836</v>
       </c>
       <c r="C157">
         <v>2885</v>
@@ -2653,7 +2653,7 @@
         <v>2800</v>
       </c>
       <c r="C162">
-        <v>2309</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>44632</v>
       </c>
       <c r="B164">
-        <v>2810</v>
+        <v>2110</v>
       </c>
       <c r="C164">
         <v>2410</v>
@@ -2758,10 +2758,10 @@
         <v>44639</v>
       </c>
       <c r="B171">
-        <v>2723</v>
+        <v>2023</v>
       </c>
       <c r="C171">
-        <v>2935</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>2331</v>
       </c>
       <c r="C175">
-        <v>2398</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>44646</v>
       </c>
       <c r="B178">
-        <v>2573</v>
+        <v>1873</v>
       </c>
       <c r="C178">
         <v>2212</v>
@@ -2905,7 +2905,7 @@
         <v>2730</v>
       </c>
       <c r="C183">
-        <v>2380</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>2800</v>
       </c>
       <c r="C184">
-        <v>2365</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>44653</v>
       </c>
       <c r="B185">
-        <v>2531</v>
+        <v>1831</v>
       </c>
       <c r="C185">
         <v>2380</v>
@@ -2953,7 +2953,7 @@
         <v>2870</v>
       </c>
       <c r="C187">
-        <v>2596</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2989,7 +2989,7 @@
         <v>2765</v>
       </c>
       <c r="C190">
-        <v>2941</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>44660</v>
       </c>
       <c r="B192">
-        <v>2581</v>
+        <v>1881</v>
       </c>
       <c r="C192">
         <v>2990</v>
@@ -3037,7 +3037,7 @@
         <v>2625</v>
       </c>
       <c r="C194">
-        <v>2563</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3085,7 +3085,7 @@
         <v>2765</v>
       </c>
       <c r="C198">
-        <v>2621</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3094,10 +3094,10 @@
         <v>44667</v>
       </c>
       <c r="B199">
-        <v>2569</v>
+        <v>1869</v>
       </c>
       <c r="C199">
-        <v>2751</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3178,7 +3178,7 @@
         <v>44674</v>
       </c>
       <c r="B206">
-        <v>2602</v>
+        <v>1902</v>
       </c>
       <c r="C206">
         <v>2810</v>
@@ -3205,7 +3205,7 @@
         <v>2730</v>
       </c>
       <c r="C208">
-        <v>2669</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>44681</v>
       </c>
       <c r="B213">
-        <v>2826</v>
+        <v>2126</v>
       </c>
       <c r="C213">
         <v>2885</v>
@@ -3301,7 +3301,7 @@
         <v>2205</v>
       </c>
       <c r="C216">
-        <v>2115</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>44688</v>
       </c>
       <c r="B220">
-        <v>2523</v>
+        <v>1823</v>
       </c>
       <c r="C220">
         <v>2470</v>
@@ -3385,7 +3385,7 @@
         <v>2380</v>
       </c>
       <c r="C223">
-        <v>2410</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>2835</v>
       </c>
       <c r="C225">
-        <v>2623</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3430,7 +3430,7 @@
         <v>44695</v>
       </c>
       <c r="B227">
-        <v>2710</v>
+        <v>2010</v>
       </c>
       <c r="C227">
         <v>2607</v>
@@ -3514,7 +3514,7 @@
         <v>44702</v>
       </c>
       <c r="B234">
-        <v>2724</v>
+        <v>2024</v>
       </c>
       <c r="C234">
         <v>2851</v>
@@ -3553,7 +3553,7 @@
         <v>2205</v>
       </c>
       <c r="C237">
-        <v>2315</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>44709</v>
       </c>
       <c r="B241">
-        <v>2853</v>
+        <v>2153</v>
       </c>
       <c r="C241">
         <v>2133</v>
@@ -3649,7 +3649,7 @@
         <v>2352</v>
       </c>
       <c r="C245">
-        <v>2645</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3682,7 +3682,7 @@
         <v>44716</v>
       </c>
       <c r="B248">
-        <v>2567</v>
+        <v>1867</v>
       </c>
       <c r="C248">
         <v>2740</v>
@@ -3697,7 +3697,7 @@
         <v>2702</v>
       </c>
       <c r="C249">
-        <v>2746</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>44723</v>
       </c>
       <c r="B255">
-        <v>2682</v>
+        <v>1982</v>
       </c>
       <c r="C255">
         <v>2666</v>
@@ -3817,7 +3817,7 @@
         <v>2016</v>
       </c>
       <c r="C259">
-        <v>2810</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>3045</v>
       </c>
       <c r="C261">
-        <v>2601</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>44730</v>
       </c>
       <c r="B262">
-        <v>2495</v>
+        <v>1795</v>
       </c>
       <c r="C262">
         <v>2285</v>
@@ -3865,7 +3865,7 @@
         <v>2849</v>
       </c>
       <c r="C263">
-        <v>2580</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3877,7 +3877,7 @@
         <v>2800</v>
       </c>
       <c r="C264">
-        <v>2360</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3934,7 +3934,7 @@
         <v>44737</v>
       </c>
       <c r="B269">
-        <v>2676</v>
+        <v>1976</v>
       </c>
       <c r="C269">
         <v>2660</v>
@@ -3997,7 +3997,7 @@
         <v>2800</v>
       </c>
       <c r="C274">
-        <v>2572</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>44744</v>
       </c>
       <c r="B276">
-        <v>2818</v>
+        <v>2118</v>
       </c>
       <c r="C276">
         <v>2494</v>
@@ -4057,7 +4057,7 @@
         <v>2100</v>
       </c>
       <c r="C279">
-        <v>2025</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4102,7 +4102,7 @@
         <v>44751</v>
       </c>
       <c r="B283">
-        <v>2594</v>
+        <v>1894</v>
       </c>
       <c r="C283">
         <v>2355</v>
@@ -4186,7 +4186,7 @@
         <v>44758</v>
       </c>
       <c r="B290">
-        <v>2729</v>
+        <v>2029</v>
       </c>
       <c r="C290">
         <v>2470</v>
@@ -4249,7 +4249,7 @@
         <v>2870</v>
       </c>
       <c r="C295">
-        <v>2730</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>44765</v>
       </c>
       <c r="B297">
-        <v>2749</v>
+        <v>2049</v>
       </c>
       <c r="C297">
         <v>2440</v>
@@ -4333,7 +4333,7 @@
         <v>2870</v>
       </c>
       <c r="C302">
-        <v>2676</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4354,7 +4354,7 @@
         <v>44772</v>
       </c>
       <c r="B304">
-        <v>2792</v>
+        <v>2092</v>
       </c>
       <c r="C304">
         <v>2720</v>
@@ -4438,7 +4438,7 @@
         <v>44779</v>
       </c>
       <c r="B311">
-        <v>2409</v>
+        <v>1709</v>
       </c>
       <c r="C311">
         <v>2632</v>
@@ -4477,7 +4477,7 @@
         <v>2380</v>
       </c>
       <c r="C314">
-        <v>2385</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>44786</v>
       </c>
       <c r="B318">
-        <v>2679</v>
+        <v>1979</v>
       </c>
       <c r="C318">
         <v>2465</v>
@@ -4573,7 +4573,7 @@
         <v>2359</v>
       </c>
       <c r="C322">
-        <v>2630</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4606,10 +4606,10 @@
         <v>44793</v>
       </c>
       <c r="B325">
-        <v>2632</v>
+        <v>1932</v>
       </c>
       <c r="C325">
-        <v>2905</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>2681</v>
       </c>
       <c r="C326">
-        <v>2699</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4690,7 +4690,7 @@
         <v>44800</v>
       </c>
       <c r="B332">
-        <v>2489</v>
+        <v>1789</v>
       </c>
       <c r="C332">
         <v>2355</v>
@@ -4774,7 +4774,7 @@
         <v>44807</v>
       </c>
       <c r="B339">
-        <v>2760</v>
+        <v>2060</v>
       </c>
       <c r="C339">
         <v>2755</v>
@@ -4813,7 +4813,7 @@
         <v>2065</v>
       </c>
       <c r="C342">
-        <v>2220</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>2121</v>
       </c>
       <c r="C343">
-        <v>2549</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>3010</v>
       </c>
       <c r="C345">
-        <v>2565</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>44814</v>
       </c>
       <c r="B346">
-        <v>2355</v>
+        <v>1655</v>
       </c>
       <c r="C346">
         <v>2500</v>
@@ -4897,7 +4897,7 @@
         <v>2135</v>
       </c>
       <c r="C349">
-        <v>2070</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4942,7 +4942,7 @@
         <v>44821</v>
       </c>
       <c r="B353">
-        <v>2784</v>
+        <v>2084</v>
       </c>
       <c r="C353">
         <v>2535</v>
@@ -4993,7 +4993,7 @@
         <v>2520</v>
       </c>
       <c r="C357">
-        <v>2895</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5026,7 +5026,7 @@
         <v>44828</v>
       </c>
       <c r="B360">
-        <v>2677</v>
+        <v>1977</v>
       </c>
       <c r="C360">
         <v>2425</v>
@@ -5101,7 +5101,7 @@
         <v>2835</v>
       </c>
       <c r="C366">
-        <v>2619</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5110,10 +5110,10 @@
         <v>44835</v>
       </c>
       <c r="B367">
-        <v>2534</v>
+        <v>1834</v>
       </c>
       <c r="C367">
-        <v>2356</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>2870</v>
       </c>
       <c r="C372">
-        <v>3027</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5194,7 +5194,7 @@
         <v>44842</v>
       </c>
       <c r="B374">
-        <v>2545</v>
+        <v>1845</v>
       </c>
       <c r="C374">
         <v>2163</v>
@@ -5278,7 +5278,7 @@
         <v>44849</v>
       </c>
       <c r="B381">
-        <v>2642</v>
+        <v>1942</v>
       </c>
       <c r="C381">
         <v>2240</v>
@@ -5362,10 +5362,10 @@
         <v>44856</v>
       </c>
       <c r="B388">
-        <v>2562</v>
+        <v>1862</v>
       </c>
       <c r="C388">
-        <v>2600</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>2975</v>
       </c>
       <c r="C394">
-        <v>2701</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>44863</v>
       </c>
       <c r="B395">
-        <v>2668</v>
+        <v>1968</v>
       </c>
       <c r="C395">
         <v>2647</v>
@@ -5473,7 +5473,7 @@
         <v>2625</v>
       </c>
       <c r="C397">
-        <v>2545</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -5521,7 +5521,7 @@
         <v>2730</v>
       </c>
       <c r="C401">
-        <v>2608</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5530,10 +5530,10 @@
         <v>44870</v>
       </c>
       <c r="B402">
-        <v>2625</v>
+        <v>1925</v>
       </c>
       <c r="C402">
-        <v>2634</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>2835</v>
       </c>
       <c r="C403">
-        <v>2466</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5557,7 +5557,7 @@
         <v>2800</v>
       </c>
       <c r="C404">
-        <v>2687</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>44877</v>
       </c>
       <c r="B409">
-        <v>2571</v>
+        <v>1871</v>
       </c>
       <c r="C409">
         <v>3080</v>
@@ -5698,10 +5698,10 @@
         <v>44884</v>
       </c>
       <c r="B416">
-        <v>2646</v>
+        <v>1946</v>
       </c>
       <c r="C416">
-        <v>2341</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>2786</v>
       </c>
       <c r="C417">
-        <v>2834</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5782,7 +5782,7 @@
         <v>44891</v>
       </c>
       <c r="B423">
-        <v>2663</v>
+        <v>1963</v>
       </c>
       <c r="C423">
         <v>2450</v>
@@ -5809,7 +5809,7 @@
         <v>2870</v>
       </c>
       <c r="C425">
-        <v>2571</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5857,7 +5857,7 @@
         <v>2905</v>
       </c>
       <c r="C429">
-        <v>2685</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5866,10 +5866,10 @@
         <v>44898</v>
       </c>
       <c r="B430">
-        <v>2604</v>
+        <v>1904</v>
       </c>
       <c r="C430">
-        <v>2442</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5893,7 +5893,7 @@
         <v>2695</v>
       </c>
       <c r="C432">
-        <v>2696</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5950,7 +5950,7 @@
         <v>44905</v>
       </c>
       <c r="B437">
-        <v>2528</v>
+        <v>1828</v>
       </c>
       <c r="C437">
         <v>2791</v>
@@ -5989,7 +5989,7 @@
         <v>2345</v>
       </c>
       <c r="C440">
-        <v>2385</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>2191</v>
       </c>
       <c r="C441">
-        <v>2835</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>44912</v>
       </c>
       <c r="B444">
-        <v>2538</v>
+        <v>1838</v>
       </c>
       <c r="C444">
         <v>2413</v>
@@ -6109,7 +6109,7 @@
         <v>2835</v>
       </c>
       <c r="C450">
-        <v>2812</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6118,7 +6118,7 @@
         <v>44919</v>
       </c>
       <c r="B451">
-        <v>2745</v>
+        <v>2045</v>
       </c>
       <c r="C451">
         <v>2618</v>
@@ -6202,10 +6202,10 @@
         <v>44926</v>
       </c>
       <c r="B458">
-        <v>2695</v>
+        <v>1995</v>
       </c>
       <c r="C458">
-        <v>2705</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>3080</v>
       </c>
       <c r="C460">
-        <v>2689</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>2450</v>
       </c>
       <c r="C461">
-        <v>2270</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6286,10 +6286,10 @@
         <v>44933</v>
       </c>
       <c r="B465">
-        <v>2681</v>
+        <v>1981</v>
       </c>
       <c r="C465">
-        <v>2646</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -6370,7 +6370,7 @@
         <v>44940</v>
       </c>
       <c r="B472">
-        <v>2516</v>
+        <v>1816</v>
       </c>
       <c r="C472">
         <v>2495</v>
@@ -6445,7 +6445,7 @@
         <v>2870</v>
       </c>
       <c r="C478">
-        <v>2699</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -6454,7 +6454,7 @@
         <v>44947</v>
       </c>
       <c r="B479">
-        <v>2514</v>
+        <v>1814</v>
       </c>
       <c r="C479">
         <v>2407</v>
@@ -6493,7 +6493,7 @@
         <v>2310</v>
       </c>
       <c r="C482">
-        <v>2440</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -6538,7 +6538,7 @@
         <v>44954</v>
       </c>
       <c r="B486">
-        <v>2755</v>
+        <v>2055</v>
       </c>
       <c r="C486">
         <v>2211</v>
@@ -6589,7 +6589,7 @@
         <v>2450</v>
       </c>
       <c r="C490">
-        <v>2375</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>44961</v>
       </c>
       <c r="B493">
-        <v>2415</v>
+        <v>1715</v>
       </c>
       <c r="C493">
-        <v>2513</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6661,7 +6661,7 @@
         <v>2485</v>
       </c>
       <c r="C496">
-        <v>2050</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6706,7 +6706,7 @@
         <v>44968</v>
       </c>
       <c r="B500">
-        <v>2514</v>
+        <v>1814</v>
       </c>
       <c r="C500">
         <v>2733</v>
@@ -6733,7 +6733,7 @@
         <v>2695</v>
       </c>
       <c r="C502">
-        <v>2677</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6790,7 +6790,7 @@
         <v>44975</v>
       </c>
       <c r="B507">
-        <v>2818</v>
+        <v>2118</v>
       </c>
       <c r="C507">
         <v>2705</v>
@@ -6874,7 +6874,7 @@
         <v>44982</v>
       </c>
       <c r="B514">
-        <v>2871</v>
+        <v>2171</v>
       </c>
       <c r="C514">
         <v>2530</v>
@@ -6937,7 +6937,7 @@
         <v>3115</v>
       </c>
       <c r="C519">
-        <v>2540</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6958,7 +6958,7 @@
         <v>44989</v>
       </c>
       <c r="B521">
-        <v>2435</v>
+        <v>1735</v>
       </c>
       <c r="C521">
         <v>2705</v>
@@ -7021,7 +7021,7 @@
         <v>2695</v>
       </c>
       <c r="C526">
-        <v>2405</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7042,7 +7042,7 @@
         <v>44996</v>
       </c>
       <c r="B528">
-        <v>2963</v>
+        <v>2263</v>
       </c>
       <c r="C528">
         <v>2910</v>
@@ -7081,7 +7081,7 @@
         <v>2380</v>
       </c>
       <c r="C531">
-        <v>2295</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -7117,7 +7117,7 @@
         <v>2765</v>
       </c>
       <c r="C534">
-        <v>2491</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -7126,10 +7126,10 @@
         <v>45003</v>
       </c>
       <c r="B535">
-        <v>2548</v>
+        <v>1848</v>
       </c>
       <c r="C535">
-        <v>2505</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -7165,7 +7165,7 @@
         <v>2450</v>
       </c>
       <c r="C538">
-        <v>2325</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -7177,7 +7177,7 @@
         <v>2415</v>
       </c>
       <c r="C539">
-        <v>2054</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -7189,7 +7189,7 @@
         <v>2765</v>
       </c>
       <c r="C540">
-        <v>2562</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -7210,7 +7210,7 @@
         <v>45010</v>
       </c>
       <c r="B542">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C542">
         <v>3000</v>
@@ -7261,7 +7261,7 @@
         <v>2191</v>
       </c>
       <c r="C546">
-        <v>2780</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -7294,7 +7294,7 @@
         <v>45017</v>
       </c>
       <c r="B549">
-        <v>2762</v>
+        <v>2062</v>
       </c>
       <c r="C549">
         <v>2271</v>
@@ -7369,7 +7369,7 @@
         <v>2870</v>
       </c>
       <c r="C555">
-        <v>2761</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>45024</v>
       </c>
       <c r="B556">
-        <v>2610</v>
+        <v>1910</v>
       </c>
       <c r="C556">
         <v>2920</v>
@@ -7462,7 +7462,7 @@
         <v>45031</v>
       </c>
       <c r="B563">
-        <v>2431</v>
+        <v>1731</v>
       </c>
       <c r="C563">
         <v>2930</v>
@@ -7546,7 +7546,7 @@
         <v>45038</v>
       </c>
       <c r="B570">
-        <v>2440</v>
+        <v>1740</v>
       </c>
       <c r="C570">
         <v>2395</v>
@@ -7585,7 +7585,7 @@
         <v>2415</v>
       </c>
       <c r="C573">
-        <v>2450</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -7630,7 +7630,7 @@
         <v>45045</v>
       </c>
       <c r="B577">
-        <v>2619</v>
+        <v>1919</v>
       </c>
       <c r="C577">
         <v>2502</v>
@@ -7714,7 +7714,7 @@
         <v>45052</v>
       </c>
       <c r="B584">
-        <v>2507</v>
+        <v>1807</v>
       </c>
       <c r="C584">
         <v>2462</v>
@@ -7798,7 +7798,7 @@
         <v>45059</v>
       </c>
       <c r="B591">
-        <v>2651</v>
+        <v>1951</v>
       </c>
       <c r="C591">
         <v>3065</v>
@@ -7861,7 +7861,7 @@
         <v>2730</v>
       </c>
       <c r="C596">
-        <v>2822</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7882,7 +7882,7 @@
         <v>45066</v>
       </c>
       <c r="B598">
-        <v>2798</v>
+        <v>2098</v>
       </c>
       <c r="C598">
         <v>2620</v>
@@ -7966,7 +7966,7 @@
         <v>45073</v>
       </c>
       <c r="B605">
-        <v>2680</v>
+        <v>1980</v>
       </c>
       <c r="C605">
         <v>2830</v>
@@ -7993,7 +7993,7 @@
         <v>2835</v>
       </c>
       <c r="C607">
-        <v>2692</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -8050,7 +8050,7 @@
         <v>45080</v>
       </c>
       <c r="B612">
-        <v>2767</v>
+        <v>2067</v>
       </c>
       <c r="C612">
         <v>3045</v>
@@ -8077,7 +8077,7 @@
         <v>2905</v>
       </c>
       <c r="C614">
-        <v>2653</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -8134,7 +8134,7 @@
         <v>45087</v>
       </c>
       <c r="B619">
-        <v>2629</v>
+        <v>1929</v>
       </c>
       <c r="C619">
         <v>2157</v>
@@ -8218,7 +8218,7 @@
         <v>45094</v>
       </c>
       <c r="B626">
-        <v>2689</v>
+        <v>1989</v>
       </c>
       <c r="C626">
         <v>2982</v>
@@ -8293,7 +8293,7 @@
         <v>2625</v>
       </c>
       <c r="C632">
-        <v>2554</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -8302,7 +8302,7 @@
         <v>45101</v>
       </c>
       <c r="B633">
-        <v>2532</v>
+        <v>1832</v>
       </c>
       <c r="C633">
         <v>2665</v>
@@ -8317,7 +8317,7 @@
         <v>2786</v>
       </c>
       <c r="C634">
-        <v>2419</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -8386,10 +8386,10 @@
         <v>45108</v>
       </c>
       <c r="B640">
-        <v>2772</v>
+        <v>2072</v>
       </c>
       <c r="C640">
-        <v>2663</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -8470,7 +8470,7 @@
         <v>45115</v>
       </c>
       <c r="B647">
-        <v>2995</v>
+        <v>2295</v>
       </c>
       <c r="C647">
         <v>2925</v>
@@ -8554,7 +8554,7 @@
         <v>45122</v>
       </c>
       <c r="B654">
-        <v>2649</v>
+        <v>1949</v>
       </c>
       <c r="C654">
         <v>2455</v>
@@ -8638,7 +8638,7 @@
         <v>45129</v>
       </c>
       <c r="B661">
-        <v>2656</v>
+        <v>1956</v>
       </c>
       <c r="C661">
         <v>2400</v>
@@ -8713,7 +8713,7 @@
         <v>2800</v>
       </c>
       <c r="C667">
-        <v>2733</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -8722,7 +8722,7 @@
         <v>45136</v>
       </c>
       <c r="B668">
-        <v>2671</v>
+        <v>1971</v>
       </c>
       <c r="C668">
         <v>2152</v>
@@ -8749,7 +8749,7 @@
         <v>2800</v>
       </c>
       <c r="C670">
-        <v>2514</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -8806,7 +8806,7 @@
         <v>45143</v>
       </c>
       <c r="B675">
-        <v>2558</v>
+        <v>1858</v>
       </c>
       <c r="C675">
         <v>2035</v>
@@ -8821,7 +8821,7 @@
         <v>2408</v>
       </c>
       <c r="C676">
-        <v>2697</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8890,7 +8890,7 @@
         <v>45150</v>
       </c>
       <c r="B682">
-        <v>2686</v>
+        <v>1986</v>
       </c>
       <c r="C682">
         <v>2805</v>
@@ -8905,7 +8905,7 @@
         <v>2681</v>
       </c>
       <c r="C683">
-        <v>2825</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8929,7 +8929,7 @@
         <v>2135</v>
       </c>
       <c r="C685">
-        <v>2250</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8953,7 +8953,7 @@
         <v>2800</v>
       </c>
       <c r="C687">
-        <v>2717</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8974,7 +8974,7 @@
         <v>45157</v>
       </c>
       <c r="B689">
-        <v>2843</v>
+        <v>2143</v>
       </c>
       <c r="C689">
         <v>2590</v>
@@ -9037,7 +9037,7 @@
         <v>2940</v>
       </c>
       <c r="C694">
-        <v>2792</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -9049,7 +9049,7 @@
         <v>2835</v>
       </c>
       <c r="C695">
-        <v>2676</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -9058,7 +9058,7 @@
         <v>45164</v>
       </c>
       <c r="B696">
-        <v>2573</v>
+        <v>1873</v>
       </c>
       <c r="C696">
         <v>2522</v>
@@ -9073,7 +9073,7 @@
         <v>2632</v>
       </c>
       <c r="C697">
-        <v>2466</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -9142,10 +9142,10 @@
         <v>45171</v>
       </c>
       <c r="B703">
-        <v>2464</v>
+        <v>1764</v>
       </c>
       <c r="C703">
-        <v>2665</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -9157,7 +9157,7 @@
         <v>2541</v>
       </c>
       <c r="C704">
-        <v>2451</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -9226,7 +9226,7 @@
         <v>45178</v>
       </c>
       <c r="B710">
-        <v>2409</v>
+        <v>1709</v>
       </c>
       <c r="C710">
         <v>2631</v>
@@ -9277,7 +9277,7 @@
         <v>2450</v>
       </c>
       <c r="C714">
-        <v>2890</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -9310,7 +9310,7 @@
         <v>45185</v>
       </c>
       <c r="B717">
-        <v>2728</v>
+        <v>2028</v>
       </c>
       <c r="C717">
         <v>2975</v>
@@ -9394,7 +9394,7 @@
         <v>45192</v>
       </c>
       <c r="B724">
-        <v>2804</v>
+        <v>2104</v>
       </c>
       <c r="C724">
         <v>2433</v>
@@ -9457,7 +9457,7 @@
         <v>3150</v>
       </c>
       <c r="C729">
-        <v>2562</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -9478,7 +9478,7 @@
         <v>45199</v>
       </c>
       <c r="B731">
-        <v>2489</v>
+        <v>1789</v>
       </c>
       <c r="C731">
         <v>2264</v>
@@ -9553,7 +9553,7 @@
         <v>2835</v>
       </c>
       <c r="C737">
-        <v>2266</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -9562,7 +9562,7 @@
         <v>45206</v>
       </c>
       <c r="B738">
-        <v>2655</v>
+        <v>1955</v>
       </c>
       <c r="C738">
         <v>2775</v>
@@ -9613,7 +9613,7 @@
         <v>2275</v>
       </c>
       <c r="C742">
-        <v>2875</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -9646,7 +9646,7 @@
         <v>45213</v>
       </c>
       <c r="B745">
-        <v>2680</v>
+        <v>1980</v>
       </c>
       <c r="C745">
         <v>2725</v>
@@ -9730,7 +9730,7 @@
         <v>45220</v>
       </c>
       <c r="B752">
-        <v>2595</v>
+        <v>1895</v>
       </c>
       <c r="C752">
         <v>2690</v>
@@ -9769,7 +9769,7 @@
         <v>2415</v>
       </c>
       <c r="C755">
-        <v>2330</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -9805,7 +9805,7 @@
         <v>2800</v>
       </c>
       <c r="C758">
-        <v>2536</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -9814,7 +9814,7 @@
         <v>45227</v>
       </c>
       <c r="B759">
-        <v>2768</v>
+        <v>2068</v>
       </c>
       <c r="C759">
         <v>2125</v>
@@ -9865,7 +9865,7 @@
         <v>2408</v>
       </c>
       <c r="C763">
-        <v>2621</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9898,7 +9898,7 @@
         <v>45234</v>
       </c>
       <c r="B766">
-        <v>2732</v>
+        <v>2032</v>
       </c>
       <c r="C766">
         <v>2895</v>
@@ -9913,7 +9913,7 @@
         <v>2716</v>
       </c>
       <c r="C767">
-        <v>2230</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9949,7 +9949,7 @@
         <v>2093</v>
       </c>
       <c r="C770">
-        <v>2825</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9982,7 +9982,7 @@
         <v>45241</v>
       </c>
       <c r="B773">
-        <v>2874</v>
+        <v>2174</v>
       </c>
       <c r="C773">
         <v>2141</v>
@@ -10066,7 +10066,7 @@
         <v>45248</v>
       </c>
       <c r="B780">
-        <v>2462</v>
+        <v>1762</v>
       </c>
       <c r="C780">
         <v>2805</v>
@@ -10129,7 +10129,7 @@
         <v>2730</v>
       </c>
       <c r="C785">
-        <v>2722</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -10150,7 +10150,7 @@
         <v>45255</v>
       </c>
       <c r="B787">
-        <v>2658</v>
+        <v>1958</v>
       </c>
       <c r="C787">
         <v>2825</v>
@@ -10189,7 +10189,7 @@
         <v>2415</v>
       </c>
       <c r="C790">
-        <v>2310</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -10234,7 +10234,7 @@
         <v>45262</v>
       </c>
       <c r="B794">
-        <v>2623</v>
+        <v>1923</v>
       </c>
       <c r="C794">
         <v>2495</v>
@@ -10318,7 +10318,7 @@
         <v>45269</v>
       </c>
       <c r="B801">
-        <v>2864</v>
+        <v>2164</v>
       </c>
       <c r="C801">
         <v>2821</v>
@@ -10402,7 +10402,7 @@
         <v>45276</v>
       </c>
       <c r="B808">
-        <v>2736</v>
+        <v>2036</v>
       </c>
       <c r="C808">
         <v>2675</v>
@@ -10417,7 +10417,7 @@
         <v>2506</v>
       </c>
       <c r="C809">
-        <v>2640</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -10477,7 +10477,7 @@
         <v>2765</v>
       </c>
       <c r="C814">
-        <v>2399</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -10486,7 +10486,7 @@
         <v>45283</v>
       </c>
       <c r="B815">
-        <v>2680</v>
+        <v>1980</v>
       </c>
       <c r="C815">
         <v>2820</v>
@@ -10513,7 +10513,7 @@
         <v>2800</v>
       </c>
       <c r="C817">
-        <v>2759</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -10549,7 +10549,7 @@
         <v>2660</v>
       </c>
       <c r="C820">
-        <v>2798</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -10570,7 +10570,7 @@
         <v>45290</v>
       </c>
       <c r="B822">
-        <v>2638</v>
+        <v>1938</v>
       </c>
       <c r="C822">
         <v>2925</v>
@@ -10609,7 +10609,7 @@
         <v>2240</v>
       </c>
       <c r="C825">
-        <v>2015</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -10654,7 +10654,7 @@
         <v>45297</v>
       </c>
       <c r="B829">
-        <v>2543</v>
+        <v>1843</v>
       </c>
       <c r="C829">
         <v>2590</v>
@@ -10738,7 +10738,7 @@
         <v>45304</v>
       </c>
       <c r="B836">
-        <v>2635</v>
+        <v>1935</v>
       </c>
       <c r="C836">
         <v>2325</v>
@@ -10765,7 +10765,7 @@
         <v>2835</v>
       </c>
       <c r="C838">
-        <v>2770</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -10801,7 +10801,7 @@
         <v>2730</v>
       </c>
       <c r="C841">
-        <v>2946</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -10822,7 +10822,7 @@
         <v>45311</v>
       </c>
       <c r="B843">
-        <v>2566</v>
+        <v>1866</v>
       </c>
       <c r="C843">
         <v>2470</v>
@@ -10906,7 +10906,7 @@
         <v>45318</v>
       </c>
       <c r="B850">
-        <v>2556</v>
+        <v>1856</v>
       </c>
       <c r="C850">
         <v>2651</v>
@@ -10957,7 +10957,7 @@
         <v>2212</v>
       </c>
       <c r="C854">
-        <v>2638</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -10990,7 +10990,7 @@
         <v>45325</v>
       </c>
       <c r="B857">
-        <v>2528</v>
+        <v>1828</v>
       </c>
       <c r="C857">
         <v>2580</v>
@@ -11074,7 +11074,7 @@
         <v>45332</v>
       </c>
       <c r="B864">
-        <v>2461</v>
+        <v>1761</v>
       </c>
       <c r="C864">
         <v>2346</v>
@@ -11158,7 +11158,7 @@
         <v>45339</v>
       </c>
       <c r="B871">
-        <v>2511</v>
+        <v>1811</v>
       </c>
       <c r="C871">
         <v>2780</v>
@@ -11221,7 +11221,7 @@
         <v>2800</v>
       </c>
       <c r="C876">
-        <v>2727</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -11242,7 +11242,7 @@
         <v>45346</v>
       </c>
       <c r="B878">
-        <v>2621</v>
+        <v>1921</v>
       </c>
       <c r="C878">
         <v>2210</v>
@@ -11305,7 +11305,7 @@
         <v>2870</v>
       </c>
       <c r="C883">
-        <v>2473</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -11326,7 +11326,7 @@
         <v>45353</v>
       </c>
       <c r="B885">
-        <v>2518</v>
+        <v>1818</v>
       </c>
       <c r="C885">
         <v>2750</v>
@@ -11365,7 +11365,7 @@
         <v>2310</v>
       </c>
       <c r="C888">
-        <v>2380</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -11410,10 +11410,10 @@
         <v>45360</v>
       </c>
       <c r="B892">
-        <v>2842</v>
+        <v>2142</v>
       </c>
       <c r="C892">
-        <v>2478</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -11461,7 +11461,7 @@
         <v>2429</v>
       </c>
       <c r="C896">
-        <v>2679</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -11494,7 +11494,7 @@
         <v>45367</v>
       </c>
       <c r="B899">
-        <v>2670</v>
+        <v>1970</v>
       </c>
       <c r="C899">
         <v>2375</v>
@@ -11578,7 +11578,7 @@
         <v>45374</v>
       </c>
       <c r="B906">
-        <v>2839</v>
+        <v>2139</v>
       </c>
       <c r="C906">
         <v>2094</v>
@@ -11617,7 +11617,7 @@
         <v>2240</v>
       </c>
       <c r="C909">
-        <v>2145</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -11662,7 +11662,7 @@
         <v>45381</v>
       </c>
       <c r="B913">
-        <v>2638</v>
+        <v>1938</v>
       </c>
       <c r="C913">
         <v>2310</v>
@@ -11746,7 +11746,7 @@
         <v>45388</v>
       </c>
       <c r="B920">
-        <v>2406</v>
+        <v>1706</v>
       </c>
       <c r="C920">
         <v>2860</v>
@@ -11797,7 +11797,7 @@
         <v>2079</v>
       </c>
       <c r="C924">
-        <v>2830</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -11809,7 +11809,7 @@
         <v>2835</v>
       </c>
       <c r="C925">
-        <v>2474</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -11830,7 +11830,7 @@
         <v>45395</v>
       </c>
       <c r="B927">
-        <v>2636</v>
+        <v>1936</v>
       </c>
       <c r="C927">
         <v>2176</v>
@@ -11869,7 +11869,7 @@
         <v>2275</v>
       </c>
       <c r="C930">
-        <v>2320</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -11914,7 +11914,7 @@
         <v>45402</v>
       </c>
       <c r="B934">
-        <v>2526</v>
+        <v>1826</v>
       </c>
       <c r="C934">
         <v>2650</v>
@@ -11929,7 +11929,7 @@
         <v>2436</v>
       </c>
       <c r="C935">
-        <v>2773</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -11998,7 +11998,7 @@
         <v>45409</v>
       </c>
       <c r="B941">
-        <v>2635</v>
+        <v>1935</v>
       </c>
       <c r="C941">
         <v>2075</v>
@@ -12082,7 +12082,7 @@
         <v>45416</v>
       </c>
       <c r="B948">
-        <v>2469</v>
+        <v>1769</v>
       </c>
       <c r="C948">
         <v>2770</v>
@@ -12166,7 +12166,7 @@
         <v>45423</v>
       </c>
       <c r="B955">
-        <v>2539</v>
+        <v>1839</v>
       </c>
       <c r="C955">
         <v>2670</v>
@@ -12205,7 +12205,7 @@
         <v>2520</v>
       </c>
       <c r="C958">
-        <v>2225</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -12250,7 +12250,7 @@
         <v>45430</v>
       </c>
       <c r="B962">
-        <v>2529</v>
+        <v>1829</v>
       </c>
       <c r="C962">
         <v>2690</v>
@@ -12313,7 +12313,7 @@
         <v>2835</v>
       </c>
       <c r="C967">
-        <v>2656</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -12334,10 +12334,10 @@
         <v>45437</v>
       </c>
       <c r="B969">
-        <v>2674</v>
+        <v>1974</v>
       </c>
       <c r="C969">
-        <v>2438</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -12349,7 +12349,7 @@
         <v>2611</v>
       </c>
       <c r="C970">
-        <v>2759</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -12373,7 +12373,7 @@
         <v>2275</v>
       </c>
       <c r="C972">
-        <v>2165</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -12385,7 +12385,7 @@
         <v>2296</v>
       </c>
       <c r="C973">
-        <v>2550</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -12418,7 +12418,7 @@
         <v>45444</v>
       </c>
       <c r="B976">
-        <v>2498</v>
+        <v>1798</v>
       </c>
       <c r="C976">
         <v>3085</v>
@@ -12481,7 +12481,7 @@
         <v>2940</v>
       </c>
       <c r="C981">
-        <v>2590</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -12502,7 +12502,7 @@
         <v>45451</v>
       </c>
       <c r="B983">
-        <v>2622</v>
+        <v>1922</v>
       </c>
       <c r="C983">
         <v>2282</v>
@@ -12517,7 +12517,7 @@
         <v>2569</v>
       </c>
       <c r="C984">
-        <v>2545</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -12586,7 +12586,7 @@
         <v>45458</v>
       </c>
       <c r="B990">
-        <v>2777</v>
+        <v>2077</v>
       </c>
       <c r="C990">
         <v>2855</v>
@@ -12625,7 +12625,7 @@
         <v>2415</v>
       </c>
       <c r="C993">
-        <v>2035</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -12637,7 +12637,7 @@
         <v>2450</v>
       </c>
       <c r="C994">
-        <v>2359</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -12649,7 +12649,7 @@
         <v>2905</v>
       </c>
       <c r="C995">
-        <v>2818</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -12670,7 +12670,7 @@
         <v>45465</v>
       </c>
       <c r="B997">
-        <v>2669</v>
+        <v>1969</v>
       </c>
       <c r="C997">
         <v>2730</v>
@@ -12697,7 +12697,7 @@
         <v>2835</v>
       </c>
       <c r="C999">
-        <v>2686</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
